--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31120" yWindow="620" windowWidth="29060" windowHeight="18820" tabRatio="650" firstSheet="9" activeTab="21"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="24920" windowHeight="16920" tabRatio="650" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Jul 1" sheetId="31" r:id="rId20"/>
     <sheet name="Correction" sheetId="33" r:id="rId21"/>
     <sheet name="July 8" sheetId="34" r:id="rId22"/>
+    <sheet name="July 15" sheetId="35" r:id="rId23"/>
+    <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6-17'!$A$1:$L$16</definedName>
@@ -38,6 +40,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="11">'Apr 8'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">Correction!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'Jul 1'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'July 8'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'Mar 18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'Mar 18 ++'!$A$1:$L$16</definedName>
@@ -48,6 +51,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="15">'May 6'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">Sheet4!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">Sheet7!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="23">'Unit&amp;Integration'!$A$1:$M$16</definedName>
     <definedName name="MarkWebQueryTest" localSheetId="3">Sheet2!$A$1:$L$15</definedName>
     <definedName name="MarkWebQueryTest_1" localSheetId="3">Sheet2!$A$26:$L$40</definedName>
     <definedName name="MSN_MarkWebQueryTest" localSheetId="4">Sheet3!$A$1:$L$16</definedName>
@@ -120,32 +124,38 @@
   <connection id="19" name="Connection25" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="20" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="20" name="Connection26" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="21" name="Connection27" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="22" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="21" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="23" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="24" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="288">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -995,6 +1005,21 @@
   <si>
     <t>July 8 2016</t>
   </si>
+  <si>
+    <t>17 results</t>
+  </si>
+  <si>
+    <t>July 15 2016</t>
+  </si>
+  <si>
+    <t>18 results</t>
+  </si>
+  <si>
+    <t>InT</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
 </sst>
 </file>
 
@@ -1395,7 +1420,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1455,8 +1480,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1664,8 +1693,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1723,6 +1769,10 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1832,8 +1882,16 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="24" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7900,13 +7958,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -7943,9 +8001,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -8527,20 +8585,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9003,13 +9061,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9046,9 +9104,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9630,20 +9688,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9838,13 +9896,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="102" t="s">
+      <c r="U25" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="104"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -9857,9 +9915,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10253,13 +10311,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10296,9 +10354,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10888,20 +10946,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11424,13 +11482,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11467,9 +11525,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12070,20 +12128,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12628,13 +12686,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -12671,9 +12729,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13284,20 +13342,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13834,13 +13892,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -13877,9 +13935,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14490,20 +14548,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15040,13 +15098,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15083,9 +15141,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15696,20 +15754,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16246,13 +16304,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16289,9 +16347,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16902,20 +16960,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17455,13 +17513,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17498,9 +17556,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18114,20 +18172,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -18604,13 +18662,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18647,9 +18705,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19263,20 +19321,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20418,13 +20476,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20461,9 +20519,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21077,20 +21135,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22180,20 +22238,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -22534,13 +22592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
@@ -23322,20 +23380,20 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23649,9 +23707,1778 @@
     <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="R14:R15" emptyCellReference="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
+    <col min="15" max="15" width="14" style="14" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="20" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="14">
+        <f>SUM(O2:O11)</f>
+        <v>195</v>
+      </c>
+      <c r="Q1" s="14" t="str">
+        <f t="shared" ref="Q1:R1" si="0">B1</f>
+        <v>Name</v>
+      </c>
+      <c r="R1" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="101">
+        <v>553</v>
+      </c>
+      <c r="D2" s="23">
+        <v>5987</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I2" s="101">
+        <v>0</v>
+      </c>
+      <c r="J2" s="101">
+        <v>0</v>
+      </c>
+      <c r="K2" s="101">
+        <v>2</v>
+      </c>
+      <c r="L2" s="101">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="str">
+        <f t="shared" ref="Q2:Q15" si="1">B2</f>
+        <v>Mur Service Payments</v>
+      </c>
+      <c r="R2" s="14">
+        <f t="shared" ref="R2:R15" si="2">C2</f>
+        <v>553</v>
+      </c>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="101">
+        <v>183</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1596</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I3" s="101">
+        <v>0</v>
+      </c>
+      <c r="J3" s="101">
+        <v>0</v>
+      </c>
+      <c r="K3" s="101">
+        <v>3</v>
+      </c>
+      <c r="L3" s="101">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="O3" s="14">
+        <v>26</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Entitlement Service</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" ht="15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="101">
+        <v>128</v>
+      </c>
+      <c r="D4" s="101">
+        <v>830</v>
+      </c>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I4" s="101">
+        <v>0</v>
+      </c>
+      <c r="J4" s="101">
+        <v>0</v>
+      </c>
+      <c r="K4" s="101">
+        <v>0</v>
+      </c>
+      <c r="L4" s="101">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="O4" s="14">
+        <v>150</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - Http Client</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="101">
+        <v>114</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I5" s="101">
+        <v>0</v>
+      </c>
+      <c r="J5" s="101">
+        <v>0</v>
+      </c>
+      <c r="K5" s="101">
+        <v>0</v>
+      </c>
+      <c r="L5" s="101">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" s="14">
+        <v>3</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Scheduler Payments</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="101">
+        <v>75</v>
+      </c>
+      <c r="D6" s="101">
+        <v>562</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42565</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I6" s="101">
+        <v>0</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0</v>
+      </c>
+      <c r="K6" s="101">
+        <v>1</v>
+      </c>
+      <c r="L6" s="101">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" s="14">
+        <v>3</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - Auth</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="101">
+        <v>69</v>
+      </c>
+      <c r="D7" s="101">
+        <v>839</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I7" s="101">
+        <v>0</v>
+      </c>
+      <c r="J7" s="101">
+        <v>0</v>
+      </c>
+      <c r="K7" s="101">
+        <v>2</v>
+      </c>
+      <c r="L7" s="101">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="O7" s="14">
+        <v>11</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Service Accounts</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="101">
+        <v>62</v>
+      </c>
+      <c r="D8" s="101">
+        <v>693</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42559</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I8" s="101">
+        <v>0</v>
+      </c>
+      <c r="J8" s="101">
+        <v>0</v>
+      </c>
+      <c r="K8" s="101">
+        <v>0</v>
+      </c>
+      <c r="L8" s="101">
+        <v>65</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Service CSRF</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="101">
+        <v>59</v>
+      </c>
+      <c r="D9" s="101">
+        <v>344</v>
+      </c>
+      <c r="E9" s="101">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I9" s="101">
+        <v>0</v>
+      </c>
+      <c r="J9" s="101">
+        <v>0</v>
+      </c>
+      <c r="K9" s="101">
+        <v>0</v>
+      </c>
+      <c r="L9" s="101">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - DBConnector</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" ht="15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="101">
+        <v>36</v>
+      </c>
+      <c r="D10" s="101">
+        <v>706</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42550</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="101">
+        <v>0</v>
+      </c>
+      <c r="J10" s="101">
+        <v>0</v>
+      </c>
+      <c r="K10" s="101">
+        <v>0</v>
+      </c>
+      <c r="L10" s="101">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Service payment</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="101">
+        <v>31</v>
+      </c>
+      <c r="D11" s="101">
+        <v>377</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I11" s="101">
+        <v>0</v>
+      </c>
+      <c r="J11" s="101">
+        <v>0</v>
+      </c>
+      <c r="K11" s="101">
+        <v>1</v>
+      </c>
+      <c r="L11" s="101">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - Monitoring</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="101">
+        <v>18</v>
+      </c>
+      <c r="D12" s="101">
+        <v>172</v>
+      </c>
+      <c r="E12" s="101">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="101">
+        <v>0</v>
+      </c>
+      <c r="J12" s="101">
+        <v>0</v>
+      </c>
+      <c r="K12" s="101">
+        <v>0</v>
+      </c>
+      <c r="L12" s="101">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - Exception</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="101">
+        <v>13</v>
+      </c>
+      <c r="D13" s="101">
+        <v>218</v>
+      </c>
+      <c r="E13" s="101">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42564</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I13" s="101">
+        <v>0</v>
+      </c>
+      <c r="J13" s="101">
+        <v>0</v>
+      </c>
+      <c r="K13" s="101">
+        <v>0</v>
+      </c>
+      <c r="L13" s="101">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Svc Lib - Mappers</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="S13" s="14">
+        <f>SUM(R2:R13)</f>
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="31">
+        <v>91</v>
+      </c>
+      <c r="D14" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E14" s="101">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I14" s="101">
+        <v>0</v>
+      </c>
+      <c r="J14" s="101">
+        <v>0</v>
+      </c>
+      <c r="K14" s="101">
+        <v>0</v>
+      </c>
+      <c r="L14" s="101">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Web Core UI</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="31">
+        <v>460</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9864</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I15" s="101">
+        <v>0</v>
+      </c>
+      <c r="J15" s="101">
+        <v>0</v>
+      </c>
+      <c r="K15" s="101">
+        <v>1</v>
+      </c>
+      <c r="L15" s="101">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mur Web Payment</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="S15" s="14">
+        <f>SUM(R14:R15)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="20"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="N16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="20"/>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1">
+      <c r="A18" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="N19" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
+      <c r="N20" s="105"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="D21" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="88"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22">
+        <v>460</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="46">
+        <f>P1</f>
+        <v>195</v>
+      </c>
+      <c r="R22" s="92">
+        <f t="shared" ref="R22:R27" si="3">Q22/$Q$30</f>
+        <v>8.6898395721925134E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="D23" s="58"/>
+      <c r="N23" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="P23" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="51">
+        <f>C30</f>
+        <v>150</v>
+      </c>
+      <c r="R23" s="92">
+        <f t="shared" si="3"/>
+        <v>6.684491978609626E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" s="51">
+        <f>C31</f>
+        <v>7</v>
+      </c>
+      <c r="R24" s="92">
+        <f t="shared" si="3"/>
+        <v>3.1194295900178253E-3</v>
+      </c>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="51">
+        <v>0</v>
+      </c>
+      <c r="R25" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="51">
+        <f>S13</f>
+        <v>1341</v>
+      </c>
+      <c r="R26" s="92">
+        <f t="shared" si="3"/>
+        <v>0.59759358288770048</v>
+      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" s="51">
+        <f>S15</f>
+        <v>551</v>
+      </c>
+      <c r="R27" s="92">
+        <f t="shared" si="3"/>
+        <v>0.24554367201426025</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="M29" s="14"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="96"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickBot="1">
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="56">
+        <f>SUM(Q22:Q27)</f>
+        <v>2244</v>
+      </c>
+      <c r="R30" s="100">
+        <f>SUM(R22:R27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33">
+        <f>C30</f>
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34">
+        <f>C30-C31</f>
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="107">
+        <v>554</v>
+      </c>
+      <c r="D2" s="107">
+        <v>102</v>
+      </c>
+      <c r="E2" s="23">
+        <v>6014</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="24">
+        <v>42571</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J2" s="107">
+        <v>0</v>
+      </c>
+      <c r="K2" s="107">
+        <v>0</v>
+      </c>
+      <c r="L2" s="107">
+        <v>2</v>
+      </c>
+      <c r="M2" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="107">
+        <v>183</v>
+      </c>
+      <c r="D3" s="107">
+        <v>30</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1596</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J3" s="107">
+        <v>0</v>
+      </c>
+      <c r="K3" s="107">
+        <v>0</v>
+      </c>
+      <c r="L3" s="107">
+        <v>3</v>
+      </c>
+      <c r="M3" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="107">
+        <v>128</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107">
+        <v>830</v>
+      </c>
+      <c r="F4" s="107">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J4" s="107">
+        <v>0</v>
+      </c>
+      <c r="K4" s="107">
+        <v>0</v>
+      </c>
+      <c r="L4" s="107">
+        <v>0</v>
+      </c>
+      <c r="M4" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="107">
+        <v>114</v>
+      </c>
+      <c r="D5" s="107">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J5" s="107">
+        <v>0</v>
+      </c>
+      <c r="K5" s="107">
+        <v>0</v>
+      </c>
+      <c r="L5" s="107">
+        <v>0</v>
+      </c>
+      <c r="M5" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="107">
+        <v>75</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107">
+        <v>562</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="24">
+        <v>42565</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J6" s="107">
+        <v>0</v>
+      </c>
+      <c r="K6" s="107">
+        <v>0</v>
+      </c>
+      <c r="L6" s="107">
+        <v>1</v>
+      </c>
+      <c r="M6" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="107">
+        <v>69</v>
+      </c>
+      <c r="D7" s="107">
+        <v>16</v>
+      </c>
+      <c r="E7" s="107">
+        <v>839</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J7" s="107">
+        <v>0</v>
+      </c>
+      <c r="K7" s="107">
+        <v>0</v>
+      </c>
+      <c r="L7" s="107">
+        <v>2</v>
+      </c>
+      <c r="M7" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="107">
+        <v>62</v>
+      </c>
+      <c r="D8" s="107">
+        <v>11</v>
+      </c>
+      <c r="E8" s="107">
+        <v>693</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="24">
+        <v>42559</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J8" s="107">
+        <v>0</v>
+      </c>
+      <c r="K8" s="107">
+        <v>0</v>
+      </c>
+      <c r="L8" s="107">
+        <v>0</v>
+      </c>
+      <c r="M8" s="107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="107">
+        <v>59</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107">
+        <v>344</v>
+      </c>
+      <c r="F9" s="107">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J9" s="107">
+        <v>0</v>
+      </c>
+      <c r="K9" s="107">
+        <v>0</v>
+      </c>
+      <c r="L9" s="107">
+        <v>0</v>
+      </c>
+      <c r="M9" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="107">
+        <v>36</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107">
+        <v>706</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="24">
+        <v>42550</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="107">
+        <v>0</v>
+      </c>
+      <c r="K10" s="107">
+        <v>0</v>
+      </c>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="107">
+        <v>31</v>
+      </c>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107">
+        <v>377</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J11" s="107">
+        <v>0</v>
+      </c>
+      <c r="K11" s="107">
+        <v>0</v>
+      </c>
+      <c r="L11" s="107">
+        <v>1</v>
+      </c>
+      <c r="M11" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="107">
+        <v>18</v>
+      </c>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107">
+        <v>172</v>
+      </c>
+      <c r="F12" s="107">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="107">
+        <v>0</v>
+      </c>
+      <c r="K12" s="107">
+        <v>0</v>
+      </c>
+      <c r="L12" s="107">
+        <v>0</v>
+      </c>
+      <c r="M12" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="107">
+        <v>13</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107">
+        <v>218</v>
+      </c>
+      <c r="F13" s="107">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J13" s="107">
+        <v>0</v>
+      </c>
+      <c r="K13" s="107">
+        <v>0</v>
+      </c>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="23">
+        <v>3041</v>
+      </c>
+      <c r="F14" s="107">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J14" s="107">
+        <v>0</v>
+      </c>
+      <c r="K14" s="107">
+        <v>0</v>
+      </c>
+      <c r="L14" s="107">
+        <v>0</v>
+      </c>
+      <c r="M14" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="23">
+        <v>9864</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J15" s="107">
+        <v>0</v>
+      </c>
+      <c r="K15" s="107">
+        <v>0</v>
+      </c>
+      <c r="L15" s="107">
+        <v>1</v>
+      </c>
+      <c r="M15" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:M16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="E1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="F1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="G1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="H1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="I1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="J1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="K1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="L1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="M1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -24774,20 +26601,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -24992,18 +26819,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -25637,20 +27464,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -26254,20 +28081,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -26877,20 +28704,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -27112,13 +28939,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -27155,9 +28982,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="105"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -27747,20 +29574,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -28541,20 +30368,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="24920" windowHeight="16920" tabRatio="650" firstSheet="10" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="650" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="6-17" sheetId="29" r:id="rId18"/>
     <sheet name="6-24" sheetId="30" r:id="rId19"/>
     <sheet name="Jul 1" sheetId="31" r:id="rId20"/>
-    <sheet name="Correction" sheetId="33" r:id="rId21"/>
+    <sheet name="Layout Chg" sheetId="33" r:id="rId21"/>
     <sheet name="July 8" sheetId="34" r:id="rId22"/>
     <sheet name="July 15" sheetId="35" r:id="rId23"/>
     <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
+    <sheet name="July 25" sheetId="37" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6-17'!$A$1:$L$16</definedName>
@@ -38,10 +39,11 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="10">'Apr 1'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="12">'Apr 22'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="11">'Apr 8'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">Correction!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'Jul 1'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$18</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="24">'July 25'!$A$1:$M$17</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'July 8'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">'Layout Chg'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'Mar 18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'Mar 18 ++'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">March25!$A$1:$L$16</definedName>
@@ -130,32 +132,35 @@
   <connection id="21" name="Connection27" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="22" name="Connection28" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="23" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="24" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="291">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1020,6 +1025,15 @@
   <si>
     <t>???</t>
   </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>grep -r @Test * | grep  integration | wc</t>
+  </si>
+  <si>
+    <t>grep -r @Test * | grep -v integration | wc</t>
+  </si>
 </sst>
 </file>
 
@@ -1485,7 +1499,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1710,6 +1724,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1890,8 +1918,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="24" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7958,13 +7990,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8001,9 +8033,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -8585,20 +8617,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9061,13 +9093,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9104,9 +9136,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9688,20 +9720,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9896,13 +9928,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="109" t="s">
+      <c r="U25" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="111"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="117"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -9915,9 +9947,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10311,13 +10343,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10354,9 +10386,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10946,20 +10978,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11482,13 +11514,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11525,9 +11557,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12128,20 +12160,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12686,13 +12718,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -12729,9 +12761,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13342,20 +13374,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13892,13 +13924,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -13935,9 +13967,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14548,20 +14580,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15098,13 +15130,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15141,9 +15173,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15754,20 +15786,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16304,13 +16336,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16347,9 +16379,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16960,20 +16992,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17513,13 +17545,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17556,9 +17588,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18172,20 +18204,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -18496,7 +18528,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18662,13 +18694,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18705,9 +18737,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19321,20 +19353,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20476,13 +20508,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20519,9 +20551,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21135,20 +21167,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22238,20 +22270,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -22592,8 +22624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22675,7 +22707,7 @@
       </c>
       <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="15">
+    <row r="2" spans="1:19" ht="17" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -22722,7 +22754,7 @@
       </c>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19" ht="17" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -22774,7 +22806,7 @@
       </c>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="15">
+    <row r="4" spans="1:19" ht="17" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -22826,7 +22858,7 @@
       </c>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" ht="17" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -22878,7 +22910,7 @@
       </c>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" ht="17" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -22930,7 +22962,7 @@
       </c>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" ht="17" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -22982,7 +23014,7 @@
       </c>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" ht="17" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -23034,7 +23066,7 @@
       </c>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" ht="17" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -23086,7 +23118,7 @@
       </c>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="15">
+    <row r="10" spans="1:19" ht="17" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="22" t="s">
         <v>280</v>
@@ -23138,7 +23170,7 @@
       </c>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" ht="17" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>131</v>
@@ -23185,7 +23217,7 @@
       </c>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" ht="17" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>125</v>
@@ -23232,7 +23264,7 @@
       </c>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="15">
+    <row r="13" spans="1:19" ht="17" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>130</v>
@@ -23282,7 +23314,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15">
+    <row r="14" spans="1:19" ht="17" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>116</v>
@@ -23329,7 +23361,7 @@
       </c>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="15">
+    <row r="15" spans="1:19" ht="17" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>121</v>
@@ -23380,20 +23412,20 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23724,7 +23756,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24842,7 +24874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -25430,21 +25462,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25477,6 +25509,1188 @@
     <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
     <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
     <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="14" style="14" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" customWidth="1"/>
+    <col min="20" max="21" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="33" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="14">
+        <f>SUM(P2:P11)</f>
+        <v>195</v>
+      </c>
+      <c r="R1" s="14" t="str">
+        <f t="shared" ref="R1:S4" si="0">C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="S1" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Int</v>
+      </c>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="108">
+        <v>557</v>
+      </c>
+      <c r="D2" s="108">
+        <v>102</v>
+      </c>
+      <c r="E2" s="23">
+        <v>6076</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J2" s="108">
+        <v>0</v>
+      </c>
+      <c r="K2" s="108">
+        <v>0</v>
+      </c>
+      <c r="L2" s="108">
+        <v>2</v>
+      </c>
+      <c r="M2" s="108">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+      <c r="S2" s="14">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="108">
+        <v>183</v>
+      </c>
+      <c r="D3" s="108">
+        <v>30</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1596</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="24">
+        <v>42564</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J3" s="108">
+        <v>0</v>
+      </c>
+      <c r="K3" s="108">
+        <v>0</v>
+      </c>
+      <c r="L3" s="108">
+        <v>3</v>
+      </c>
+      <c r="M3" s="108">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="P3" s="14">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="108">
+        <v>132</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108">
+        <v>860</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J4" s="108">
+        <v>0</v>
+      </c>
+      <c r="K4" s="108">
+        <v>0</v>
+      </c>
+      <c r="L4" s="108">
+        <v>2</v>
+      </c>
+      <c r="M4" s="108">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="108">
+        <v>114</v>
+      </c>
+      <c r="D5" s="108">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J5" s="108">
+        <v>0</v>
+      </c>
+      <c r="K5" s="108">
+        <v>0</v>
+      </c>
+      <c r="L5" s="108">
+        <v>0</v>
+      </c>
+      <c r="M5" s="108">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S5" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="108">
+        <v>75</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108">
+        <v>562</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="24">
+        <v>42565</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J6" s="108">
+        <v>0</v>
+      </c>
+      <c r="K6" s="108">
+        <v>0</v>
+      </c>
+      <c r="L6" s="108">
+        <v>1</v>
+      </c>
+      <c r="M6" s="108">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14">
+        <f t="shared" ref="R6:R12" si="1">C5</f>
+        <v>114</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" ref="S6:S12" si="2">D5</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="108">
+        <v>69</v>
+      </c>
+      <c r="D7" s="108">
+        <v>16</v>
+      </c>
+      <c r="E7" s="108">
+        <v>839</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J7" s="108">
+        <v>0</v>
+      </c>
+      <c r="K7" s="108">
+        <v>0</v>
+      </c>
+      <c r="L7" s="108">
+        <v>2</v>
+      </c>
+      <c r="M7" s="108">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="14">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="108">
+        <v>61</v>
+      </c>
+      <c r="D8" s="108">
+        <v>11</v>
+      </c>
+      <c r="E8" s="108">
+        <v>693</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J8" s="108">
+        <v>0</v>
+      </c>
+      <c r="K8" s="108">
+        <v>0</v>
+      </c>
+      <c r="L8" s="108">
+        <v>0</v>
+      </c>
+      <c r="M8" s="108">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="108">
+        <v>59</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108">
+        <v>344</v>
+      </c>
+      <c r="F9" s="108">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J9" s="108">
+        <v>0</v>
+      </c>
+      <c r="K9" s="108">
+        <v>0</v>
+      </c>
+      <c r="L9" s="108">
+        <v>0</v>
+      </c>
+      <c r="M9" s="108">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="108">
+        <v>36</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108">
+        <v>706</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="24">
+        <v>42550</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="108">
+        <v>0</v>
+      </c>
+      <c r="K10" s="108">
+        <v>0</v>
+      </c>
+      <c r="L10" s="108">
+        <v>0</v>
+      </c>
+      <c r="M10" s="108">
+        <v>8</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="108">
+        <v>36</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108">
+        <v>195</v>
+      </c>
+      <c r="F11" s="108">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="108">
+        <v>0</v>
+      </c>
+      <c r="K11" s="108">
+        <v>0</v>
+      </c>
+      <c r="L11" s="108">
+        <v>0</v>
+      </c>
+      <c r="M11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="108">
+        <v>31</v>
+      </c>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108">
+        <v>377</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J12" s="108">
+        <v>0</v>
+      </c>
+      <c r="K12" s="108">
+        <v>0</v>
+      </c>
+      <c r="L12" s="108">
+        <v>1</v>
+      </c>
+      <c r="M12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="108">
+        <v>18</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108">
+        <v>172</v>
+      </c>
+      <c r="F13" s="108">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="J13" s="108">
+        <v>0</v>
+      </c>
+      <c r="K13" s="108">
+        <v>0</v>
+      </c>
+      <c r="L13" s="108">
+        <v>0</v>
+      </c>
+      <c r="M13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S13" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T13" s="14" t="e">
+        <f>SUM(S2:S13)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="108">
+        <v>13</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108">
+        <v>218</v>
+      </c>
+      <c r="F14" s="108">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>42573</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J14" s="108">
+        <v>0</v>
+      </c>
+      <c r="K14" s="108">
+        <v>0</v>
+      </c>
+      <c r="L14" s="108">
+        <v>0</v>
+      </c>
+      <c r="M14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14">
+        <f>C12</f>
+        <v>31</v>
+      </c>
+      <c r="S14" s="14">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="23">
+        <v>3041</v>
+      </c>
+      <c r="F15" s="108">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J15" s="108">
+        <v>0</v>
+      </c>
+      <c r="K15" s="108">
+        <v>0</v>
+      </c>
+      <c r="L15" s="108">
+        <v>0</v>
+      </c>
+      <c r="M15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14">
+        <f>C13</f>
+        <v>18</v>
+      </c>
+      <c r="S15" s="14">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f>SUM(S14:S15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="23">
+        <v>9864</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="24">
+        <v>42566</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J16" s="108">
+        <v>0</v>
+      </c>
+      <c r="K16" s="108">
+        <v>0</v>
+      </c>
+      <c r="L16" s="108">
+        <v>1</v>
+      </c>
+      <c r="M16" s="108">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1">
+      <c r="A17" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O19" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="111"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1">
+      <c r="O20" s="112"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" s="64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="88"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1">
+      <c r="D22" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="46">
+        <f>Q1</f>
+        <v>195</v>
+      </c>
+      <c r="S22" s="92" t="e">
+        <f t="shared" ref="S22:S27" si="3">R22/$Q$30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>460</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="R23" s="51">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1">
+      <c r="D24" s="58"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="R24" s="51">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1">
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="51">
+        <v>0</v>
+      </c>
+      <c r="S25" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1">
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="R26" s="51" t="e">
+        <f>T13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S26" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1">
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="R27" s="51">
+        <f>T15</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1">
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1">
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="96"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="N30" s="14"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="56" t="e">
+        <f>SUM(R22:R27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S30" s="100" t="e">
+        <f>SUM(S22:S27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1">
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1">
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="15" customHeight="1">
+      <c r="C34">
+        <f>C31</f>
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="3:16" ht="15" customHeight="1">
+      <c r="C35">
+        <f>C31-C32</f>
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="15" customHeight="1">
+      <c r="D39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="15" customHeight="1">
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:M17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="E1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="F1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="G1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="H1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="I1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="J1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="K1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="L1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="M1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -26601,20 +27815,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -26819,18 +28033,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27464,20 +28678,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -28081,20 +29295,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -28704,20 +29918,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -28939,13 +30153,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="111"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -28982,9 +30196,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -29574,20 +30788,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -30368,20 +31582,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="650" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="180" yWindow="1900" windowWidth="26040" windowHeight="13860" tabRatio="650" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="July 15" sheetId="35" r:id="rId23"/>
     <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
     <sheet name="July 25" sheetId="37" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6-17'!$A$1:$L$16</definedName>
@@ -51,6 +52,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="14">'May 13'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="16">'May 20'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="15">'May 6'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="25">Sheet1!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">Sheet4!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">Sheet7!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="23">'Unit&amp;Integration'!$A$1:$M$16</definedName>
@@ -135,32 +137,35 @@
   <connection id="22" name="Connection28" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="23" name="Connection29" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="24" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="318">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1034,6 +1039,87 @@
   <si>
     <t>grep -r @Test * | grep -v integration | wc</t>
   </si>
+  <si>
+    <t>Mur Service billpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h 25min </t>
+  </si>
+  <si>
+    <t>Mur Client Service</t>
+  </si>
+  <si>
+    <t>Mur Service ClientOnBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7h 9min </t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-interfaces:1.1.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-exception:3.0.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-logger:3.0.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-dbconnector:1.4.2'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-monitoring:2.0.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-httpclient:6.1.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-exception:3.2.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-logger:4.0.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-mappers:1.0.7'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-dbconnector:1.4.1'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-httpclient:6.1.5'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-monitoring:4.1.12'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-auth:3.1.10'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-dbconnector:1.4.0'</t>
+  </si>
+  <si>
+    <t>compile 'com.svb.murano.common:mur-java-lib-auth:3.1.9'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-interfaces:1.1.0'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-exception:3.2.0'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-logger:4.0.0'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-interfaces:1.1.0</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-httpclient:6.2.2'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-mappers:1.0.7'</t>
+  </si>
+  <si>
+    <t>provided 'com.svb.murano.common:mur-java-lib-dbconnector:1.5.0'</t>
+  </si>
 </sst>
 </file>
 
@@ -1499,7 +1585,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1727,6 +1813,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,7 +1948,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1903,7 +1992,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1922,8 +2011,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7990,13 +8083,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8033,9 +8126,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -8617,20 +8710,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9093,13 +9186,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9136,9 +9229,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9720,20 +9813,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9928,13 +10021,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="115" t="s">
+      <c r="U25" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="118"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -9947,9 +10040,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10343,13 +10436,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10386,9 +10479,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10978,20 +11071,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11514,13 +11607,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11557,9 +11650,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12160,20 +12253,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12718,13 +12811,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -12761,9 +12854,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13374,20 +13467,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13924,13 +14017,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -13967,9 +14060,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14580,20 +14673,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15130,13 +15223,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15173,9 +15266,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15786,20 +15879,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16336,13 +16429,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16379,9 +16472,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16992,20 +17085,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17545,13 +17638,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17588,9 +17681,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18204,20 +18297,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -18694,13 +18787,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18737,9 +18830,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19353,20 +19446,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20508,13 +20601,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20551,9 +20644,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21167,20 +21260,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22270,20 +22363,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -22624,7 +22717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -23412,20 +23505,20 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -25462,21 +25555,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26366,21 +26459,21 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="B18" t="s">
@@ -26693,6 +26786,1274 @@
     <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="114">
+        <v>563</v>
+      </c>
+      <c r="D2" s="23">
+        <v>6090</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I2" s="114">
+        <v>0</v>
+      </c>
+      <c r="J2" s="114">
+        <v>0</v>
+      </c>
+      <c r="K2" s="114">
+        <v>2</v>
+      </c>
+      <c r="L2" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="114">
+        <v>183</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1573</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I3" s="114">
+        <v>0</v>
+      </c>
+      <c r="J3" s="114">
+        <v>0</v>
+      </c>
+      <c r="K3" s="114">
+        <v>3</v>
+      </c>
+      <c r="L3" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="114">
+        <v>132</v>
+      </c>
+      <c r="D4" s="114">
+        <v>861</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I4" s="114">
+        <v>0</v>
+      </c>
+      <c r="J4" s="114">
+        <v>0</v>
+      </c>
+      <c r="K4" s="114">
+        <v>2</v>
+      </c>
+      <c r="L4" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="114">
+        <v>114</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42566</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I5" s="114">
+        <v>0</v>
+      </c>
+      <c r="J5" s="114">
+        <v>0</v>
+      </c>
+      <c r="K5" s="114">
+        <v>0</v>
+      </c>
+      <c r="L5" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="114">
+        <v>75</v>
+      </c>
+      <c r="D6" s="114">
+        <v>562</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I6" s="114">
+        <v>0</v>
+      </c>
+      <c r="J6" s="114">
+        <v>0</v>
+      </c>
+      <c r="K6" s="114">
+        <v>1</v>
+      </c>
+      <c r="L6" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="114">
+        <v>69</v>
+      </c>
+      <c r="D7" s="114">
+        <v>839</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I7" s="114">
+        <v>0</v>
+      </c>
+      <c r="J7" s="114">
+        <v>0</v>
+      </c>
+      <c r="K7" s="114">
+        <v>2</v>
+      </c>
+      <c r="L7" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="114">
+        <v>61</v>
+      </c>
+      <c r="D8" s="114">
+        <v>693</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I8" s="114">
+        <v>0</v>
+      </c>
+      <c r="J8" s="114">
+        <v>0</v>
+      </c>
+      <c r="K8" s="114">
+        <v>0</v>
+      </c>
+      <c r="L8" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="114">
+        <v>59</v>
+      </c>
+      <c r="D9" s="114">
+        <v>344</v>
+      </c>
+      <c r="E9" s="114">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I9" s="114">
+        <v>0</v>
+      </c>
+      <c r="J9" s="114">
+        <v>0</v>
+      </c>
+      <c r="K9" s="114">
+        <v>0</v>
+      </c>
+      <c r="L9" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="114">
+        <v>36</v>
+      </c>
+      <c r="D10" s="114">
+        <v>195</v>
+      </c>
+      <c r="E10" s="114">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="114">
+        <v>0</v>
+      </c>
+      <c r="J10" s="114">
+        <v>0</v>
+      </c>
+      <c r="K10" s="114">
+        <v>0</v>
+      </c>
+      <c r="L10" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="114">
+        <v>31</v>
+      </c>
+      <c r="D11" s="114">
+        <v>377</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I11" s="114">
+        <v>0</v>
+      </c>
+      <c r="J11" s="114">
+        <v>0</v>
+      </c>
+      <c r="K11" s="114">
+        <v>1</v>
+      </c>
+      <c r="L11" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="114">
+        <v>18</v>
+      </c>
+      <c r="D12" s="114">
+        <v>172</v>
+      </c>
+      <c r="E12" s="114">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="114">
+        <v>0</v>
+      </c>
+      <c r="J12" s="114">
+        <v>0</v>
+      </c>
+      <c r="K12" s="114">
+        <v>0</v>
+      </c>
+      <c r="L12" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="114">
+        <v>13</v>
+      </c>
+      <c r="D13" s="114">
+        <v>218</v>
+      </c>
+      <c r="E13" s="114">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I13" s="114">
+        <v>0</v>
+      </c>
+      <c r="J13" s="114">
+        <v>0</v>
+      </c>
+      <c r="K13" s="114">
+        <v>0</v>
+      </c>
+      <c r="L13" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E14" s="114">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I14" s="114">
+        <v>0</v>
+      </c>
+      <c r="J14" s="114">
+        <v>0</v>
+      </c>
+      <c r="K14" s="114">
+        <v>0</v>
+      </c>
+      <c r="L14" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="23">
+        <v>10113</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42586</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="I15" s="114">
+        <v>0</v>
+      </c>
+      <c r="J15" s="114">
+        <v>0</v>
+      </c>
+      <c r="K15" s="114">
+        <v>0</v>
+      </c>
+      <c r="L15" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="114">
+        <v>36</v>
+      </c>
+      <c r="D22" s="114">
+        <v>706</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="24">
+        <v>42550</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="114">
+        <v>0</v>
+      </c>
+      <c r="J22" s="114">
+        <v>0</v>
+      </c>
+      <c r="K22" s="114">
+        <v>0</v>
+      </c>
+      <c r="L22" s="114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="114">
+        <v>142</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2575</v>
+      </c>
+      <c r="E23" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="24">
+        <v>42579</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.997</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I23" s="114">
+        <v>0</v>
+      </c>
+      <c r="J23" s="114">
+        <v>0</v>
+      </c>
+      <c r="K23" s="114">
+        <v>8</v>
+      </c>
+      <c r="L23" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="114">
+        <v>31</v>
+      </c>
+      <c r="D24" s="114">
+        <v>401</v>
+      </c>
+      <c r="E24" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="114">
+        <v>0</v>
+      </c>
+      <c r="J24" s="114">
+        <v>0</v>
+      </c>
+      <c r="K24" s="114">
+        <v>1</v>
+      </c>
+      <c r="L24" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="114">
+        <v>14</v>
+      </c>
+      <c r="D25" s="114">
+        <v>503</v>
+      </c>
+      <c r="E25" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="114">
+        <v>0</v>
+      </c>
+      <c r="J25" s="114">
+        <v>0</v>
+      </c>
+      <c r="K25" s="114">
+        <v>6</v>
+      </c>
+      <c r="L25" s="114">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15">
+      <c r="B33" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15">
+      <c r="B34" s="22"/>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15">
+      <c r="B35" s="22"/>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15">
+      <c r="B36" s="22"/>
+      <c r="C36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15">
+      <c r="B37" s="22"/>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="2:3" ht="15">
+      <c r="B39" s="22"/>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15">
+      <c r="B40" s="22"/>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15">
+      <c r="B41" s="22"/>
+      <c r="C41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15">
+      <c r="B42" s="22"/>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="2:3" ht="15">
+      <c r="B44" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15">
+      <c r="B45" s="22"/>
+      <c r="C45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15">
+      <c r="B46" s="22"/>
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15">
+      <c r="B47" s="22"/>
+      <c r="C47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15">
+      <c r="B48" s="22"/>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15">
+      <c r="B49" s="22"/>
+      <c r="C49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15">
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="2:3" ht="15">
+      <c r="B51" s="22"/>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15">
+      <c r="B52" s="22"/>
+      <c r="C52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15">
+      <c r="B53" s="22"/>
+      <c r="C53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="2:3" ht="15">
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="2:3" ht="15">
+      <c r="B56" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="15">
+      <c r="B57" s="22"/>
+      <c r="C57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15">
+      <c r="B58" s="22"/>
+      <c r="C58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15">
+      <c r="B59" s="22"/>
+      <c r="C59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15">
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="2:3" ht="15">
+      <c r="B61" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15">
+      <c r="B62" s="22"/>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15">
+      <c r="B63" s="22"/>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15">
+      <c r="B64" s="22"/>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15">
+      <c r="B65" s="22"/>
+      <c r="C65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15">
+      <c r="B66" s="22"/>
+      <c r="C66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15">
+      <c r="B67" s="22"/>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15">
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="2:3" ht="15">
+      <c r="B69" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15">
+      <c r="B70" s="22"/>
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="15">
+      <c r="B71" s="22"/>
+      <c r="C71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15">
+      <c r="B72" s="22"/>
+      <c r="C72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15">
+      <c r="B73" s="22"/>
+      <c r="C73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15">
+      <c r="B74" s="22"/>
+    </row>
+    <row r="75" spans="2:3" ht="15">
+      <c r="B75" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15">
+      <c r="B76" s="22"/>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15">
+      <c r="B77" s="22"/>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15">
+      <c r="B78" s="22"/>
+      <c r="C78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15">
+      <c r="B79" s="22"/>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15">
+      <c r="B80" s="22"/>
+      <c r="C80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15">
+      <c r="B81" s="22"/>
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15">
+      <c r="B82" s="22"/>
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15">
+      <c r="B83" s="22"/>
+      <c r="C83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="15">
+      <c r="B84" s="22"/>
+    </row>
+    <row r="85" spans="2:3" ht="15">
+      <c r="B85" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15">
+      <c r="B86" s="22"/>
+      <c r="C86" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15">
+      <c r="B87" s="22"/>
+      <c r="C87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15">
+      <c r="B88" s="22"/>
+      <c r="C88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="15">
+      <c r="B89" s="22"/>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="15">
+      <c r="B90" s="22"/>
+      <c r="C90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15">
+      <c r="B91" s="22"/>
+    </row>
+    <row r="92" spans="2:3" ht="15">
+      <c r="B92" s="22"/>
+      <c r="C92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15">
+      <c r="B93" s="22"/>
+      <c r="C93" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15">
+      <c r="B94" s="22"/>
+      <c r="C94" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15">
+      <c r="B95" s="22"/>
+    </row>
+    <row r="96" spans="2:3" ht="15">
+      <c r="B96" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="15">
+      <c r="B97" s="22"/>
+      <c r="C97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15">
+      <c r="B98" s="22"/>
+      <c r="C98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="15">
+      <c r="B99" s="22"/>
+      <c r="C99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15">
+      <c r="B100" s="22"/>
+    </row>
+    <row r="101" spans="2:3" ht="15">
+      <c r="B101" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="15">
+      <c r="B102" s="22"/>
+      <c r="C102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="15">
+      <c r="B103" s="22"/>
+      <c r="C103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="15">
+      <c r="B104" s="22"/>
+    </row>
+    <row r="105" spans="2:3" ht="15">
+      <c r="B105" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15">
+      <c r="B106" s="22"/>
+      <c r="C106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="15">
+      <c r="B107" s="22"/>
+      <c r="C107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="15">
+      <c r="B108" s="22"/>
+      <c r="C108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="15">
+      <c r="B109" s="22"/>
+      <c r="C109" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="15">
+      <c r="B110" s="22"/>
+      <c r="C110" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="15">
+      <c r="B111" s="22"/>
+      <c r="C111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15">
+      <c r="B112" s="22"/>
+    </row>
+    <row r="113" spans="2:3" ht="15">
+      <c r="B113" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="15">
+      <c r="B114" s="22"/>
+      <c r="C114" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="15">
+      <c r="B115" s="22"/>
+    </row>
+    <row r="116" spans="2:3" ht="15">
+      <c r="B116" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="15">
+      <c r="B117" s="22"/>
+      <c r="C117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="15">
+      <c r="B118" s="22"/>
+      <c r="C118" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="15">
+      <c r="B119" s="22"/>
+      <c r="C119" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15">
+      <c r="B120" s="22"/>
+    </row>
+    <row r="121" spans="2:3" ht="15">
+      <c r="B121" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="15">
+      <c r="B122" s="22"/>
+    </row>
+    <row r="123" spans="2:3" ht="15">
+      <c r="B123" s="22"/>
+    </row>
+    <row r="124" spans="2:3" ht="15">
+      <c r="B124" s="22"/>
+    </row>
+    <row r="125" spans="2:3" ht="15">
+      <c r="B125" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:L16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B23" r:id="rId3" tooltip="svb-services-billpay"/>
+    <hyperlink ref="B4" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B22" r:id="rId10" tooltip="svb-services-payment"/>
+    <hyperlink ref="B10" r:id="rId11" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B24" r:id="rId12" tooltip="svb-service-client"/>
+    <hyperlink ref="B11" r:id="rId13" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B25" r:id="rId15" tooltip="svb-services-clientonboard"/>
+    <hyperlink ref="B13" r:id="rId16" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId17" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId18" tooltip="svb-web-payment"/>
+    <hyperlink ref="B33" r:id="rId19" tooltip="svb-service-payments"/>
+    <hyperlink ref="B44" r:id="rId20" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B61" r:id="rId21" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B69" r:id="rId22" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B75" r:id="rId23" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B85" r:id="rId24" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B96" r:id="rId25" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B101" r:id="rId26" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B105" r:id="rId27" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B113" r:id="rId28" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B116" r:id="rId29" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B121" r:id="rId30" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B125" r:id="rId31" tooltip="svb-web-payment"/>
+    <hyperlink ref="B56" r:id="rId32" tooltip="mur-java-lib-httpclient"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27815,20 +29176,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -28033,18 +29394,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28678,20 +30039,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -29295,20 +30656,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -29918,20 +31279,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -30153,13 +31514,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="118"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -30196,9 +31557,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -30788,20 +32149,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -31582,20 +32943,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1900" windowWidth="26040" windowHeight="13860" tabRatio="650" firstSheet="22" activeTab="25"/>
+    <workbookView xWindow="8760" yWindow="800" windowWidth="18460" windowHeight="13880" tabRatio="650" firstSheet="20" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
     <sheet name="July 25" sheetId="37" r:id="rId25"/>
     <sheet name="Sheet1" sheetId="38" r:id="rId26"/>
+    <sheet name="Aug 19" sheetId="39" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6-17'!$A$1:$L$16</definedName>
@@ -40,6 +41,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="10">'Apr 1'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="12">'Apr 22'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="11">'Apr 8'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="26">'Aug 19'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'Jul 1'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="24">'July 25'!$A$1:$M$17</definedName>
@@ -143,29 +145,32 @@
   <connection id="24" name="Connection3" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="Connection30" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="26" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="318">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1585,7 +1590,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1816,6 +1821,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,7 +1956,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,7 +2000,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,8 +2023,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="27" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8083,13 +8095,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8126,9 +8138,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -8710,20 +8722,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9186,13 +9198,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9229,9 +9241,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9813,20 +9825,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10021,13 +10033,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="116" t="s">
+      <c r="U25" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="119"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10040,9 +10052,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10436,13 +10448,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10479,9 +10491,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11071,20 +11083,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11607,13 +11619,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11650,9 +11662,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12253,20 +12265,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12811,13 +12823,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -12854,9 +12866,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13467,20 +13479,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14017,13 +14029,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14060,9 +14072,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14673,20 +14685,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15223,13 +15235,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15266,9 +15278,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15879,20 +15891,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16429,13 +16441,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16472,9 +16484,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17085,20 +17097,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17638,13 +17650,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17681,9 +17693,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18297,20 +18309,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -18787,13 +18799,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18830,9 +18842,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19446,20 +19458,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20601,13 +20613,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20644,9 +20656,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21260,20 +21272,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22363,20 +22375,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23505,20 +23517,20 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -25555,21 +25567,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25616,8 +25628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:M12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26459,21 +26471,21 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="B18" t="s">
@@ -26786,6 +26798,7 @@
     <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26798,7 +26811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -27356,20 +27369,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -28062,6 +28075,728 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="53" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="115">
+        <v>578</v>
+      </c>
+      <c r="D2" s="23">
+        <v>6199</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42600</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="I2" s="115">
+        <v>0</v>
+      </c>
+      <c r="J2" s="115">
+        <v>0</v>
+      </c>
+      <c r="K2" s="115">
+        <v>2</v>
+      </c>
+      <c r="L2" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="115">
+        <v>194</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I3" s="115">
+        <v>0</v>
+      </c>
+      <c r="J3" s="115">
+        <v>0</v>
+      </c>
+      <c r="K3" s="115">
+        <v>2</v>
+      </c>
+      <c r="L3" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="115">
+        <v>132</v>
+      </c>
+      <c r="D4" s="115">
+        <v>861</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I4" s="115">
+        <v>0</v>
+      </c>
+      <c r="J4" s="115">
+        <v>0</v>
+      </c>
+      <c r="K4" s="115">
+        <v>2</v>
+      </c>
+      <c r="L4" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="115">
+        <v>114</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1573</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42597</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I5" s="115">
+        <v>0</v>
+      </c>
+      <c r="J5" s="115">
+        <v>0</v>
+      </c>
+      <c r="K5" s="115">
+        <v>0</v>
+      </c>
+      <c r="L5" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="115">
+        <v>76</v>
+      </c>
+      <c r="D6" s="115">
+        <v>563</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I6" s="115">
+        <v>0</v>
+      </c>
+      <c r="J6" s="115">
+        <v>0</v>
+      </c>
+      <c r="K6" s="115">
+        <v>1</v>
+      </c>
+      <c r="L6" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="115">
+        <v>69</v>
+      </c>
+      <c r="D7" s="115">
+        <v>839</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42597</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I7" s="115">
+        <v>0</v>
+      </c>
+      <c r="J7" s="115">
+        <v>0</v>
+      </c>
+      <c r="K7" s="115">
+        <v>2</v>
+      </c>
+      <c r="L7" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="115">
+        <v>61</v>
+      </c>
+      <c r="D8" s="115">
+        <v>693</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42577</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I8" s="115">
+        <v>0</v>
+      </c>
+      <c r="J8" s="115">
+        <v>0</v>
+      </c>
+      <c r="K8" s="115">
+        <v>0</v>
+      </c>
+      <c r="L8" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="115">
+        <v>59</v>
+      </c>
+      <c r="D9" s="115">
+        <v>344</v>
+      </c>
+      <c r="E9" s="115">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I9" s="115">
+        <v>0</v>
+      </c>
+      <c r="J9" s="115">
+        <v>0</v>
+      </c>
+      <c r="K9" s="115">
+        <v>0</v>
+      </c>
+      <c r="L9" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="115">
+        <v>36</v>
+      </c>
+      <c r="D10" s="115">
+        <v>195</v>
+      </c>
+      <c r="E10" s="115">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="115">
+        <v>0</v>
+      </c>
+      <c r="J10" s="115">
+        <v>0</v>
+      </c>
+      <c r="K10" s="115">
+        <v>0</v>
+      </c>
+      <c r="L10" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="115">
+        <v>31</v>
+      </c>
+      <c r="D11" s="115">
+        <v>377</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I11" s="115">
+        <v>0</v>
+      </c>
+      <c r="J11" s="115">
+        <v>0</v>
+      </c>
+      <c r="K11" s="115">
+        <v>1</v>
+      </c>
+      <c r="L11" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="115">
+        <v>18</v>
+      </c>
+      <c r="D12" s="115">
+        <v>172</v>
+      </c>
+      <c r="E12" s="115">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="115">
+        <v>0</v>
+      </c>
+      <c r="J12" s="115">
+        <v>0</v>
+      </c>
+      <c r="K12" s="115">
+        <v>0</v>
+      </c>
+      <c r="L12" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="115">
+        <v>13</v>
+      </c>
+      <c r="D13" s="115">
+        <v>218</v>
+      </c>
+      <c r="E13" s="115">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I13" s="115">
+        <v>0</v>
+      </c>
+      <c r="J13" s="115">
+        <v>0</v>
+      </c>
+      <c r="K13" s="115">
+        <v>0</v>
+      </c>
+      <c r="L13" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E14" s="115">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I14" s="115">
+        <v>0</v>
+      </c>
+      <c r="J14" s="115">
+        <v>0</v>
+      </c>
+      <c r="K14" s="115">
+        <v>0</v>
+      </c>
+      <c r="L14" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="23">
+        <v>10113</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42586</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="I15" s="115">
+        <v>0</v>
+      </c>
+      <c r="J15" s="115">
+        <v>0</v>
+      </c>
+      <c r="K15" s="115">
+        <v>0</v>
+      </c>
+      <c r="L15" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" s="58"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <f>C30-C31</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:L16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N24"/>
@@ -29176,20 +29911,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -29394,18 +30129,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30039,20 +30774,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -30656,20 +31391,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -31279,20 +32014,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -31514,13 +32249,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="116" t="s">
+      <c r="U4" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -31557,9 +32292,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -32149,20 +32884,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -32943,20 +33678,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,63 +4,65 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="800" windowWidth="18460" windowHeight="13880" tabRatio="650" firstSheet="20" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="650" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
     <sheet name="believe I reported this" sheetId="18" r:id="rId2"/>
     <sheet name="SonarQube Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="15" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="16" r:id="rId7"/>
-    <sheet name="Mar 18" sheetId="17" r:id="rId8"/>
-    <sheet name="Mar 18 ++" sheetId="19" r:id="rId9"/>
-    <sheet name="March25" sheetId="20" r:id="rId10"/>
-    <sheet name="Apr 1" sheetId="21" r:id="rId11"/>
-    <sheet name="Apr 8" sheetId="22" r:id="rId12"/>
-    <sheet name="Apr 22" sheetId="23" r:id="rId13"/>
-    <sheet name="May 1" sheetId="24" r:id="rId14"/>
-    <sheet name="May 13" sheetId="26" r:id="rId15"/>
-    <sheet name="May 6" sheetId="25" r:id="rId16"/>
-    <sheet name="May 20" sheetId="27" r:id="rId17"/>
-    <sheet name="6-17" sheetId="29" r:id="rId18"/>
-    <sheet name="6-24" sheetId="30" r:id="rId19"/>
-    <sheet name="Jul 1" sheetId="31" r:id="rId20"/>
+    <sheet name="S2" sheetId="3" r:id="rId4"/>
+    <sheet name="S3" sheetId="6" r:id="rId5"/>
+    <sheet name="S4" sheetId="15" r:id="rId6"/>
+    <sheet name="S7" sheetId="16" r:id="rId7"/>
+    <sheet name="3.18" sheetId="17" r:id="rId8"/>
+    <sheet name="3.18 ++" sheetId="19" r:id="rId9"/>
+    <sheet name="3.25" sheetId="20" r:id="rId10"/>
+    <sheet name="4.1" sheetId="21" r:id="rId11"/>
+    <sheet name="4.8" sheetId="22" r:id="rId12"/>
+    <sheet name="4.22" sheetId="23" r:id="rId13"/>
+    <sheet name="5.1" sheetId="24" r:id="rId14"/>
+    <sheet name="5.13" sheetId="26" r:id="rId15"/>
+    <sheet name="5.6" sheetId="25" r:id="rId16"/>
+    <sheet name="5.20" sheetId="27" r:id="rId17"/>
+    <sheet name="6.17" sheetId="29" r:id="rId18"/>
+    <sheet name="6.24" sheetId="30" r:id="rId19"/>
+    <sheet name="7.1" sheetId="31" r:id="rId20"/>
     <sheet name="Layout Chg" sheetId="33" r:id="rId21"/>
     <sheet name="July 8" sheetId="34" r:id="rId22"/>
     <sheet name="July 15" sheetId="35" r:id="rId23"/>
     <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
-    <sheet name="July 25" sheetId="37" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="38" r:id="rId26"/>
-    <sheet name="Aug 19" sheetId="39" r:id="rId27"/>
+    <sheet name="7.25" sheetId="37" r:id="rId25"/>
+    <sheet name="humm" sheetId="38" r:id="rId26"/>
+    <sheet name="8.19" sheetId="39" r:id="rId27"/>
+    <sheet name="9.20" sheetId="41" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6-17'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="18">'6-24'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="10">'Apr 1'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="12">'Apr 22'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="11">'Apr 8'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="26">'Aug 19'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'Jul 1'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$18</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="24">'July 25'!$A$1:$M$17</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'July 8'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">'3.25'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="10">'4.1'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="12">'4.22'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="11">'4.8'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="13">'5.1'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="14">'5.13'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="16">'5.20'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="15">'5.6'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6.17'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="18">'6.24'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'7.1'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="24">'7.25'!$A$1:$M$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="26">'8.19'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="27">'9.20'!$A$1:$L$17</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="25">humm!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$17</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'July 8'!$A$1:$L$15</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">'Layout Chg'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'Mar 18'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'Mar 18 ++'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">March25!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="13">'May 1'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="14">'May 13'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="16">'May 20'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="15">'May 6'!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="25">Sheet1!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">Sheet4!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">Sheet7!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">'S4'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">'S7'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="23">'Unit&amp;Integration'!$A$1:$M$16</definedName>
-    <definedName name="MarkWebQueryTest" localSheetId="3">Sheet2!$A$1:$L$15</definedName>
-    <definedName name="MarkWebQueryTest_1" localSheetId="3">Sheet2!$A$26:$L$40</definedName>
-    <definedName name="MSN_MarkWebQueryTest" localSheetId="4">Sheet3!$A$1:$L$16</definedName>
+    <definedName name="MarkWebQueryTest" localSheetId="3">'S2'!$A$1:$L$15</definedName>
+    <definedName name="MarkWebQueryTest_1" localSheetId="3">'S2'!$A$26:$L$40</definedName>
+    <definedName name="MSN_MarkWebQueryTest" localSheetId="4">'S3'!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -148,29 +150,32 @@
   <connection id="25" name="Connection30" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="Connection31" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="27" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="328">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1033,9 +1038,6 @@
     <t>InT</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -1125,6 +1127,39 @@
   <si>
     <t>provided 'com.svb.murano.common:mur-java-lib-dbconnector:1.5.0'</t>
   </si>
+  <si>
+    <t>The screen shot added 9/20/16</t>
+  </si>
+  <si>
+    <t>Screen shot file date is 8/9/16</t>
+  </si>
+  <si>
+    <t>This is what I believe was the state</t>
+  </si>
+  <si>
+    <t>of the project repository collection</t>
+  </si>
+  <si>
+    <t>when I started this exercise</t>
+  </si>
+  <si>
+    <t>But I can see that is does not include</t>
+  </si>
+  <si>
+    <t>svb-service-client</t>
+  </si>
+  <si>
+    <t>July 25 2016</t>
+  </si>
+  <si>
+    <t>Aug 19 2016</t>
+  </si>
+  <si>
+    <t>Sep 20 2016</t>
+  </si>
+  <si>
+    <t>Protractor with Backend</t>
+  </si>
 </sst>
 </file>
 
@@ -1133,7 +1168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1199,8 +1234,14 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,8 +1296,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1524,8 +1583,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1589,8 +1778,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1835,8 +2025,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="64">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1898,6 +2143,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1907,6 +2153,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420296</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7014309" y="10033000"/>
+          <a:ext cx="2178756" cy="3770924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1956,7 +2245,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2000,7 +2289,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,8 +2316,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="27" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="28" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2377,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1034"/>
+  <dimension ref="A1:Q1034"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -2876,7 +3169,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="13" customHeight="1">
+    <row r="49" spans="1:17" ht="13" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2887,7 +3180,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13" customHeight="1">
+    <row r="50" spans="1:17" ht="13" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
@@ -2900,7 +3193,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13" customHeight="1">
+    <row r="51" spans="1:17" ht="13" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -2913,7 +3206,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13" customHeight="1">
+    <row r="52" spans="1:17" ht="13" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2921,7 +3214,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13" customHeight="1">
+    <row r="53" spans="1:17" ht="13" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +3228,7 @@
       </c>
       <c r="G53" s="60"/>
     </row>
-    <row r="54" spans="1:9" ht="13" customHeight="1">
+    <row r="54" spans="1:17" ht="13" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +3237,7 @@
       <c r="D54" s="6"/>
       <c r="G54" s="60"/>
     </row>
-    <row r="55" spans="1:9" ht="13" customHeight="1">
+    <row r="55" spans="1:17" ht="13" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>151</v>
       </c>
@@ -2952,8 +3245,11 @@
       <c r="C55" s="9"/>
       <c r="D55" s="6"/>
       <c r="G55" s="60"/>
-    </row>
-    <row r="56" spans="1:9" ht="13" customHeight="1">
+      <c r="Q55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="13" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
         <v>6</v>
@@ -2968,8 +3264,11 @@
       <c r="G56" s="60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="13" customHeight="1">
+      <c r="Q56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="13" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>7</v>
@@ -2984,8 +3283,11 @@
       <c r="G57" s="60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="13" customHeight="1">
+      <c r="Q57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="13" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>8</v>
@@ -3000,8 +3302,11 @@
       <c r="G58" s="60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="13" customHeight="1">
+      <c r="Q58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="13" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>9</v>
@@ -3016,8 +3321,11 @@
       <c r="G59" s="60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="13" customHeight="1">
+      <c r="Q59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="13" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>10</v>
       </c>
@@ -3030,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13" customHeight="1">
+    <row r="61" spans="1:17" ht="13" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -3038,13 +3346,19 @@
         <v>265</v>
       </c>
       <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="13" customHeight="1">
+      <c r="Q61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="13" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="13" customHeight="1">
+      <c r="Q62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="13" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
@@ -3054,7 +3368,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13" customHeight="1">
+    <row r="64" spans="1:17" ht="13" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7915,6 +8229,7 @@
   <ignoredErrors>
     <ignoredError sqref="D60" emptyCellReference="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8095,13 +8410,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8138,9 +8453,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -8722,20 +9037,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9198,13 +9513,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9241,9 +9556,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9825,20 +10140,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10033,13 +10348,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="117" t="s">
+      <c r="U25" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="119"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="125"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10052,9 +10367,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10448,13 +10763,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10491,9 +10806,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11083,20 +11398,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11619,13 +11934,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11662,9 +11977,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12265,20 +12580,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12657,7 +12972,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12823,13 +13138,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -12866,9 +13181,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13479,20 +13794,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14029,13 +14344,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14072,9 +14387,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14685,20 +15000,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15235,13 +15550,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15278,9 +15593,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15891,20 +16206,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16441,13 +16756,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16484,9 +16799,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17097,20 +17412,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17484,7 +17799,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17650,13 +17965,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17693,9 +18008,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18309,20 +18624,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -18799,13 +19114,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18842,9 +19157,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19458,20 +19773,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20446,7 +20761,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20613,13 +20928,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20656,9 +20971,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21272,20 +21587,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22375,20 +22690,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -22730,15 +23045,15 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -22746,16 +23061,18 @@
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" customWidth="1"/>
-    <col min="15" max="15" width="14" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="14" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
-    <col min="19" max="20" width="6" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45">
+    <row r="1" spans="1:19" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -22812,7 +23129,7 @@
       </c>
       <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="17" customHeight="1">
+    <row r="2" spans="1:19" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -22850,16 +23167,16 @@
       <c r="N2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14" t="str">
-        <f t="shared" ref="Q2:Q15" si="1">B2</f>
+        <f t="shared" ref="Q2:Q14" si="1">B2</f>
         <v>Mur Service Payments</v>
       </c>
       <c r="R2" s="14">
-        <f t="shared" ref="R2:R15" si="2">C2</f>
+        <f t="shared" ref="R2:R14" si="2">C2</f>
         <v>551</v>
       </c>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="17" customHeight="1">
+    <row r="3" spans="1:19" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -22911,7 +23228,7 @@
       </c>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="17" customHeight="1">
+    <row r="4" spans="1:19" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -22963,7 +23280,7 @@
       </c>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="17" customHeight="1">
+    <row r="5" spans="1:19" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -23015,7 +23332,7 @@
       </c>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="17" customHeight="1">
+    <row r="6" spans="1:19" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -23067,7 +23384,7 @@
       </c>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="17" customHeight="1">
+    <row r="7" spans="1:19" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -23119,7 +23436,7 @@
       </c>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="17" customHeight="1">
+    <row r="8" spans="1:19" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -23171,7 +23488,7 @@
       </c>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="17" customHeight="1">
+    <row r="9" spans="1:19" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -23223,40 +23540,40 @@
       </c>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="17" customHeight="1">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:19" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="C10" s="80">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="80">
-        <v>706</v>
+        <v>377</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="24">
-        <v>42550</v>
+        <v>132</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.54236111111111118</v>
       </c>
       <c r="G10" s="25">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="H10" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I10" s="80">
+        <v>0</v>
+      </c>
+      <c r="J10" s="80">
+        <v>0</v>
+      </c>
+      <c r="K10" s="80">
         <v>1</v>
       </c>
-      <c r="I10" s="80">
-        <v>0</v>
-      </c>
-      <c r="J10" s="80">
-        <v>0</v>
-      </c>
-      <c r="K10" s="80">
-        <v>0</v>
-      </c>
       <c r="L10" s="80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>264</v>
@@ -23267,36 +23584,36 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Service payment</v>
+        <v>Mur Svc Lib - Monitoring</v>
       </c>
       <c r="R10" s="14">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="17" customHeight="1">
+    <row r="11" spans="1:19" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" s="80">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D11" s="80">
-        <v>377</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="E11" s="80">
+        <v>0</v>
       </c>
       <c r="F11" s="26">
-        <v>0.54236111111111118</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="G11" s="25">
-        <v>0.77</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H11" s="25">
-        <v>0.51700000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="80">
         <v>0</v>
@@ -23305,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="80">
         <v>0</v>
@@ -23314,36 +23631,36 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Monitoring</v>
+        <v>Mur Svc Lib - Exception</v>
       </c>
       <c r="R11" s="14">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="17" customHeight="1">
+    <row r="12" spans="1:19" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="80">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="80">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E12" s="80">
         <v>0</v>
       </c>
       <c r="F12" s="26">
-        <v>0.54027777777777775</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G12" s="25">
-        <v>0.93300000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="H12" s="25">
-        <v>0.9</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="I12" s="80">
         <v>0</v>
@@ -23361,36 +23678,39 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Exception</v>
+        <v>Mur Svc Lib - Mappers</v>
       </c>
       <c r="R12" s="14">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="17" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="S12" s="14">
+        <f>SUM(R2:R12)</f>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="80">
-        <v>13</v>
-      </c>
-      <c r="D13" s="80">
-        <v>218</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="31">
+        <v>91</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3041</v>
       </c>
       <c r="E13" s="80">
         <v>0</v>
       </c>
-      <c r="F13" s="26">
-        <v>0.54166666666666663</v>
+      <c r="F13" s="24">
+        <v>42552</v>
       </c>
       <c r="G13" s="25">
-        <v>0.99099999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H13" s="25">
-        <v>0.92900000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I13" s="80">
         <v>0</v>
@@ -23408,39 +23728,35 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Mappers</v>
+        <v>Mur Web Core UI</v>
       </c>
       <c r="R13" s="14">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="S13" s="14">
-        <f>SUM(R2:R13)</f>
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C14" s="31">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="D14" s="23">
-        <v>3041</v>
-      </c>
-      <c r="E14" s="80">
-        <v>0</v>
+        <v>9864</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>253</v>
       </c>
       <c r="F14" s="24">
-        <v>42552</v>
+        <v>42559</v>
       </c>
       <c r="G14" s="25">
-        <v>0.91700000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="H14" s="25">
-        <v>0.81599999999999995</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="I14" s="80">
         <v>0</v>
@@ -23449,88 +23765,50 @@
         <v>0</v>
       </c>
       <c r="K14" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Web Core UI</v>
+        <v>Mur Web Payment</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" ht="17" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="31">
         <v>440</v>
       </c>
-      <c r="D15" s="23">
-        <v>9864</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="24">
-        <v>42559</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I15" s="80">
-        <v>0</v>
-      </c>
-      <c r="J15" s="80">
-        <v>0</v>
-      </c>
-      <c r="K15" s="80">
-        <v>1</v>
-      </c>
-      <c r="L15" s="80">
-        <v>1</v>
-      </c>
+      <c r="S14" s="14">
+        <f>SUM(R13:R14)</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" customHeight="1">
+      <c r="A15" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Mur Web Payment</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="S15" s="14">
-        <f>SUM(R14:R15)</f>
-        <v>531</v>
-      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="116" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23539,15 +23817,23 @@
     </row>
     <row r="17" spans="2:20">
       <c r="B17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="15" thickBot="1">
-      <c r="B18" t="s">
         <v>273</v>
       </c>
     </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1"/>
     <row r="19" spans="2:20" ht="15" thickBot="1">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
       <c r="N19" s="81" t="s">
         <v>164</v>
       </c>
@@ -23557,17 +23843,8 @@
       <c r="R19" s="83"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20">
-        <v>91</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>233</v>
+      <c r="D20" s="58" t="s">
+        <v>228</v>
       </c>
       <c r="N20" s="84"/>
       <c r="O20" s="85"/>
@@ -23580,8 +23857,17 @@
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="D21" s="58" t="s">
-        <v>228</v>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21">
+        <v>440</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
       </c>
       <c r="N21" s="86"/>
       <c r="O21" s="87"/>
@@ -23592,18 +23878,7 @@
       <c r="R21" s="88"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22">
-        <v>440</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>234</v>
-      </c>
+      <c r="D22" s="58"/>
       <c r="N22" s="89" t="s">
         <v>4</v>
       </c>
@@ -23615,11 +23890,17 @@
       </c>
       <c r="R22" s="92">
         <f t="shared" ref="R22:R27" si="3">Q22/$Q$30</f>
-        <v>8.8435374149659865E-2</v>
+        <v>8.9903181189488243E-2</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="D23" s="58"/>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" s="14"/>
       <c r="N23" s="93" t="s">
         <v>167</v>
       </c>
@@ -23630,20 +23911,17 @@
         <v>190</v>
       </c>
       <c r="Q23" s="51">
-        <f>C30</f>
+        <f>C29</f>
         <v>134</v>
       </c>
       <c r="R23" s="92">
         <f t="shared" si="3"/>
-        <v>6.0770975056689346E-2</v>
+        <v>6.1779621945597052E-2</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" t="s">
-        <v>227</v>
-      </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L24" s="14"/>
       <c r="N24" s="93"/>
@@ -23652,21 +23930,22 @@
         <v>191</v>
       </c>
       <c r="Q24" s="51">
-        <f>C31</f>
+        <f>C30</f>
         <v>7</v>
       </c>
       <c r="R24" s="92">
         <f t="shared" si="3"/>
-        <v>3.1746031746031746E-3</v>
+        <v>3.2272936837252188E-3</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="2:20">
       <c r="C25" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
       <c r="N25" s="93"/>
       <c r="O25" s="94" t="s">
         <v>169</v>
@@ -23684,7 +23963,7 @@
     </row>
     <row r="26" spans="2:20">
       <c r="C26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -23696,19 +23975,19 @@
         <v>170</v>
       </c>
       <c r="Q26" s="51">
-        <f>S13</f>
-        <v>1338</v>
+        <f>S12</f>
+        <v>1302</v>
       </c>
       <c r="R26" s="92">
         <f t="shared" si="3"/>
-        <v>0.60680272108843536</v>
+        <v>0.60027662517289071</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
     <row r="27" spans="2:20">
       <c r="C27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -23718,21 +23997,17 @@
         <v>171</v>
       </c>
       <c r="Q27" s="51">
-        <f>S15</f>
+        <f>S14</f>
         <v>531</v>
       </c>
       <c r="R27" s="92">
         <f t="shared" si="3"/>
-        <v>0.24081632653061225</v>
+        <v>0.24481327800829875</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="93"/>
       <c r="O28" s="94"/>
@@ -23743,6 +24018,18 @@
       <c r="T28" s="14"/>
     </row>
     <row r="29" spans="2:20">
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>134</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>274</v>
+      </c>
       <c r="M29" s="14"/>
       <c r="N29" s="93"/>
       <c r="O29" s="94"/>
@@ -23752,68 +24039,55 @@
     </row>
     <row r="30" spans="2:20" ht="15" thickBot="1">
       <c r="B30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="14"/>
+        <v>275</v>
+      </c>
       <c r="N30" s="97"/>
       <c r="O30" s="98"/>
       <c r="P30" s="99"/>
       <c r="Q30" s="56">
         <f>SUM(Q22:Q27)</f>
-        <v>2205</v>
+        <v>2169</v>
       </c>
       <c r="R30" s="100">
         <f>SUM(R22:R27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:20">
-      <c r="B31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>275</v>
+    <row r="32" spans="2:20">
+      <c r="C32">
+        <f>C29</f>
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="3:21" ht="15">
       <c r="C33">
-        <f>C30</f>
-        <v>134</v>
+        <f>C29-C30</f>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U33" s="72"/>
     </row>
     <row r="34" spans="3:21">
-      <c r="C34">
-        <f>C30-C31</f>
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>246</v>
-      </c>
       <c r="O34"/>
       <c r="U34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
@@ -23836,18 +24110,14 @@
     <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
     <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
     <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
-    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="R14:R15" emptyCellReference="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -23861,31 +24131,33 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" customWidth="1"/>
-    <col min="15" max="15" width="14" style="14" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="14" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
-    <col min="19" max="20" width="6" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45">
+    <row r="1" spans="1:19" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -23942,7 +24214,7 @@
       </c>
       <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="15">
+    <row r="2" spans="1:19" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -23980,16 +24252,16 @@
       <c r="N2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14" t="str">
-        <f t="shared" ref="Q2:Q15" si="1">B2</f>
+        <f t="shared" ref="Q2:Q16" si="1">B2</f>
         <v>Mur Service Payments</v>
       </c>
       <c r="R2" s="14">
-        <f t="shared" ref="R2:R15" si="2">C2</f>
+        <f t="shared" ref="R2:R16" si="2">C2</f>
         <v>553</v>
       </c>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -24041,7 +24313,7 @@
       </c>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="15">
+    <row r="4" spans="1:19" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -24093,7 +24365,7 @@
       </c>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="15">
+    <row r="5" spans="1:19" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -24145,7 +24417,7 @@
       </c>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="15">
+    <row r="6" spans="1:19" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -24197,7 +24469,7 @@
       </c>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" ht="15">
+    <row r="7" spans="1:19" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -24249,7 +24521,7 @@
       </c>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -24301,7 +24573,7 @@
       </c>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="15">
+    <row r="9" spans="1:19" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -24353,40 +24625,40 @@
       </c>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:19" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="C10" s="101">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="101">
-        <v>706</v>
+        <v>377</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="F10" s="24">
-        <v>42550</v>
+        <v>42564</v>
       </c>
       <c r="G10" s="25">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="H10" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I10" s="101">
+        <v>0</v>
+      </c>
+      <c r="J10" s="101">
+        <v>0</v>
+      </c>
+      <c r="K10" s="101">
         <v>1</v>
       </c>
-      <c r="I10" s="101">
-        <v>0</v>
-      </c>
-      <c r="J10" s="101">
-        <v>0</v>
-      </c>
-      <c r="K10" s="101">
-        <v>0</v>
-      </c>
       <c r="L10" s="101">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>264</v>
@@ -24397,36 +24669,36 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Service payment</v>
+        <v>Mur Svc Lib - Monitoring</v>
       </c>
       <c r="R10" s="14">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="15">
+    <row r="11" spans="1:19" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C11" s="101">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D11" s="101">
-        <v>377</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="E11" s="101">
+        <v>0</v>
       </c>
       <c r="F11" s="24">
         <v>42564</v>
       </c>
       <c r="G11" s="25">
-        <v>0.77</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H11" s="25">
-        <v>0.51700000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="101">
         <v>0</v>
@@ -24435,7 +24707,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="101">
         <v>0</v>
@@ -24444,24 +24716,24 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Monitoring</v>
+        <v>Mur Svc Lib - Exception</v>
       </c>
       <c r="R11" s="14">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="15">
+    <row r="12" spans="1:19" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="101">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E12" s="101">
         <v>0</v>
@@ -24470,10 +24742,10 @@
         <v>42564</v>
       </c>
       <c r="G12" s="25">
-        <v>0.93300000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="H12" s="25">
-        <v>0.9</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="I12" s="101">
         <v>0</v>
@@ -24491,36 +24763,39 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Exception</v>
+        <v>Mur Svc Lib - Mappers</v>
       </c>
       <c r="R12" s="14">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="15">
+        <v>13</v>
+      </c>
+      <c r="S12" s="14">
+        <f>SUM(R2:R12)</f>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="101">
-        <v>13</v>
-      </c>
-      <c r="D13" s="101">
-        <v>218</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="31">
+        <v>91</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3041</v>
       </c>
       <c r="E13" s="101">
         <v>0</v>
       </c>
       <c r="F13" s="24">
-        <v>42564</v>
+        <v>42566</v>
       </c>
       <c r="G13" s="25">
-        <v>0.99099999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H13" s="25">
-        <v>0.92900000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="I13" s="101">
         <v>0</v>
@@ -24538,39 +24813,36 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Svc Lib - Mappers</v>
+        <v>Mur Web Core UI</v>
       </c>
       <c r="R13" s="14">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="S13" s="14">
-        <f>SUM(R2:R13)</f>
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15">
+        <v>91</v>
+      </c>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C14" s="31">
-        <v>91</v>
+        <v>460</v>
       </c>
       <c r="D14" s="23">
-        <v>3041</v>
-      </c>
-      <c r="E14" s="101">
-        <v>0</v>
+        <v>9864</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>253</v>
       </c>
       <c r="F14" s="24">
         <v>42566</v>
       </c>
       <c r="G14" s="25">
-        <v>0.91700000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="H14" s="25">
-        <v>0.81599999999999995</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="I14" s="101">
         <v>0</v>
@@ -24579,86 +24851,50 @@
         <v>0</v>
       </c>
       <c r="K14" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Mur Web Core UI</v>
+        <v>Mur Web Payment</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" ht="15">
+        <v>460</v>
+      </c>
+      <c r="S14" s="14">
+        <f>SUM(R13:R14)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="31">
-        <v>460</v>
-      </c>
-      <c r="D15" s="23">
-        <v>9864</v>
-      </c>
-      <c r="E15" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="24">
-        <v>42566</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="I15" s="101">
-        <v>0</v>
-      </c>
-      <c r="J15" s="101">
-        <v>0</v>
-      </c>
-      <c r="K15" s="101">
-        <v>1</v>
-      </c>
-      <c r="L15" s="101">
-        <v>1</v>
-      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>Mur Web Payment</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" si="2"/>
-        <v>460</v>
-      </c>
-      <c r="S15" s="14">
-        <f>SUM(R14:R15)</f>
-        <v>551</v>
-      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="20"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -24666,20 +24902,27 @@
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="20"/>
+      <c r="A17" s="101" t="s">
+        <v>283</v>
+      </c>
       <c r="B17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
-      <c r="A18" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" t="s">
         <v>273</v>
       </c>
     </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1"/>
     <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
       <c r="N19" s="102" t="s">
         <v>164</v>
       </c>
@@ -24689,17 +24932,8 @@
       <c r="R19" s="104"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20">
-        <v>91</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>233</v>
+      <c r="D20" s="58" t="s">
+        <v>228</v>
       </c>
       <c r="N20" s="105"/>
       <c r="O20" s="106"/>
@@ -24712,8 +24946,17 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="D21" s="58" t="s">
-        <v>228</v>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21">
+        <v>460</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
       </c>
       <c r="N21" s="86"/>
       <c r="O21" s="87"/>
@@ -24724,18 +24967,7 @@
       <c r="R21" s="88"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22">
-        <v>460</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" t="s">
-        <v>234</v>
-      </c>
+      <c r="D22" s="58"/>
       <c r="N22" s="89" t="s">
         <v>4</v>
       </c>
@@ -24747,11 +24979,16 @@
       </c>
       <c r="R22" s="92">
         <f t="shared" ref="R22:R27" si="3">Q22/$Q$30</f>
-        <v>8.6898395721925134E-2</v>
+        <v>8.8315217391304351E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="D23" s="58"/>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>278</v>
+      </c>
       <c r="N23" s="93" t="s">
         <v>167</v>
       </c>
@@ -24762,20 +24999,17 @@
         <v>190</v>
       </c>
       <c r="Q23" s="51">
-        <f>C30</f>
+        <f>C29</f>
         <v>150</v>
       </c>
       <c r="R23" s="92">
         <f t="shared" si="3"/>
-        <v>6.684491978609626E-2</v>
+        <v>6.7934782608695649E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="B24" t="s">
-        <v>227</v>
-      </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N24" s="93"/>
       <c r="O24" s="94"/>
@@ -24783,19 +25017,19 @@
         <v>191</v>
       </c>
       <c r="Q24" s="51">
-        <f>C31</f>
+        <f>C30</f>
         <v>7</v>
       </c>
       <c r="R24" s="92">
         <f t="shared" si="3"/>
-        <v>3.1194295900178253E-3</v>
+        <v>3.170289855072464E-3</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20">
       <c r="C25" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="N25" s="93"/>
       <c r="O25" s="94" t="s">
@@ -24814,7 +25048,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="C26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="93"/>
@@ -24825,19 +25059,19 @@
         <v>170</v>
       </c>
       <c r="Q26" s="51">
-        <f>S13</f>
-        <v>1341</v>
+        <f>S12</f>
+        <v>1305</v>
       </c>
       <c r="R26" s="92">
         <f t="shared" si="3"/>
-        <v>0.59759358288770048</v>
+        <v>0.59103260869565222</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20">
       <c r="C27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="93"/>
@@ -24846,20 +25080,17 @@
         <v>171</v>
       </c>
       <c r="Q27" s="51">
-        <f>S15</f>
+        <f>S14</f>
         <v>551</v>
       </c>
       <c r="R27" s="92">
         <f t="shared" si="3"/>
-        <v>0.24554367201426025</v>
+        <v>0.24954710144927536</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
       <c r="M28" s="14"/>
       <c r="N28" s="93"/>
       <c r="O28" s="94"/>
@@ -24870,6 +25101,18 @@
       <c r="T28" s="14"/>
     </row>
     <row r="29" spans="1:20">
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>274</v>
+      </c>
       <c r="M29" s="14"/>
       <c r="N29" s="93"/>
       <c r="O29" s="94"/>
@@ -24879,16 +25122,16 @@
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="B30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="D30" s="59" t="s">
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="97"/>
@@ -24896,44 +25139,32 @@
       <c r="P30" s="99"/>
       <c r="Q30" s="56">
         <f>SUM(Q22:Q27)</f>
-        <v>2244</v>
+        <v>2208</v>
       </c>
       <c r="R30" s="100">
         <f>SUM(R22:R27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="B31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>275</v>
+    <row r="32" spans="1:20">
+      <c r="C32">
+        <f>C29</f>
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="3:15">
       <c r="C33">
-        <f>C30</f>
-        <v>150</v>
+        <f>C29-C30</f>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34">
-        <f>C30-C31</f>
-        <v>143</v>
-      </c>
-      <c r="D34" t="s">
-        <v>246</v>
-      </c>
       <c r="O34"/>
     </row>
   </sheetData>
@@ -24958,12 +25189,11 @@
     <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
     <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
     <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
-    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -24979,27 +25209,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45">
+    <row r="1" spans="1:13" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -25040,7 +25277,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -25079,7 +25316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -25118,7 +25355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:13" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -25155,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15">
+    <row r="5" spans="1:13" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -25194,7 +25431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15">
+    <row r="6" spans="1:13" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -25231,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
+    <row r="7" spans="1:13" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -25270,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -25309,7 +25546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -25346,46 +25583,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="107">
-        <v>36</v>
-      </c>
+    <row r="10" spans="1:13" ht="16" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="107"/>
-      <c r="E10" s="107">
-        <v>706</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="24">
-        <v>42550</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0.96</v>
-      </c>
-      <c r="I10" s="25">
-        <v>1</v>
-      </c>
-      <c r="J10" s="107">
-        <v>0</v>
-      </c>
-      <c r="K10" s="107">
-        <v>0</v>
-      </c>
-      <c r="L10" s="107">
-        <v>0</v>
-      </c>
-      <c r="M10" s="107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>131</v>
@@ -25422,7 +25635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>125</v>
@@ -25459,7 +25672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>130</v>
@@ -25496,7 +25709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>116</v>
@@ -25531,7 +25744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" ht="16" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>121</v>
@@ -25567,21 +25780,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25608,12 +25821,11 @@
     <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
     <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
     <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
-    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
+    <hyperlink ref="B11" r:id="rId9" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId10" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B13" r:id="rId11" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId12" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId13" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -25626,25 +25838,38 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:L38"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="15" max="15" width="22.5" customWidth="1"/>
-    <col min="16" max="16" width="14" style="14" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" customWidth="1"/>
-    <col min="20" max="21" width="6" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33" customHeight="1">
+    <row r="1" spans="1:20" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -25655,7 +25880,7 @@
         <v>152</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>21</v>
@@ -25695,7 +25920,7 @@
         <v>195</v>
       </c>
       <c r="R1" s="14" t="str">
-        <f t="shared" ref="R1:S4" si="0">C1</f>
+        <f t="shared" ref="R1:S9" si="0">C1</f>
         <v xml:space="preserve">UTs </v>
       </c>
       <c r="S1" s="14" t="str">
@@ -25704,7 +25929,7 @@
       </c>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1">
+    <row r="2" spans="1:20" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -25745,16 +25970,16 @@
       <c r="O2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R2:R15" si="1">C2</f>
         <v>557</v>
       </c>
       <c r="S2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S2:S15" si="2">D2</f>
         <v>102</v>
       </c>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1">
+    <row r="3" spans="1:20" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -25800,16 +26025,16 @@
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>183</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1">
+    <row r="4" spans="1:20" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -25853,16 +26078,16 @@
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1">
+    <row r="5" spans="1:20" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -25907,17 +26132,17 @@
         <v>3</v>
       </c>
       <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S5" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="R5" s="14">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1">
+    <row r="6" spans="1:20" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -25961,16 +26186,16 @@
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14">
-        <f t="shared" ref="R6:R12" si="1">C5</f>
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" ref="S6:S12" si="2">D5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1">
+    <row r="7" spans="1:20" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -26017,15 +26242,15 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1">
+    <row r="8" spans="1:20" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -26072,15 +26297,15 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1">
+    <row r="9" spans="1:20" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -26125,34 +26350,34 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:20" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="C10" s="108">
         <v>36</v>
       </c>
       <c r="D10" s="108"/>
       <c r="E10" s="108">
-        <v>706</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>281</v>
+        <v>195</v>
+      </c>
+      <c r="F10" s="108">
+        <v>0</v>
       </c>
       <c r="G10" s="24">
-        <v>42550</v>
+        <v>42573</v>
       </c>
       <c r="H10" s="25">
-        <v>0.96</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I10" s="25">
         <v>1</v>
@@ -26167,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>264</v>
@@ -26178,7 +26403,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="2"/>
@@ -26186,38 +26411,38 @@
       </c>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1">
+    <row r="11" spans="1:20" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C11" s="108">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="108"/>
       <c r="E11" s="108">
-        <v>195</v>
-      </c>
-      <c r="F11" s="108">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>132</v>
       </c>
       <c r="G11" s="24">
         <v>42573</v>
       </c>
       <c r="H11" s="25">
-        <v>0.98599999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J11" s="108">
+        <v>0</v>
+      </c>
+      <c r="K11" s="108">
+        <v>0</v>
+      </c>
+      <c r="L11" s="108">
         <v>1</v>
-      </c>
-      <c r="J11" s="108">
-        <v>0</v>
-      </c>
-      <c r="K11" s="108">
-        <v>0</v>
-      </c>
-      <c r="L11" s="108">
-        <v>0</v>
       </c>
       <c r="M11" s="108">
         <v>0</v>
@@ -26226,7 +26451,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="2"/>
@@ -26234,29 +26459,29 @@
       </c>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1">
+    <row r="12" spans="1:20" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="108">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="108">
-        <v>377</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="F12" s="108">
+        <v>0</v>
       </c>
       <c r="G12" s="24">
         <v>42573</v>
       </c>
       <c r="H12" s="25">
-        <v>0.77</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I12" s="25">
-        <v>0.51700000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="108">
         <v>0</v>
@@ -26265,7 +26490,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="108">
         <v>0</v>
@@ -26274,7 +26499,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="2"/>
@@ -26282,17 +26507,17 @@
       </c>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1">
+    <row r="13" spans="1:20" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C13" s="108">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="108"/>
       <c r="E13" s="108">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F13" s="108">
         <v>0</v>
@@ -26301,10 +26526,10 @@
         <v>42573</v>
       </c>
       <c r="H13" s="25">
-        <v>0.93300000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="I13" s="25">
-        <v>0.9</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="J13" s="108">
         <v>0</v>
@@ -26320,42 +26545,42 @@
       </c>
       <c r="O13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S13" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T13" s="14" t="e">
-        <f>SUM(S2:S13)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="R13" s="14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f>SUM(R2:R13)</f>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="108">
-        <v>13</v>
-      </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108">
-        <v>218</v>
+        <v>116</v>
+      </c>
+      <c r="C14" s="31">
+        <v>91</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="23">
+        <v>3041</v>
       </c>
       <c r="F14" s="108">
         <v>0</v>
       </c>
       <c r="G14" s="24">
-        <v>42573</v>
+        <v>42566</v>
       </c>
       <c r="H14" s="25">
-        <v>0.99099999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="I14" s="25">
-        <v>0.92900000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J14" s="108">
         <v>0</v>
@@ -26372,36 +26597,38 @@
       <c r="O14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14">
-        <f>C12</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="S14" s="14">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1">
+    <row r="15" spans="1:20" ht="16" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="31"/>
+        <v>121</v>
+      </c>
+      <c r="C15" s="31">
+        <v>460</v>
+      </c>
       <c r="D15" s="31"/>
       <c r="E15" s="23">
-        <v>3041</v>
-      </c>
-      <c r="F15" s="108">
-        <v>0</v>
+        <v>9864</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>253</v>
       </c>
       <c r="G15" s="24">
         <v>42566</v>
       </c>
       <c r="H15" s="25">
-        <v>0.91700000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I15" s="25">
-        <v>0.81599999999999995</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="J15" s="108">
         <v>0</v>
@@ -26410,92 +26637,61 @@
         <v>0</v>
       </c>
       <c r="L15" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14">
-        <f>C13</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>460</v>
       </c>
       <c r="S15" s="14">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="14">
-        <f>SUM(S14:S15)</f>
-        <v>0</v>
+        <f>SUM(R14:R15)</f>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="23">
-        <v>9864</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="24">
-        <v>42566</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="J16" s="108">
-        <v>0</v>
-      </c>
-      <c r="K16" s="108">
-        <v>0</v>
-      </c>
-      <c r="L16" s="108">
-        <v>1</v>
-      </c>
-      <c r="M16" s="108">
-        <v>1</v>
-      </c>
+      <c r="A16" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="15" customHeight="1">
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="B19" t="s">
         <v>273</v>
       </c>
+    </row>
+    <row r="19" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="O19" s="109" t="s">
         <v>164</v>
       </c>
@@ -26504,7 +26700,19 @@
       <c r="R19" s="110"/>
       <c r="S19" s="111"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1">
+    <row r="20" spans="2:21" ht="15" customHeight="1">
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
       <c r="O20" s="112"/>
       <c r="P20" s="113"/>
       <c r="Q20" s="113"/>
@@ -26512,21 +26720,12 @@
         <v>165</v>
       </c>
       <c r="S20" s="64" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
-      <c r="B21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21">
-        <v>91</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" t="s">
-        <v>233</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="15" customHeight="1">
+      <c r="D21" s="58" t="s">
+        <v>228</v>
       </c>
       <c r="O21" s="86"/>
       <c r="P21" s="87"/>
@@ -26536,9 +26735,18 @@
       </c>
       <c r="S21" s="88"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
-      <c r="D22" s="58" t="s">
-        <v>228</v>
+    <row r="22" spans="2:21" ht="15" customHeight="1">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22">
+        <v>460</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
       </c>
       <c r="O22" s="89" t="s">
         <v>4</v>
@@ -26549,24 +26757,13 @@
         <f>Q1</f>
         <v>195</v>
       </c>
-      <c r="S22" s="92" t="e">
-        <f t="shared" ref="S22:S27" si="3">R22/$Q$30</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23">
-        <v>460</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" t="s">
-        <v>234</v>
-      </c>
+      <c r="S22" s="92">
+        <f>R22/$R$30</f>
+        <v>8.6898395721925134E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="15" customHeight="1">
+      <c r="D23" s="58"/>
       <c r="O23" s="93" t="s">
         <v>167</v>
       </c>
@@ -26577,39 +26774,42 @@
         <v>190</v>
       </c>
       <c r="R23" s="51">
-        <f>D27</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="92" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
-      <c r="D24" s="58"/>
+        <f>C30</f>
+        <v>143</v>
+      </c>
+      <c r="S23" s="92">
+        <f t="shared" ref="S23:S27" si="3">R23/$R$30</f>
+        <v>6.3725490196078427E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15" customHeight="1">
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
       <c r="O24" s="93"/>
       <c r="P24" s="94"/>
       <c r="Q24" s="95" t="s">
         <v>191</v>
       </c>
       <c r="R24" s="51">
-        <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="92" t="e">
+        <f>C31</f>
+        <v>7</v>
+      </c>
+      <c r="S24" s="92">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.1194295900178253E-3</v>
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
+    <row r="25" spans="2:21" ht="15" customHeight="1">
       <c r="C25" t="s">
-        <v>278</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N25" s="14"/>
       <c r="O25" s="93"/>
       <c r="P25" s="94" t="s">
         <v>169</v>
@@ -26618,16 +26818,16 @@
       <c r="R25" s="51">
         <v>0</v>
       </c>
-      <c r="S25" s="92" t="e">
+      <c r="S25" s="92">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1">
+    <row r="26" spans="2:21" ht="15" customHeight="1">
       <c r="C26" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="N26" s="14"/>
       <c r="O26" s="93"/>
@@ -26637,20 +26837,20 @@
       <c r="Q26" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="R26" s="51" t="e">
+      <c r="R26" s="51">
         <f>T13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S26" s="92" t="e">
+        <v>1348</v>
+      </c>
+      <c r="S26" s="92">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0.60071301247771836</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1">
+    <row r="27" spans="2:21" ht="15" customHeight="1">
       <c r="C27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="93"/>
@@ -26660,18 +26860,18 @@
       </c>
       <c r="R27" s="51">
         <f>T15</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="92" t="e">
+        <v>551</v>
+      </c>
+      <c r="S27" s="92">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.24554367201426025</v>
       </c>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1">
+    <row r="28" spans="2:21" ht="15" customHeight="1">
       <c r="C28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="93"/>
@@ -26682,10 +26882,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1">
-      <c r="C29" t="s">
-        <v>232</v>
-      </c>
+    <row r="29" spans="2:21" ht="15" customHeight="1">
       <c r="N29" s="14"/>
       <c r="O29" s="93"/>
       <c r="P29" s="94"/>
@@ -26693,80 +26890,61 @@
       <c r="R29" s="51"/>
       <c r="S29" s="96"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="N30" s="14"/>
+    <row r="30" spans="2:21" ht="15" customHeight="1" thickBot="1">
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>143</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>274</v>
+      </c>
       <c r="O30" s="97"/>
       <c r="P30" s="98"/>
       <c r="Q30" s="99"/>
-      <c r="R30" s="56" t="e">
+      <c r="R30" s="56">
         <f>SUM(R22:R27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S30" s="100" t="e">
+        <v>2244</v>
+      </c>
+      <c r="S30" s="100">
         <f>SUM(S22:S27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="15" customHeight="1">
       <c r="B31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="D31" s="59" t="s">
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
-      <c r="B32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="15" customHeight="1">
-      <c r="C34">
-        <f>C31</f>
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>245</v>
-      </c>
+    <row r="34" spans="4:16" ht="15" customHeight="1">
       <c r="P34"/>
     </row>
-    <row r="35" spans="3:16" ht="15" customHeight="1">
-      <c r="C35">
-        <f>C31-C32</f>
-        <v>143</v>
-      </c>
-      <c r="D35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" ht="15" customHeight="1">
+    <row r="38" spans="4:16" ht="15" customHeight="1">
+      <c r="D38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16" ht="15" customHeight="1">
       <c r="D39" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="15" customHeight="1">
-      <c r="D40" t="s">
-        <v>290</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A16:M16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
@@ -26789,13 +26967,12 @@
     <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
     <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
     <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="svb-services-payment"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-logger"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-monitoring"/>
-    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-exception"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-mappers"/>
-    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-core-ui"/>
-    <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-payment"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26812,25 +26989,32 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:12" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -26868,7 +27052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -26904,7 +27088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -26940,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -26976,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -27012,7 +27196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -27048,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -27084,7 +27268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -27120,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -27156,7 +27340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="16" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
         <v>126</v>
@@ -27192,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>131</v>
@@ -27228,7 +27412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>125</v>
@@ -27264,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>130</v>
@@ -27300,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>116</v>
@@ -27334,7 +27518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="16" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>121</v>
@@ -27369,20 +27553,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -27423,7 +27607,7 @@
     <row r="23" spans="1:12" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C23" s="114">
         <v>142</v>
@@ -27432,7 +27616,7 @@
         <v>2575</v>
       </c>
       <c r="E23" s="114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23" s="24">
         <v>42579</v>
@@ -27459,7 +27643,7 @@
     <row r="24" spans="1:12" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="114">
         <v>31</v>
@@ -27495,7 +27679,7 @@
     <row r="25" spans="1:12" ht="15">
       <c r="A25" s="19"/>
       <c r="B25" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="114">
         <v>14</v>
@@ -27504,7 +27688,7 @@
         <v>503</v>
       </c>
       <c r="E25" s="114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F25" s="24">
         <v>42578</v>
@@ -27536,25 +27720,25 @@
     <row r="34" spans="2:3" ht="15">
       <c r="B34" s="22"/>
       <c r="C34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15">
       <c r="B35" s="22"/>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15">
       <c r="B36" s="22"/>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15">
       <c r="B37" s="22"/>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15">
@@ -27563,25 +27747,25 @@
     <row r="39" spans="2:3" ht="15">
       <c r="B39" s="22"/>
       <c r="C39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15">
       <c r="B40" s="22"/>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15">
       <c r="B41" s="22"/>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15">
       <c r="B42" s="22"/>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15">
@@ -27595,31 +27779,31 @@
     <row r="45" spans="2:3" ht="15">
       <c r="B45" s="22"/>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15">
       <c r="B46" s="22"/>
       <c r="C46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15">
       <c r="B47" s="22"/>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15">
       <c r="B48" s="22"/>
       <c r="C48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15">
       <c r="B49" s="22"/>
       <c r="C49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15">
@@ -27628,19 +27812,19 @@
     <row r="51" spans="2:3" ht="15">
       <c r="B51" s="22"/>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="15">
       <c r="B52" s="22"/>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15">
       <c r="B53" s="22"/>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="15">
@@ -27657,19 +27841,19 @@
     <row r="57" spans="2:3" ht="15">
       <c r="B57" s="22"/>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="15">
       <c r="B58" s="22"/>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="15">
       <c r="B59" s="22"/>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15">
@@ -27683,37 +27867,37 @@
     <row r="62" spans="2:3" ht="15">
       <c r="B62" s="22"/>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15">
       <c r="B63" s="22"/>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15">
       <c r="B64" s="22"/>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="15">
       <c r="B65" s="22"/>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="15">
       <c r="B66" s="22"/>
       <c r="C66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15">
       <c r="B67" s="22"/>
       <c r="C67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="15">
@@ -27727,25 +27911,25 @@
     <row r="70" spans="2:3" ht="15">
       <c r="B70" s="22"/>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15">
       <c r="B71" s="22"/>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="15">
       <c r="B72" s="22"/>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15">
       <c r="B73" s="22"/>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="15">
@@ -27759,49 +27943,49 @@
     <row r="76" spans="2:3" ht="15">
       <c r="B76" s="22"/>
       <c r="C76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15">
       <c r="B77" s="22"/>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="15">
       <c r="B78" s="22"/>
       <c r="C78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15">
       <c r="B79" s="22"/>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15">
       <c r="B80" s="22"/>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15">
       <c r="B81" s="22"/>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15">
       <c r="B82" s="22"/>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15">
       <c r="B83" s="22"/>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15">
@@ -27815,31 +27999,31 @@
     <row r="86" spans="2:3" ht="15">
       <c r="B86" s="22"/>
       <c r="C86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15">
       <c r="B87" s="22"/>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15">
       <c r="B88" s="22"/>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15">
       <c r="B89" s="22"/>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15">
       <c r="B90" s="22"/>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15">
@@ -27848,19 +28032,19 @@
     <row r="92" spans="2:3" ht="15">
       <c r="B92" s="22"/>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="15">
       <c r="B93" s="22"/>
       <c r="C93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="15">
       <c r="B94" s="22"/>
       <c r="C94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15">
@@ -27874,19 +28058,19 @@
     <row r="97" spans="2:3" ht="15">
       <c r="B97" s="22"/>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="15">
       <c r="B98" s="22"/>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="15">
       <c r="B99" s="22"/>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="15">
@@ -27900,13 +28084,13 @@
     <row r="102" spans="2:3" ht="15">
       <c r="B102" s="22"/>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="15">
       <c r="B103" s="22"/>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="15">
@@ -27920,37 +28104,37 @@
     <row r="106" spans="2:3" ht="15">
       <c r="B106" s="22"/>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15">
       <c r="B107" s="22"/>
       <c r="C107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="15">
       <c r="B108" s="22"/>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15">
       <c r="B109" s="22"/>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="15">
       <c r="B110" s="22"/>
       <c r="C110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="15">
       <c r="B111" s="22"/>
       <c r="C111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="15">
@@ -27964,7 +28148,7 @@
     <row r="114" spans="2:3" ht="15">
       <c r="B114" s="22"/>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="15">
@@ -27978,19 +28162,19 @@
     <row r="117" spans="2:3" ht="15">
       <c r="B117" s="22"/>
       <c r="C117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="15">
       <c r="B118" s="22"/>
       <c r="C118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="15">
       <c r="B119" s="22"/>
       <c r="C119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15">
@@ -28077,28 +28261,36 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="53" customHeight="1">
+    <row r="1" spans="1:20" ht="44" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -28135,8 +28327,24 @@
       <c r="L1" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1">
+      <c r="O1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="14">
+        <f>SUM(P2:P11)</f>
+        <v>195</v>
+      </c>
+      <c r="R1" s="14" t="str">
+        <f t="shared" ref="R1" si="0">C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="16" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -28171,8 +28379,16 @@
       <c r="L2" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1">
+      <c r="O2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14">
+        <f t="shared" ref="R2:R15" si="1">C2</f>
+        <v>578</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="16" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -28207,8 +28423,21 @@
       <c r="L3" s="115">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" customHeight="1">
+      <c r="O3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="P3" s="14">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:20" ht="16" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="22" t="s">
         <v>128</v>
@@ -28243,8 +28472,21 @@
       <c r="L4" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1">
+      <c r="O4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" ht="16" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>114</v>
@@ -28279,8 +28521,21 @@
       <c r="L5" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" customHeight="1">
+      <c r="O5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" ht="16" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -28315,8 +28570,21 @@
       <c r="L6" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" customHeight="1">
+      <c r="O6" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" ht="16" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
         <v>123</v>
@@ -28351,8 +28619,21 @@
       <c r="L7" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1">
+      <c r="O7" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="14">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" ht="16" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>139</v>
@@ -28387,8 +28668,21 @@
       <c r="L8" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" customHeight="1">
+      <c r="O8" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" ht="16" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>127</v>
@@ -28423,8 +28717,21 @@
       <c r="L9" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" customHeight="1">
+      <c r="O9" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
         <v>126</v>
@@ -28459,8 +28766,21 @@
       <c r="L10" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" customHeight="1">
+      <c r="O10" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" ht="16" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>131</v>
@@ -28495,8 +28815,16 @@
       <c r="L11" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" customHeight="1">
+      <c r="O11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" ht="16" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>125</v>
@@ -28531,8 +28859,16 @@
       <c r="L12" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1">
+      <c r="O12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="16" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>130</v>
@@ -28567,13 +28903,25 @@
       <c r="L13" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1">
+      <c r="O13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S13" s="14">
+        <f>SUM(R2:R13)</f>
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="31">
+        <v>91</v>
+      </c>
       <c r="D14" s="23">
         <v>3041</v>
       </c>
@@ -28601,13 +28949,23 @@
       <c r="L14" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" customHeight="1">
+      <c r="O14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" ht="16" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="31">
+        <v>460</v>
+      </c>
       <c r="D15" s="23">
         <v>10113</v>
       </c>
@@ -28635,34 +28993,60 @@
       <c r="L15" s="115">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="116" t="s">
+      <c r="O15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="S15" s="14">
+        <f>SUM(R14:R15)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="O16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="2:20" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="19" spans="2:20" ht="15" thickBot="1">
+      <c r="O19" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="119"/>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" t="s">
         <v>175</v>
       </c>
@@ -28672,13 +29056,29 @@
       <c r="E20" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="O20" s="120"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" s="64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="D21" s="58" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="88"/>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" t="s">
         <v>174</v>
       </c>
@@ -28688,53 +29088,165 @@
       <c r="E22" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="O22" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="46">
+        <f>Q1</f>
+        <v>195</v>
+      </c>
+      <c r="S22" s="92">
+        <f>R22/$R$29</f>
+        <v>8.6245024325519684E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
       <c r="D23" s="58"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="O23" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="R23" s="51">
+        <v>134</v>
+      </c>
+      <c r="S23" s="92">
+        <f>R23/$R$29</f>
+        <v>5.926581158779301E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" t="s">
         <v>227</v>
       </c>
       <c r="C24" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="N24" s="14"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="51">
+        <v>0</v>
+      </c>
+      <c r="S24" s="92">
+        <f>R24/$R$29</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="2:20">
       <c r="C25" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="N25" s="14"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="R25" s="51">
+        <f>S13</f>
+        <v>1381</v>
+      </c>
+      <c r="S25" s="92">
+        <f>R25/$R$29</f>
+        <v>0.61079168509509063</v>
+      </c>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="2:20">
       <c r="C26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="N26" s="14"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" s="51">
+        <f>S15</f>
+        <v>551</v>
+      </c>
+      <c r="S26" s="92">
+        <f>R26/$R$29</f>
+        <v>0.24369747899159663</v>
+      </c>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="2:20">
       <c r="C27" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="N27" s="14"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="2:20">
       <c r="C28" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
+      <c r="N28" s="14"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="96"/>
+    </row>
+    <row r="29" spans="2:20" ht="15" thickBot="1">
+      <c r="O29" s="97"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="56">
+        <f>SUM(R22:R26)</f>
+        <v>2261</v>
+      </c>
+      <c r="S29" s="100">
+        <f>SUM(S22:S26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="19" customHeight="1">
+      <c r="B30" s="128" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="C30" s="128"/>
+      <c r="D30" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="128" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+    </row>
+    <row r="31" spans="2:20" ht="17" customHeight="1">
       <c r="B31" t="s">
         <v>277</v>
       </c>
+      <c r="C31">
+        <v>134</v>
+      </c>
       <c r="D31" s="59" t="s">
         <v>160</v>
       </c>
@@ -28742,15 +29254,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:16">
       <c r="D33" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
-        <f>C30-C31</f>
-        <v>0</v>
+        <f>C31</f>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>246</v>
@@ -28789,6 +29302,1049 @@
     <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="44" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1">
+        <f>SUM(P3:P10)</f>
+        <v>218</v>
+      </c>
+      <c r="R1" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="116">
+        <v>581</v>
+      </c>
+      <c r="D2" s="23">
+        <v>6209</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42632</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I2" s="116">
+        <v>0</v>
+      </c>
+      <c r="J2" s="116">
+        <v>0</v>
+      </c>
+      <c r="K2" s="116">
+        <v>2</v>
+      </c>
+      <c r="L2" s="116">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R16" si="0">C2</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="116">
+        <v>194</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42632</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I3" s="116">
+        <v>0</v>
+      </c>
+      <c r="J3" s="116">
+        <v>0</v>
+      </c>
+      <c r="K3" s="116">
+        <v>2</v>
+      </c>
+      <c r="L3" s="116">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="116">
+        <v>132</v>
+      </c>
+      <c r="D4" s="116">
+        <v>861</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0</v>
+      </c>
+      <c r="J4" s="116">
+        <v>0</v>
+      </c>
+      <c r="K4" s="116">
+        <v>2</v>
+      </c>
+      <c r="L4" s="116">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4">
+        <v>150</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="116">
+        <v>114</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42628</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I5" s="116">
+        <v>0</v>
+      </c>
+      <c r="J5" s="116">
+        <v>0</v>
+      </c>
+      <c r="K5" s="116">
+        <v>0</v>
+      </c>
+      <c r="L5" s="116">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="116">
+        <v>76</v>
+      </c>
+      <c r="D6" s="116">
+        <v>563</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I6" s="116">
+        <v>0</v>
+      </c>
+      <c r="J6" s="116">
+        <v>0</v>
+      </c>
+      <c r="K6" s="116">
+        <v>1</v>
+      </c>
+      <c r="L6" s="116">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="116">
+        <v>69</v>
+      </c>
+      <c r="D7" s="116">
+        <v>839</v>
+      </c>
+      <c r="E7" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42632</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I7" s="116">
+        <v>0</v>
+      </c>
+      <c r="J7" s="116">
+        <v>0</v>
+      </c>
+      <c r="K7" s="116">
+        <v>2</v>
+      </c>
+      <c r="L7" s="116">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="116">
+        <v>61</v>
+      </c>
+      <c r="D8" s="116">
+        <v>693</v>
+      </c>
+      <c r="E8" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42632</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I8" s="116">
+        <v>0</v>
+      </c>
+      <c r="J8" s="116">
+        <v>0</v>
+      </c>
+      <c r="K8" s="116">
+        <v>0</v>
+      </c>
+      <c r="L8" s="116">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="116">
+        <v>59</v>
+      </c>
+      <c r="D9" s="116">
+        <v>344</v>
+      </c>
+      <c r="E9" s="116">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I9" s="116">
+        <v>0</v>
+      </c>
+      <c r="J9" s="116">
+        <v>0</v>
+      </c>
+      <c r="K9" s="116">
+        <v>0</v>
+      </c>
+      <c r="L9" s="116">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="116">
+        <v>36</v>
+      </c>
+      <c r="D10" s="116">
+        <v>195</v>
+      </c>
+      <c r="E10" s="116">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="116">
+        <v>0</v>
+      </c>
+      <c r="J10" s="116">
+        <v>0</v>
+      </c>
+      <c r="K10" s="116">
+        <v>0</v>
+      </c>
+      <c r="L10" s="116">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="116">
+        <v>31</v>
+      </c>
+      <c r="D11" s="116">
+        <v>377</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I11" s="116">
+        <v>0</v>
+      </c>
+      <c r="J11" s="116">
+        <v>0</v>
+      </c>
+      <c r="K11" s="116">
+        <v>1</v>
+      </c>
+      <c r="L11" s="116">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="116">
+        <v>31</v>
+      </c>
+      <c r="D12" s="116">
+        <v>402</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42629</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="116">
+        <v>0</v>
+      </c>
+      <c r="J12" s="116">
+        <v>0</v>
+      </c>
+      <c r="K12" s="116">
+        <v>1</v>
+      </c>
+      <c r="L12" s="116">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="116">
+        <v>18</v>
+      </c>
+      <c r="D13" s="116">
+        <v>172</v>
+      </c>
+      <c r="E13" s="116">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="116">
+        <v>0</v>
+      </c>
+      <c r="J13" s="116">
+        <v>0</v>
+      </c>
+      <c r="K13" s="116">
+        <v>0</v>
+      </c>
+      <c r="L13" s="116">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="116">
+        <v>13</v>
+      </c>
+      <c r="D14" s="116">
+        <v>218</v>
+      </c>
+      <c r="E14" s="116">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42599</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I14" s="116">
+        <v>0</v>
+      </c>
+      <c r="J14" s="116">
+        <v>0</v>
+      </c>
+      <c r="K14" s="116">
+        <v>0</v>
+      </c>
+      <c r="L14" s="116">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <f>SUM(R2:R14)</f>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="31">
+        <f>C21</f>
+        <v>91</v>
+      </c>
+      <c r="D15" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E15" s="116">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I15" s="116">
+        <v>0</v>
+      </c>
+      <c r="J15" s="116">
+        <v>0</v>
+      </c>
+      <c r="K15" s="116">
+        <v>0</v>
+      </c>
+      <c r="L15" s="116">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="31">
+        <f>C23</f>
+        <v>440</v>
+      </c>
+      <c r="D16" s="23">
+        <v>10346</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I16" s="116">
+        <v>0</v>
+      </c>
+      <c r="J16" s="116">
+        <v>0</v>
+      </c>
+      <c r="K16" s="116">
+        <v>0</v>
+      </c>
+      <c r="L16" s="116">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="S16">
+        <f>SUM(R15:R16)</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1">
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17" customHeight="1" thickBot="1">
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O19" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="150"/>
+    </row>
+    <row r="20" spans="1:19" ht="17" customHeight="1">
+      <c r="O20" s="130"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" s="133" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17" customHeight="1">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="137"/>
+    </row>
+    <row r="22" spans="1:19" ht="17" customHeight="1">
+      <c r="D22" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141">
+        <f>Q1</f>
+        <v>218</v>
+      </c>
+      <c r="S22" s="142">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="17" customHeight="1">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23">
+        <v>440</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="140" t="s">
+        <v>327</v>
+      </c>
+      <c r="R23" s="141">
+        <f>C37</f>
+        <v>134</v>
+      </c>
+      <c r="S23" s="142">
+        <v>6.59E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="17" customHeight="1">
+      <c r="D24" s="58"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="141">
+        <v>0</v>
+      </c>
+      <c r="S24" s="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17" customHeight="1">
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="R25" s="141">
+        <f>S14</f>
+        <v>1415</v>
+      </c>
+      <c r="S25" s="142">
+        <v>0.60650000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17" customHeight="1">
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" s="141">
+        <f>S16</f>
+        <v>531</v>
+      </c>
+      <c r="S26" s="142">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="17" customHeight="1">
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="142"/>
+    </row>
+    <row r="28" spans="1:19" ht="17" customHeight="1">
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="142"/>
+    </row>
+    <row r="29" spans="1:19" ht="17" customHeight="1" thickBot="1">
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" s="143"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="146">
+        <f>SUM(R22:R26)</f>
+        <v>2298</v>
+      </c>
+      <c r="S29" s="147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="128" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32">
+        <v>134</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="D33" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" s="59"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37">
+        <f>C32</f>
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="O19:S19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="svb-service-client"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -29911,20 +31467,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -30129,18 +31685,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30774,20 +32330,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -31391,20 +32947,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -32014,20 +33570,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -32249,13 +33805,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="117" t="s">
+      <c r="U4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="119"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="125"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -32292,9 +33848,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -32884,20 +34440,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -33678,20 +35234,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="650" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="28740" yWindow="720" windowWidth="29660" windowHeight="17460" tabRatio="650" firstSheet="14" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="329">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1160,6 +1160,9 @@
   <si>
     <t>Protractor with Backend</t>
   </si>
+  <si>
+    <t>~/svb-web-payments/integration$ grep -r "\sit(" * |  wc</t>
+  </si>
 </sst>
 </file>
 
@@ -2025,20 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2071,6 +2060,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2245,7 +2248,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,7 +2292,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8410,13 +8413,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8453,9 +8456,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9037,20 +9040,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9513,13 +9516,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9556,9 +9559,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10140,20 +10143,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10348,13 +10351,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="123" t="s">
+      <c r="U25" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="125"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="145"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10367,9 +10370,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10763,13 +10766,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10806,9 +10809,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11398,20 +11401,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11934,13 +11937,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11977,9 +11980,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12580,20 +12583,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13138,13 +13141,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13181,9 +13184,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13794,20 +13797,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14344,13 +14347,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14387,9 +14390,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15000,20 +15003,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15550,13 +15553,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15593,9 +15596,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16206,20 +16209,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16756,13 +16759,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16799,9 +16802,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17412,20 +17415,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17965,13 +17968,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18008,9 +18011,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18624,20 +18627,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19114,13 +19117,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19157,9 +19160,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19773,20 +19776,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20760,7 +20763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -20928,13 +20931,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20971,9 +20974,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21587,20 +21590,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22690,20 +22693,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23786,20 +23789,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="142" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -24252,11 +24255,11 @@
       <c r="N2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14" t="str">
-        <f t="shared" ref="Q2:Q16" si="1">B2</f>
+        <f t="shared" ref="Q2:Q14" si="1">B2</f>
         <v>Mur Service Payments</v>
       </c>
       <c r="R2" s="14">
-        <f t="shared" ref="R2:R16" si="2">C2</f>
+        <f t="shared" ref="R2:R14" si="2">C2</f>
         <v>553</v>
       </c>
       <c r="S2" s="14"/>
@@ -25780,21 +25783,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25840,7 +25843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -25920,7 +25923,7 @@
         <v>195</v>
       </c>
       <c r="R1" s="14" t="str">
-        <f t="shared" ref="R1:S9" si="0">C1</f>
+        <f t="shared" ref="R1:S1" si="0">C1</f>
         <v xml:space="preserve">UTs </v>
       </c>
       <c r="S1" s="14" t="str">
@@ -26658,21 +26661,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27553,20 +27556,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29005,20 +29008,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29222,23 +29225,23 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="19" customHeight="1">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="122" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129" t="s">
+      <c r="C30" s="122"/>
+      <c r="D30" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="128" t="s">
+      <c r="E30" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
     </row>
     <row r="31" spans="2:20" ht="17" customHeight="1">
       <c r="B31" t="s">
@@ -29315,8 +29318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -30052,20 +30055,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30085,13 +30088,13 @@
       <c r="S19" s="150"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
-      <c r="O20" s="130"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132" t="s">
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="S20" s="133" t="s">
+      <c r="S20" s="127" t="s">
         <v>326</v>
       </c>
     </row>
@@ -30108,28 +30111,28 @@
       <c r="E21" t="s">
         <v>233</v>
       </c>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136" t="s">
+      <c r="O21" s="128"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="137"/>
+      <c r="S21" s="131"/>
     </row>
     <row r="22" spans="1:19" ht="17" customHeight="1">
       <c r="D22" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="O22" s="138" t="s">
+      <c r="O22" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="141">
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135">
         <f>Q1</f>
         <v>218</v>
       </c>
-      <c r="S22" s="142">
+      <c r="S22" s="136">
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
@@ -30146,34 +30149,34 @@
       <c r="E23" t="s">
         <v>234</v>
       </c>
-      <c r="O23" s="138" t="s">
+      <c r="O23" s="132" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="139" t="s">
+      <c r="P23" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="Q23" s="140" t="s">
+      <c r="Q23" s="134" t="s">
         <v>327</v>
       </c>
-      <c r="R23" s="141">
+      <c r="R23" s="135">
         <f>C37</f>
         <v>134</v>
       </c>
-      <c r="S23" s="142">
+      <c r="S23" s="136">
         <v>6.59E-2</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="17" customHeight="1">
       <c r="D24" s="58"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="139" t="s">
+      <c r="O24" s="132"/>
+      <c r="P24" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="141">
-        <v>0</v>
-      </c>
-      <c r="S24" s="142">
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135">
+        <v>0</v>
+      </c>
+      <c r="S24" s="136">
         <v>0</v>
       </c>
     </row>
@@ -30184,18 +30187,18 @@
       <c r="C25" t="s">
         <v>278</v>
       </c>
-      <c r="O25" s="138"/>
-      <c r="P25" s="139" t="s">
+      <c r="O25" s="132"/>
+      <c r="P25" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="140" t="s">
+      <c r="Q25" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="R25" s="141">
+      <c r="R25" s="135">
         <f>S14</f>
         <v>1415</v>
       </c>
-      <c r="S25" s="142">
+      <c r="S25" s="136">
         <v>0.60650000000000004</v>
       </c>
     </row>
@@ -30203,16 +30206,16 @@
       <c r="C26" t="s">
         <v>279</v>
       </c>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="140" t="s">
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="141">
+      <c r="R26" s="135">
         <f>S16</f>
         <v>531</v>
       </c>
-      <c r="S26" s="142">
+      <c r="S26" s="136">
         <v>0.24199999999999999</v>
       </c>
     </row>
@@ -30220,55 +30223,55 @@
       <c r="C27" t="s">
         <v>230</v>
       </c>
-      <c r="O27" s="138"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="142"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="136"/>
     </row>
     <row r="28" spans="1:19" ht="17" customHeight="1">
       <c r="C28" t="s">
         <v>231</v>
       </c>
-      <c r="O28" s="138"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="142"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="136"/>
     </row>
     <row r="29" spans="1:19" ht="17" customHeight="1" thickBot="1">
       <c r="C29" t="s">
         <v>232</v>
       </c>
-      <c r="O29" s="143"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="146">
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="140">
         <f>SUM(R22:R26)</f>
         <v>2298</v>
       </c>
-      <c r="S29" s="147">
+      <c r="S29" s="141">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="122" t="s">
         <v>276</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129" t="s">
+      <c r="C31" s="122"/>
+      <c r="D31" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="128" t="s">
+      <c r="E31" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="1:19">
       <c r="B32" t="s">
@@ -30281,26 +30284,21 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="D33" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" s="59"/>
+    </row>
+    <row r="34" spans="3:4">
       <c r="D34" s="59"/>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:4">
       <c r="D36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:4">
       <c r="C37">
         <f>C32</f>
         <v>134</v>
@@ -31467,20 +31465,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -31685,18 +31683,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="122"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32330,20 +32328,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -32947,20 +32945,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -33570,20 +33568,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -33805,13 +33803,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="125"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -33848,9 +33846,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -34440,20 +34438,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -35234,20 +35232,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="720" windowWidth="29660" windowHeight="17460" tabRatio="650" firstSheet="14" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13960" tabRatio="650" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,10 @@
     <sheet name="humm" sheetId="38" r:id="rId26"/>
     <sheet name="8.19" sheetId="39" r:id="rId27"/>
     <sheet name="9.20" sheetId="41" r:id="rId28"/>
+    <sheet name="10.3" sheetId="42" r:id="rId29"/>
   </sheets>
   <definedNames>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">'3.25'!$A$1:$L$16</definedName>
@@ -153,29 +155,32 @@
   <connection id="26" name="Connection31" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="Connection32" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="28" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="336">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1163,6 +1168,27 @@
   <si>
     <t>~/svb-web-payments/integration$ grep -r "\sit(" * |  wc</t>
   </si>
+  <si>
+    <t>Mur Service OOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> results</t>
+  </si>
+  <si>
+    <t>Component Test</t>
+  </si>
+  <si>
+    <t>utB</t>
+  </si>
+  <si>
+    <t>Application Level</t>
+  </si>
+  <si>
+    <t>Mock and Backend</t>
+  </si>
+  <si>
+    <t>Oct 3, 2016</t>
+  </si>
 </sst>
 </file>
 
@@ -1717,7 +1743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1782,8 +1808,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2063,6 +2099,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2083,8 +2125,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2147,6 +2199,16 @@
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2248,7 +2310,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2292,7 +2354,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2323,8 +2385,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="27" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="28" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="29" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2675,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1034"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8413,13 +8479,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8456,9 +8522,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9040,20 +9106,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9516,13 +9582,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9559,9 +9625,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10143,20 +10209,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10351,13 +10417,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="143" t="s">
+      <c r="U25" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="145"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="147"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10370,9 +10436,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10766,13 +10832,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10809,9 +10875,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11401,20 +11467,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -11937,13 +12003,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11980,9 +12046,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12583,20 +12649,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13141,13 +13207,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13184,9 +13250,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13797,20 +13863,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14347,13 +14413,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14390,9 +14456,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15003,20 +15069,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15553,13 +15619,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15596,9 +15662,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16209,20 +16275,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16759,13 +16825,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16802,9 +16868,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17415,20 +17481,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17968,13 +18034,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18011,9 +18077,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18627,20 +18693,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19117,13 +19183,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19160,9 +19226,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19776,20 +19842,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20763,7 +20829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -20931,13 +20997,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20974,9 +21040,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21590,20 +21656,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22693,20 +22759,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23789,20 +23855,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -25783,21 +25849,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25843,8 +25909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="Q23" sqref="O23:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26661,21 +26727,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27556,20 +27622,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -28266,8 +28332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -29008,20 +29074,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29318,8 +29384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -30055,20 +30121,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="144" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30079,13 +30145,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="148" t="s">
+      <c r="O19" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="150"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="152"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -30343,6 +30409,1137 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1">
+        <f>SUM(R3:R10)</f>
+        <v>223</v>
+      </c>
+      <c r="T1" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="142">
+        <v>581</v>
+      </c>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="23">
+        <v>6209</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K2" s="142">
+        <v>0</v>
+      </c>
+      <c r="L2" s="142">
+        <v>0</v>
+      </c>
+      <c r="M2" s="142">
+        <v>2</v>
+      </c>
+      <c r="N2" s="142">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T17" si="0">C2</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="142">
+        <v>194</v>
+      </c>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K3" s="142">
+        <v>0</v>
+      </c>
+      <c r="L3" s="142">
+        <v>0</v>
+      </c>
+      <c r="M3" s="142">
+        <v>2</v>
+      </c>
+      <c r="N3" s="142">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="142">
+        <v>132</v>
+      </c>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="142">
+        <v>871</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K4" s="142">
+        <v>0</v>
+      </c>
+      <c r="L4" s="142">
+        <v>0</v>
+      </c>
+      <c r="M4" s="142">
+        <v>2</v>
+      </c>
+      <c r="N4" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="142">
+        <v>114</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="23">
+        <v>1577</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K5" s="142">
+        <v>0</v>
+      </c>
+      <c r="L5" s="142">
+        <v>0</v>
+      </c>
+      <c r="M5" s="142">
+        <v>0</v>
+      </c>
+      <c r="N5" s="142">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="142">
+        <v>76</v>
+      </c>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="142">
+        <v>563</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K6" s="142">
+        <v>0</v>
+      </c>
+      <c r="L6" s="142">
+        <v>0</v>
+      </c>
+      <c r="M6" s="142">
+        <v>1</v>
+      </c>
+      <c r="N6" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="142">
+        <v>69</v>
+      </c>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="142">
+        <v>839</v>
+      </c>
+      <c r="G7" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K7" s="142">
+        <v>0</v>
+      </c>
+      <c r="L7" s="142">
+        <v>0</v>
+      </c>
+      <c r="M7" s="142">
+        <v>2</v>
+      </c>
+      <c r="N7" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="142">
+        <v>61</v>
+      </c>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="142">
+        <v>693</v>
+      </c>
+      <c r="G8" s="142" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K8" s="142">
+        <v>0</v>
+      </c>
+      <c r="L8" s="142">
+        <v>0</v>
+      </c>
+      <c r="M8" s="142">
+        <v>0</v>
+      </c>
+      <c r="N8" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="142">
+        <v>59</v>
+      </c>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="142">
+        <v>344</v>
+      </c>
+      <c r="G9" s="142">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K9" s="142">
+        <v>0</v>
+      </c>
+      <c r="L9" s="142">
+        <v>0</v>
+      </c>
+      <c r="M9" s="142">
+        <v>0</v>
+      </c>
+      <c r="N9" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="142">
+        <v>44</v>
+      </c>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="142">
+        <v>573</v>
+      </c>
+      <c r="G10" s="142" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="24">
+        <v>42643</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K10" s="142">
+        <v>0</v>
+      </c>
+      <c r="L10" s="142">
+        <v>0</v>
+      </c>
+      <c r="M10" s="142">
+        <v>1</v>
+      </c>
+      <c r="N10" s="142">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="142">
+        <v>36</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="142">
+        <v>195</v>
+      </c>
+      <c r="G11" s="142">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="142">
+        <v>0</v>
+      </c>
+      <c r="L11" s="142">
+        <v>0</v>
+      </c>
+      <c r="M11" s="142">
+        <v>0</v>
+      </c>
+      <c r="N11" s="142">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="142">
+        <v>31</v>
+      </c>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="142">
+        <v>378</v>
+      </c>
+      <c r="G12" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K12" s="142">
+        <v>0</v>
+      </c>
+      <c r="L12" s="142">
+        <v>0</v>
+      </c>
+      <c r="M12" s="142">
+        <v>1</v>
+      </c>
+      <c r="N12" s="142">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="142">
+        <v>22</v>
+      </c>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="142">
+        <v>318</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="142">
+        <v>0</v>
+      </c>
+      <c r="L13" s="142">
+        <v>0</v>
+      </c>
+      <c r="M13" s="142">
+        <v>1</v>
+      </c>
+      <c r="N13" s="142">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="142">
+        <v>18</v>
+      </c>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="142">
+        <v>172</v>
+      </c>
+      <c r="G14" s="142">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="142">
+        <v>0</v>
+      </c>
+      <c r="L14" s="142">
+        <v>0</v>
+      </c>
+      <c r="M14" s="142">
+        <v>0</v>
+      </c>
+      <c r="N14" s="142">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <f>SUM(T2:T15)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="142">
+        <v>13</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="142">
+        <v>218</v>
+      </c>
+      <c r="G15" s="142">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>42640</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K15" s="142">
+        <v>0</v>
+      </c>
+      <c r="L15" s="142">
+        <v>0</v>
+      </c>
+      <c r="M15" s="142">
+        <v>0</v>
+      </c>
+      <c r="N15" s="142">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="31">
+        <f>C22</f>
+        <v>91</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="23">
+        <v>3041</v>
+      </c>
+      <c r="G16" s="142">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>42578</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K16" s="142">
+        <v>0</v>
+      </c>
+      <c r="L16" s="142">
+        <v>0</v>
+      </c>
+      <c r="M16" s="142">
+        <v>0</v>
+      </c>
+      <c r="N16" s="142">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="U16">
+        <f>SUM(T16:T17)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="31">
+        <f>C24</f>
+        <v>491</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23">
+        <v>10346</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K17" s="142">
+        <v>0</v>
+      </c>
+      <c r="L17" s="142">
+        <v>0</v>
+      </c>
+      <c r="M17" s="142">
+        <v>0</v>
+      </c>
+      <c r="N17" s="142">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1">
+      <c r="A18" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1">
+      <c r="B19" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q19" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" s="154" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="155"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="133"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="135">
+        <f>S1</f>
+        <v>223</v>
+      </c>
+      <c r="U22" s="156">
+        <f>T22/$T$29</f>
+        <v>9.1281211625051165E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="F23" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="R23" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="S23" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="T23" s="135">
+        <f>C38</f>
+        <v>188</v>
+      </c>
+      <c r="U23" s="156">
+        <f t="shared" ref="U23:U28" si="1">T23/$T$29</f>
+        <v>7.6954564060581251E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24">
+        <v>491</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="S24" s="134"/>
+      <c r="T24" s="135">
+        <v>0</v>
+      </c>
+      <c r="U24" s="156"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="F25" s="58"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T25" s="135">
+        <f>U14</f>
+        <v>1450</v>
+      </c>
+      <c r="U25" s="156">
+        <f t="shared" si="1"/>
+        <v>0.59353254195661076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="S26" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T26" s="158"/>
+      <c r="U26" s="156"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="T27" s="135">
+        <f>U16</f>
+        <v>582</v>
+      </c>
+      <c r="U27" s="156">
+        <f t="shared" si="1"/>
+        <v>0.23823168235775685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="156"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" thickBot="1">
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="140">
+        <f>SUM(T22:T27)</f>
+        <v>2443</v>
+      </c>
+      <c r="U29" s="157">
+        <f>SUM(U22:U28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="B32" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33">
+        <v>188</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="F34" s="59"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="F35" s="59"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="C38">
+        <f>C33</f>
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="Q19:U19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="F1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="G1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="H1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="I1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="J1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="K1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="L1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="M1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="N1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="svb-service-client"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="T29:U29" emptyCellReference="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -31465,20 +32662,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -31683,18 +32880,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="142"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32328,20 +33525,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -32945,20 +34142,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -33568,20 +34765,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -33803,13 +35000,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="143" t="s">
+      <c r="U4" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -33846,9 +35043,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="146"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -34438,20 +35635,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -35232,20 +36429,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13960" tabRatio="650" firstSheet="15" activeTab="24"/>
+    <workbookView xWindow="30080" yWindow="680" windowWidth="29520" windowHeight="16900" tabRatio="817" firstSheet="11" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,18 @@
     <sheet name="6.24" sheetId="30" r:id="rId19"/>
     <sheet name="7.1" sheetId="31" r:id="rId20"/>
     <sheet name="Layout Chg" sheetId="33" r:id="rId21"/>
-    <sheet name="July 8" sheetId="34" r:id="rId22"/>
-    <sheet name="July 15" sheetId="35" r:id="rId23"/>
+    <sheet name="7.8" sheetId="34" r:id="rId22"/>
+    <sheet name="7.15" sheetId="35" r:id="rId23"/>
     <sheet name="Unit&amp;Integration" sheetId="36" r:id="rId24"/>
     <sheet name="7.25" sheetId="37" r:id="rId25"/>
     <sheet name="humm" sheetId="38" r:id="rId26"/>
     <sheet name="8.19" sheetId="39" r:id="rId27"/>
     <sheet name="9.20" sheetId="41" r:id="rId28"/>
     <sheet name="10.3" sheetId="42" r:id="rId29"/>
+    <sheet name="10.12" sheetId="43" r:id="rId30"/>
   </sheets>
   <definedNames>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
@@ -52,12 +54,12 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="17">'6.17'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="18">'6.24'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="19">'7.1'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'7.15'!$A$1:$L$17</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="24">'7.25'!$A$1:$M$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'7.8'!$A$1:$L$15</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="26">'8.19'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="27">'9.20'!$A$1:$L$17</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="25">humm!$A$1:$L$16</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="22">'July 15'!$A$1:$L$17</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="21">'July 8'!$A$1:$L$15</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">'Layout Chg'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">'S4'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">'S7'!$A$1:$L$16</definedName>
@@ -158,29 +160,35 @@
   <connection id="27" name="Connection32" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="Connection33" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="29" name="Connection34" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="30" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="351">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1189,6 +1197,53 @@
   <si>
     <t>Oct 3, 2016</t>
   </si>
+  <si>
+    <t>Mur Service BankInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d 2h </t>
+  </si>
+  <si>
+    <t>20 results</t>
+  </si>
+  <si>
+    <t>Protractor E2E Integration tests</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Column E "int" represents repository count of integration or component level tests</t>
+  </si>
+  <si>
+    <t>These tests are all writtin Java and run against *.jars hosted on the GlassFish/Jersey/Grizzly2 web app test environment</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>There should be a change of the repo names so that they are all Mur Service &lt;function/feature&gt;  vs mur client service and one other</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Application Front End</t>
+  </si>
+  <si>
+    <t>Manual
+Releases</t>
+  </si>
+  <si>
+    <t>Test Cases
+Count</t>
+  </si>
+  <si>
+    <t>Oct 12 2016</t>
+  </si>
 </sst>
 </file>
 
@@ -1819,7 +1874,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2102,6 +2157,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2125,16 +2193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2389,8 +2450,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="27" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="28" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="29" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="31" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8479,13 +8544,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8522,9 +8587,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9106,20 +9171,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9582,13 +9647,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9625,9 +9690,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10209,20 +10274,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10417,13 +10482,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="145" t="s">
+      <c r="U25" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
-      <c r="Y25" s="147"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="154"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10436,9 +10501,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="149"/>
-      <c r="W26" s="149"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10832,13 +10897,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10875,9 +10940,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11467,20 +11532,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12003,13 +12068,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12046,9 +12111,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12649,20 +12714,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13207,13 +13272,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13250,9 +13315,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13863,20 +13928,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14413,13 +14478,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14456,9 +14521,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15069,20 +15134,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15619,13 +15684,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15662,9 +15727,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16275,20 +16340,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16825,13 +16890,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16868,9 +16933,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17481,20 +17546,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18034,13 +18099,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18077,9 +18142,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18693,20 +18758,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19183,13 +19248,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19226,9 +19291,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19842,20 +19907,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20997,13 +21062,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21040,9 +21105,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21656,20 +21721,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21974,7 +22039,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22759,20 +22824,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23855,20 +23920,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -24200,7 +24265,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25849,21 +25914,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25909,8 +25974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="Q23" sqref="O23:Q23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26727,21 +26792,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27622,20 +27687,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29074,20 +29139,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29384,7 +29449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -30121,20 +30186,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="144" t="s">
+      <c r="A17" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30145,13 +30210,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="150" t="s">
+      <c r="O19" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="152"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="159"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -30421,8 +30486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18:U30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -30515,7 +30580,9 @@
         <v>581</v>
       </c>
       <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
+      <c r="E2" s="143">
+        <v>123</v>
+      </c>
       <c r="F2" s="23">
         <v>6209</v>
       </c>
@@ -30557,7 +30624,9 @@
         <v>194</v>
       </c>
       <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+      <c r="E3" s="143">
+        <v>34</v>
+      </c>
       <c r="F3" s="23">
         <v>1760</v>
       </c>
@@ -31237,34 +31306,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="150" t="s">
+      <c r="Q19" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="158"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="159"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -31273,10 +31342,10 @@
       <c r="Q20" s="124"/>
       <c r="R20" s="125"/>
       <c r="S20" s="125"/>
-      <c r="T20" s="153" t="s">
+      <c r="T20" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="U20" s="154" t="s">
+      <c r="U20" s="145" t="s">
         <v>335</v>
       </c>
     </row>
@@ -31287,7 +31356,7 @@
       <c r="T21" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="U21" s="155"/>
+      <c r="U21" s="146"/>
     </row>
     <row r="22" spans="1:21">
       <c r="B22" t="s">
@@ -31311,7 +31380,7 @@
         <f>S1</f>
         <v>223</v>
       </c>
-      <c r="U22" s="156">
+      <c r="U22" s="147">
         <f>T22/$T$29</f>
         <v>9.1281211625051165E-2</v>
       </c>
@@ -31333,8 +31402,8 @@
         <f>C38</f>
         <v>188</v>
       </c>
-      <c r="U23" s="156">
-        <f t="shared" ref="U23:U28" si="1">T23/$T$29</f>
+      <c r="U23" s="147">
+        <f t="shared" ref="U23:U27" si="1">T23/$T$29</f>
         <v>7.6954564060581251E-2</v>
       </c>
     </row>
@@ -31359,7 +31428,7 @@
       <c r="T24" s="135">
         <v>0</v>
       </c>
-      <c r="U24" s="156"/>
+      <c r="U24" s="147"/>
     </row>
     <row r="25" spans="1:21">
       <c r="F25" s="58"/>
@@ -31374,7 +31443,7 @@
         <f>U14</f>
         <v>1450</v>
       </c>
-      <c r="U25" s="156">
+      <c r="U25" s="147">
         <f t="shared" si="1"/>
         <v>0.59353254195661076</v>
       </c>
@@ -31393,8 +31462,8 @@
       <c r="S26" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="T26" s="158"/>
-      <c r="U26" s="156"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="147"/>
     </row>
     <row r="27" spans="1:21">
       <c r="C27" t="s">
@@ -31409,7 +31478,7 @@
         <f>U16</f>
         <v>582</v>
       </c>
-      <c r="U27" s="156">
+      <c r="U27" s="147">
         <f t="shared" si="1"/>
         <v>0.23823168235775685</v>
       </c>
@@ -31422,7 +31491,7 @@
       <c r="R28" s="133"/>
       <c r="S28" s="134"/>
       <c r="T28" s="135"/>
-      <c r="U28" s="156"/>
+      <c r="U28" s="147"/>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1">
       <c r="C29" t="s">
@@ -31435,7 +31504,7 @@
         <f>SUM(T22:T27)</f>
         <v>2443</v>
       </c>
-      <c r="U29" s="157">
+      <c r="U29" s="148">
         <f>SUM(U22:U28)</f>
         <v>1</v>
       </c>
@@ -32139,6 +32208,1680 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="160" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" s="160" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" s="59" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="T1" s="59" t="str">
+        <f>E1</f>
+        <v>Int</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="150">
+        <v>581</v>
+      </c>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150">
+        <v>123</v>
+      </c>
+      <c r="F2" s="23">
+        <v>6215</v>
+      </c>
+      <c r="G2" s="150" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K2" s="150">
+        <v>0</v>
+      </c>
+      <c r="L2" s="150">
+        <v>0</v>
+      </c>
+      <c r="M2" s="150">
+        <v>2</v>
+      </c>
+      <c r="N2" s="150">
+        <v>0</v>
+      </c>
+      <c r="S2" s="59">
+        <f>C2-E2</f>
+        <v>458</v>
+      </c>
+      <c r="T2" s="59">
+        <f t="shared" ref="T2:T18" si="0">E2</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="150">
+        <v>194</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150">
+        <v>34</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="G3" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K3" s="150">
+        <v>0</v>
+      </c>
+      <c r="L3" s="150">
+        <v>0</v>
+      </c>
+      <c r="M3" s="150">
+        <v>2</v>
+      </c>
+      <c r="N3" s="150">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3" s="59">
+        <f t="shared" ref="S3:S18" si="1">C3-E3</f>
+        <v>160</v>
+      </c>
+      <c r="T3" s="59">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="150">
+        <v>132</v>
+      </c>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150">
+        <v>871</v>
+      </c>
+      <c r="G4" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K4" s="150">
+        <v>0</v>
+      </c>
+      <c r="L4" s="150">
+        <v>0</v>
+      </c>
+      <c r="M4" s="150">
+        <v>1</v>
+      </c>
+      <c r="N4" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4">
+        <v>153</v>
+      </c>
+      <c r="S4" s="59">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="T4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="150">
+        <v>114</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="23">
+        <v>1611</v>
+      </c>
+      <c r="G5" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42649</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K5" s="150">
+        <v>0</v>
+      </c>
+      <c r="L5" s="150">
+        <v>0</v>
+      </c>
+      <c r="M5" s="150">
+        <v>0</v>
+      </c>
+      <c r="N5" s="150">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="59">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="150">
+        <v>76</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150">
+        <v>563</v>
+      </c>
+      <c r="G6" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K6" s="150">
+        <v>0</v>
+      </c>
+      <c r="L6" s="150">
+        <v>0</v>
+      </c>
+      <c r="M6" s="150">
+        <v>1</v>
+      </c>
+      <c r="N6" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="59">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="T6" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="150">
+        <v>69</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150">
+        <v>16</v>
+      </c>
+      <c r="F7" s="150">
+        <v>839</v>
+      </c>
+      <c r="G7" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="24">
+        <v>42646</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K7" s="150">
+        <v>0</v>
+      </c>
+      <c r="L7" s="150">
+        <v>0</v>
+      </c>
+      <c r="M7" s="150">
+        <v>2</v>
+      </c>
+      <c r="N7" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" s="59">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="T7" s="59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="150">
+        <v>61</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150">
+        <v>11</v>
+      </c>
+      <c r="F8" s="150">
+        <v>693</v>
+      </c>
+      <c r="G8" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="24">
+        <v>42646</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K8" s="150">
+        <v>0</v>
+      </c>
+      <c r="L8" s="150">
+        <v>0</v>
+      </c>
+      <c r="M8" s="150">
+        <v>0</v>
+      </c>
+      <c r="N8" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8" s="59">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T8" s="59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="150">
+        <v>59</v>
+      </c>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150">
+        <v>344</v>
+      </c>
+      <c r="G9" s="150">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K9" s="150">
+        <v>0</v>
+      </c>
+      <c r="L9" s="150">
+        <v>0</v>
+      </c>
+      <c r="M9" s="150">
+        <v>0</v>
+      </c>
+      <c r="N9" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" s="59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="T9" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="150">
+        <v>44</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150">
+        <v>5</v>
+      </c>
+      <c r="F10" s="150">
+        <v>573</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.46875</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K10" s="150">
+        <v>0</v>
+      </c>
+      <c r="L10" s="150">
+        <v>0</v>
+      </c>
+      <c r="M10" s="150">
+        <v>1</v>
+      </c>
+      <c r="N10" s="150">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="59">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="150">
+        <v>36</v>
+      </c>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150">
+        <v>195</v>
+      </c>
+      <c r="G11" s="150">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="150">
+        <v>0</v>
+      </c>
+      <c r="L11" s="150">
+        <v>0</v>
+      </c>
+      <c r="M11" s="150">
+        <v>0</v>
+      </c>
+      <c r="N11" s="150">
+        <v>0</v>
+      </c>
+      <c r="S11" s="59">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="150">
+        <v>31</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150">
+        <v>378</v>
+      </c>
+      <c r="G12" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K12" s="150">
+        <v>0</v>
+      </c>
+      <c r="L12" s="150">
+        <v>0</v>
+      </c>
+      <c r="M12" s="150">
+        <v>1</v>
+      </c>
+      <c r="N12" s="150">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="150">
+        <v>22</v>
+      </c>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150">
+        <v>318</v>
+      </c>
+      <c r="G13" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="150">
+        <v>0</v>
+      </c>
+      <c r="L13" s="150">
+        <v>0</v>
+      </c>
+      <c r="M13" s="150">
+        <v>1</v>
+      </c>
+      <c r="N13" s="150">
+        <v>2</v>
+      </c>
+      <c r="S13" s="59">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="150">
+        <v>22</v>
+      </c>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150">
+        <v>8</v>
+      </c>
+      <c r="F14" s="150">
+        <v>319</v>
+      </c>
+      <c r="G14" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="24">
+        <v>42654</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="150">
+        <v>0</v>
+      </c>
+      <c r="L14" s="150">
+        <v>0</v>
+      </c>
+      <c r="M14" s="150">
+        <v>1</v>
+      </c>
+      <c r="N14" s="150">
+        <v>0</v>
+      </c>
+      <c r="S14" s="59">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T14" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <f>SUM(S2:S16)</f>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="150">
+        <v>18</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150">
+        <v>172</v>
+      </c>
+      <c r="G15" s="150">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="150">
+        <v>0</v>
+      </c>
+      <c r="L15" s="150">
+        <v>0</v>
+      </c>
+      <c r="M15" s="150">
+        <v>0</v>
+      </c>
+      <c r="N15" s="150">
+        <v>0</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(T2:T18)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="150">
+        <v>13</v>
+      </c>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150">
+        <v>218</v>
+      </c>
+      <c r="G16" s="150">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>42647</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K16" s="150">
+        <v>0</v>
+      </c>
+      <c r="L16" s="150">
+        <v>0</v>
+      </c>
+      <c r="M16" s="150">
+        <v>0</v>
+      </c>
+      <c r="N16" s="150">
+        <v>0</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>SUM(S17:S18)</f>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31">
+        <v>91</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23">
+        <v>3041</v>
+      </c>
+      <c r="G17" s="150">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>42578</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K17" s="150">
+        <v>0</v>
+      </c>
+      <c r="L17" s="150">
+        <v>0</v>
+      </c>
+      <c r="M17" s="150">
+        <v>0</v>
+      </c>
+      <c r="N17" s="150">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R3:R10)</f>
+        <v>217</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="T17" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="18" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31">
+        <v>491</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="23">
+        <v>10132</v>
+      </c>
+      <c r="G18" s="150" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" s="24">
+        <v>42607</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K18" s="150">
+        <v>0</v>
+      </c>
+      <c r="L18" s="150">
+        <v>0</v>
+      </c>
+      <c r="M18" s="150">
+        <v>19</v>
+      </c>
+      <c r="N18" s="150">
+        <v>104</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="T18" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1">
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1">
+      <c r="Q22" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="159"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>91</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="145" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="F24" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="146"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>491</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="133"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="135">
+        <f>R17</f>
+        <v>217</v>
+      </c>
+      <c r="U25" s="147">
+        <f>T25/$T$32</f>
+        <v>8.8247254981699871E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="F26" s="58"/>
+      <c r="Q26" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="S26" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="135">
+        <f>C34</f>
+        <v>188</v>
+      </c>
+      <c r="U26" s="147">
+        <f t="shared" ref="U26:U30" si="2">T26/$T$32</f>
+        <v>7.6453843025620166E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" s="134"/>
+      <c r="T27" s="135">
+        <v>0</v>
+      </c>
+      <c r="U27" s="147"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" s="135">
+        <f>U14</f>
+        <v>1275</v>
+      </c>
+      <c r="U28" s="147">
+        <f t="shared" si="2"/>
+        <v>0.51850345668971132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="S29" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="135">
+        <f>U15</f>
+        <v>197</v>
+      </c>
+      <c r="U29" s="147">
+        <f t="shared" si="2"/>
+        <v>8.0113867425782845E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="T30" s="135">
+        <f>U16</f>
+        <v>582</v>
+      </c>
+      <c r="U30" s="147">
+        <f t="shared" si="2"/>
+        <v>0.23668157787718586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="147"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1">
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="140">
+        <f>SUM(T25:T30)</f>
+        <v>2459</v>
+      </c>
+      <c r="U32" s="148">
+        <f>SUM(U25:U31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34">
+        <v>188</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="62"/>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="62"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="62"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="62"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="62"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="62"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="62"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="62"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="62"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="62"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="62"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="62"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="62"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="62"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="62"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="62"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="62"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="62"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="62"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="62"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="62"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="62"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="62"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="62"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="62"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="62"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="62"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="62"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="62"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="62"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="62"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="62"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="62"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="62"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="62"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="62"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="62"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="62"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="62"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="62"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="62"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="62"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="62"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="62"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="62"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="62"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="62"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="62"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="62"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="62"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="62"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="62"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="62"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="62"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="62"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="62"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="62"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="62"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="62"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="62"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="62"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="62"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="62"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="62"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="62"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="62"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="62"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="62"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="62"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="62"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="62"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="62"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="62"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="62"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="62"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="62"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="62"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="62"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="62"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="62"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="62"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="62"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="62"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="62"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="62"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="62"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="62"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="62"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="62"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="62"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="62"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="62"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="62"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="62"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="62"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="62"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="62"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="62"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="62"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="62"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="62"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="62"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="62"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="62"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="62"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="62"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="62"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="62"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="62"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="62"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="62"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="62"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="62"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="62"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="62"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="62"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="62"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="62"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="62"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="62"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="62"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="62"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="62"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="62"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="62"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="62"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="62"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="62"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="62"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="62"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q22:U22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="F1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="G1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="H1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="I1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="J1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="K1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="L1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="M1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="N1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="svb-service-client"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment:master" display="Mur Web Payment master"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="U32" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
@@ -32662,20 +34405,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -32880,18 +34623,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="144"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33525,20 +35268,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -34142,20 +35885,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -34765,20 +36508,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -35000,13 +36743,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="145" t="s">
+      <c r="U4" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="147"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="154"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -35043,9 +36786,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="149"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -35635,20 +37378,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -36429,20 +38172,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="680" windowWidth="29520" windowHeight="16900" tabRatio="817" firstSheet="11" activeTab="29"/>
+    <workbookView xWindow="10160" yWindow="120" windowWidth="28420" windowHeight="17420" tabRatio="817" firstSheet="21" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,11 @@
     <sheet name="9.20" sheetId="41" r:id="rId28"/>
     <sheet name="10.3" sheetId="42" r:id="rId29"/>
     <sheet name="10.12" sheetId="43" r:id="rId30"/>
+    <sheet name="10.18" sheetId="44" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="30">'10.18'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
@@ -166,29 +168,32 @@
   <connection id="29" name="Connection34" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="Connection35" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="31" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="34" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="35" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="354">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1244,12 +1249,22 @@
   <si>
     <t>Oct 12 2016</t>
   </si>
+  <si>
+    <t xml:space="preserve">14min </t>
+  </si>
+  <si>
+    <t>19 results</t>
+  </si>
+  <si>
+    <t>Oct 18 2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -1798,7 +1813,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1873,8 +1888,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2173,6 +2190,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2193,11 +2216,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="76">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2270,6 +2293,8 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2371,7 +2396,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2415,7 +2440,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,8 +2479,12 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="28" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="30" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="31" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8544,13 +8573,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8587,9 +8616,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9171,20 +9200,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9647,13 +9676,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9690,9 +9719,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10274,20 +10303,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10482,13 +10511,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="152" t="s">
+      <c r="U25" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="154"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="156"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10501,9 +10530,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10897,13 +10926,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10940,9 +10969,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11532,20 +11561,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12068,13 +12097,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12111,9 +12140,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12714,20 +12743,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13272,13 +13301,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13315,9 +13344,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13928,20 +13957,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14478,13 +14507,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14521,9 +14550,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15134,20 +15163,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15684,13 +15713,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15727,9 +15756,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16340,20 +16369,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16890,13 +16919,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16933,9 +16962,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17546,20 +17575,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18099,13 +18128,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18142,9 +18171,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18758,20 +18787,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19248,13 +19277,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19291,9 +19320,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19907,20 +19936,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21062,13 +21091,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21105,9 +21134,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21721,20 +21750,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22824,20 +22853,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23920,20 +23949,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="153" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -24265,7 +24294,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25914,21 +25943,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26792,21 +26821,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27687,20 +27716,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -28397,7 +28426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -29139,20 +29168,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29449,7 +29478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -30186,20 +30215,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="153" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30210,13 +30239,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="157" t="s">
+      <c r="O19" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="161"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31306,34 +31335,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="153" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="157" t="s">
+      <c r="Q19" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="159"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="161"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -32212,8 +32241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32243,7 +32272,7 @@
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="162" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -32282,10 +32311,10 @@
       <c r="N1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="160" t="s">
+      <c r="Q1" s="152" t="s">
         <v>348</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="152" t="s">
         <v>349</v>
       </c>
       <c r="S1" s="59" t="str">
@@ -33183,13 +33212,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="157" t="s">
+      <c r="Q22" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="159"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="161"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -33872,7 +33901,1294 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="U32" emptyCellReference="1"/>
+    <ignoredError sqref="U32 S4:T18" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" s="59" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="T1" s="59" t="str">
+        <f>E1</f>
+        <v>Int</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="151">
+        <v>591</v>
+      </c>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151">
+        <v>123</v>
+      </c>
+      <c r="F2" s="23">
+        <v>6330</v>
+      </c>
+      <c r="G2" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K2" s="151">
+        <v>0</v>
+      </c>
+      <c r="L2" s="151">
+        <v>0</v>
+      </c>
+      <c r="M2" s="151">
+        <v>2</v>
+      </c>
+      <c r="N2" s="151">
+        <v>0</v>
+      </c>
+      <c r="S2" s="59">
+        <f>C2-E2</f>
+        <v>468</v>
+      </c>
+      <c r="T2" s="59">
+        <f t="shared" ref="T2:T18" si="0">E2</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="151">
+        <v>194</v>
+      </c>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151">
+        <v>34</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="G3" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K3" s="151">
+        <v>0</v>
+      </c>
+      <c r="L3" s="151">
+        <v>0</v>
+      </c>
+      <c r="M3" s="151">
+        <v>2</v>
+      </c>
+      <c r="N3" s="151">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3" s="59">
+        <f t="shared" ref="S3:S16" si="1">C3-E3</f>
+        <v>160</v>
+      </c>
+      <c r="T3" s="59">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="151">
+        <v>28</v>
+      </c>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="23">
+        <v>2230</v>
+      </c>
+      <c r="G4" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K4" s="151">
+        <v>0</v>
+      </c>
+      <c r="L4" s="151">
+        <v>0</v>
+      </c>
+      <c r="M4" s="151">
+        <v>1</v>
+      </c>
+      <c r="N4" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4">
+        <v>153</v>
+      </c>
+      <c r="S4" s="59">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="T4" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="151">
+        <v>132</v>
+      </c>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151">
+        <v>871</v>
+      </c>
+      <c r="G5" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K5" s="151">
+        <v>0</v>
+      </c>
+      <c r="L5" s="151">
+        <v>0</v>
+      </c>
+      <c r="M5" s="151">
+        <v>1</v>
+      </c>
+      <c r="N5" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="59">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="151">
+        <v>114</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="23">
+        <v>1607</v>
+      </c>
+      <c r="G6" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K6" s="151">
+        <v>0</v>
+      </c>
+      <c r="L6" s="151">
+        <v>0</v>
+      </c>
+      <c r="M6" s="151">
+        <v>0</v>
+      </c>
+      <c r="N6" s="151">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="59">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="T6" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="151">
+        <v>82</v>
+      </c>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151">
+        <v>677</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K7" s="151">
+        <v>0</v>
+      </c>
+      <c r="L7" s="151">
+        <v>0</v>
+      </c>
+      <c r="M7" s="151">
+        <v>1</v>
+      </c>
+      <c r="N7" s="151">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" s="59">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="T7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="151">
+        <v>69</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151">
+        <v>16</v>
+      </c>
+      <c r="F8" s="151">
+        <v>839</v>
+      </c>
+      <c r="G8" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K8" s="151">
+        <v>0</v>
+      </c>
+      <c r="L8" s="151">
+        <v>0</v>
+      </c>
+      <c r="M8" s="151">
+        <v>2</v>
+      </c>
+      <c r="N8" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8" s="59">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="T8" s="59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="151">
+        <v>61</v>
+      </c>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151">
+        <v>11</v>
+      </c>
+      <c r="F9" s="151">
+        <v>693</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K9" s="151">
+        <v>0</v>
+      </c>
+      <c r="L9" s="151">
+        <v>0</v>
+      </c>
+      <c r="M9" s="151">
+        <v>0</v>
+      </c>
+      <c r="N9" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" s="59">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T9" s="59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="151">
+        <v>59</v>
+      </c>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151">
+        <v>344</v>
+      </c>
+      <c r="G10" s="151">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K10" s="151">
+        <v>0</v>
+      </c>
+      <c r="L10" s="151">
+        <v>0</v>
+      </c>
+      <c r="M10" s="151">
+        <v>0</v>
+      </c>
+      <c r="N10" s="151">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="151">
+        <v>44</v>
+      </c>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151">
+        <v>5</v>
+      </c>
+      <c r="F11" s="151">
+        <v>573</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K11" s="151">
+        <v>0</v>
+      </c>
+      <c r="L11" s="151">
+        <v>0</v>
+      </c>
+      <c r="M11" s="151">
+        <v>1</v>
+      </c>
+      <c r="N11" s="151">
+        <v>0</v>
+      </c>
+      <c r="S11" s="59">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="151">
+        <v>41</v>
+      </c>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151">
+        <v>8</v>
+      </c>
+      <c r="F12" s="151">
+        <v>567</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="K12" s="151">
+        <v>0</v>
+      </c>
+      <c r="L12" s="151">
+        <v>0</v>
+      </c>
+      <c r="M12" s="151">
+        <v>1</v>
+      </c>
+      <c r="N12" s="151">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="151">
+        <v>36</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151">
+        <v>195</v>
+      </c>
+      <c r="G13" s="151">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J13" s="25">
+        <v>1</v>
+      </c>
+      <c r="K13" s="151">
+        <v>0</v>
+      </c>
+      <c r="L13" s="151">
+        <v>0</v>
+      </c>
+      <c r="M13" s="151">
+        <v>0</v>
+      </c>
+      <c r="N13" s="151">
+        <v>0</v>
+      </c>
+      <c r="S13" s="59">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="151">
+        <v>31</v>
+      </c>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151">
+        <v>378</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K14" s="151">
+        <v>0</v>
+      </c>
+      <c r="L14" s="151">
+        <v>0</v>
+      </c>
+      <c r="M14" s="151">
+        <v>1</v>
+      </c>
+      <c r="N14" s="151">
+        <v>0</v>
+      </c>
+      <c r="S14" s="59">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="T14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>SUM(S2:S16)</f>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="151">
+        <v>18</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151">
+        <v>172</v>
+      </c>
+      <c r="G15" s="151">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="151">
+        <v>0</v>
+      </c>
+      <c r="L15" s="151">
+        <v>0</v>
+      </c>
+      <c r="M15" s="151">
+        <v>0</v>
+      </c>
+      <c r="N15" s="151">
+        <v>0</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(T2:T18)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="151">
+        <v>13</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151">
+        <v>218</v>
+      </c>
+      <c r="G16" s="151">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K16" s="151">
+        <v>0</v>
+      </c>
+      <c r="L16" s="151">
+        <v>0</v>
+      </c>
+      <c r="M16" s="151">
+        <v>0</v>
+      </c>
+      <c r="N16" s="151">
+        <v>0</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>SUM(S17:S18)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31">
+        <v>85</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23">
+        <v>3041</v>
+      </c>
+      <c r="G17" s="151">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>42578</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K17" s="151">
+        <v>0</v>
+      </c>
+      <c r="L17" s="151">
+        <v>0</v>
+      </c>
+      <c r="M17" s="151">
+        <v>0</v>
+      </c>
+      <c r="N17" s="151">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R3:R10)</f>
+        <v>219</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" ref="S2:S18" si="2">C17</f>
+        <v>85</v>
+      </c>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="1:21" ht="15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31">
+        <v>491</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="23">
+        <v>10132</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" s="24">
+        <v>42607</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K18" s="151">
+        <v>0</v>
+      </c>
+      <c r="L18" s="151">
+        <v>0</v>
+      </c>
+      <c r="M18" s="151">
+        <v>19</v>
+      </c>
+      <c r="N18" s="151">
+        <v>104</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+      <c r="T18" s="59"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="153" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1">
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1">
+      <c r="Q22" s="159" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="161"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="145" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="F24" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="146"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>491</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="133"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="135">
+        <f>R17</f>
+        <v>219</v>
+      </c>
+      <c r="U25" s="147">
+        <f>T25/$T$32</f>
+        <v>8.7740384615384609E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="F26" s="58"/>
+      <c r="Q26" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="S26" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="135">
+        <f>C34</f>
+        <v>188</v>
+      </c>
+      <c r="U26" s="147">
+        <f t="shared" ref="U26:U30" si="3">T26/$T$32</f>
+        <v>7.5320512820512817E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" s="134"/>
+      <c r="T27" s="135">
+        <v>0</v>
+      </c>
+      <c r="U27" s="147"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" s="135">
+        <f>U14</f>
+        <v>1316</v>
+      </c>
+      <c r="U28" s="147">
+        <f t="shared" si="3"/>
+        <v>0.52724358974358976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="S29" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="135">
+        <f>U15</f>
+        <v>197</v>
+      </c>
+      <c r="U29" s="147">
+        <f t="shared" si="3"/>
+        <v>7.8926282051282048E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="T30" s="135">
+        <f>U16</f>
+        <v>576</v>
+      </c>
+      <c r="U30" s="147">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="147"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1">
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="140">
+        <f>SUM(T25:T30)</f>
+        <v>2496</v>
+      </c>
+      <c r="U32" s="148">
+        <f>SUM(U25:U31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34">
+        <v>188</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="62"/>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="62"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="62"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="62"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="Q22:U22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="F1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="G1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="H1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="I1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="J1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="K1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="L1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="M1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="N1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="svb-service-client"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment:master" display="Mur Web Payment master"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="T4:T16 S17:S18 S4:S16" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -34405,20 +35721,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -34623,18 +35939,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="151"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -35268,20 +36584,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -35885,20 +37201,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -36508,20 +37824,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -36743,13 +38059,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -36786,9 +38102,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -37378,20 +38694,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -38172,20 +39488,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="120" windowWidth="28420" windowHeight="17420" tabRatio="817" firstSheet="21" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17060" windowHeight="16880" tabRatio="559" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="355">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1258,6 +1258,9 @@
   <si>
     <t>Oct 18 2016</t>
   </si>
+  <si>
+    <t>B34  Prot E2E Integration test is both ../integration/mock &amp; ../integration/scenarios</t>
+  </si>
 </sst>
 </file>
 
@@ -2193,6 +2196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2215,9 +2221,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -2396,7 +2399,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2440,7 +2443,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8573,13 +8576,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8616,9 +8619,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9200,20 +9203,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9676,13 +9679,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9719,9 +9722,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10303,20 +10306,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10511,13 +10514,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="154" t="s">
+      <c r="U25" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="157"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10530,9 +10533,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10926,13 +10929,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10969,9 +10972,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11561,20 +11564,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12097,13 +12100,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12140,9 +12143,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12743,20 +12746,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13301,13 +13304,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13344,9 +13347,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13957,20 +13960,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14507,13 +14510,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14550,9 +14553,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15163,20 +15166,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15713,13 +15716,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15756,9 +15759,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16369,20 +16372,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16919,13 +16922,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16962,9 +16965,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17575,20 +17578,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18128,13 +18131,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18171,9 +18174,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18787,20 +18790,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19277,13 +19280,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19320,9 +19323,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19936,20 +19939,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21091,13 +21094,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21134,9 +21137,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21750,20 +21753,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22853,20 +22856,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23949,20 +23952,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="154" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -25943,21 +25946,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26821,21 +26824,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27716,20 +27719,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29168,20 +29171,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29478,8 +29481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -30215,20 +30218,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="154" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30239,13 +30242,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="159" t="s">
+      <c r="O19" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="162"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31335,34 +31338,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="154" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="159" t="s">
+      <c r="Q19" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="162"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -32242,7 +32245,7 @@
   <dimension ref="A1:U172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32272,7 +32275,7 @@
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="153" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -33212,13 +33215,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="159" t="s">
+      <c r="Q22" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="162"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -33915,14 +33918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -33939,7 +33942,7 @@
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
     <col min="19" max="19" width="22.33203125" customWidth="1"/>
     <col min="20" max="20" width="19.1640625" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45">
@@ -34006,9 +34009,11 @@
       <c r="C2" s="151">
         <v>591</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="151">
+        <v>608</v>
+      </c>
       <c r="E2" s="151">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="23">
         <v>6330</v>
@@ -34039,11 +34044,11 @@
       </c>
       <c r="S2" s="59">
         <f>C2-E2</f>
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T2" s="59">
-        <f t="shared" ref="T2:T18" si="0">E2</f>
-        <v>123</v>
+        <f t="shared" ref="T2:T16" si="0">E2</f>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15">
@@ -34052,11 +34057,13 @@
         <v>117</v>
       </c>
       <c r="C3" s="151">
-        <v>194</v>
-      </c>
-      <c r="D3" s="151"/>
+        <v>210</v>
+      </c>
+      <c r="D3" s="151">
+        <v>239</v>
+      </c>
       <c r="E3" s="151">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="23">
         <v>1760</v>
@@ -34093,11 +34100,11 @@
       </c>
       <c r="S3" s="59">
         <f t="shared" ref="S3:S16" si="1">C3-E3</f>
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="T3" s="59">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -34106,10 +34113,14 @@
         <v>329</v>
       </c>
       <c r="C4" s="151">
-        <v>28</v>
-      </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="D4" s="151">
+        <v>165</v>
+      </c>
+      <c r="E4" s="151">
+        <v>39</v>
+      </c>
       <c r="F4" s="23">
         <v>2230</v>
       </c>
@@ -34145,11 +34156,11 @@
       </c>
       <c r="S4" s="59">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="T4" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15">
@@ -34160,7 +34171,9 @@
       <c r="C5" s="151">
         <v>132</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="151">
+        <v>134</v>
+      </c>
       <c r="E5" s="151"/>
       <c r="F5" s="151">
         <v>871</v>
@@ -34212,7 +34225,9 @@
       <c r="C6" s="151">
         <v>114</v>
       </c>
-      <c r="D6" s="151"/>
+      <c r="D6" s="151">
+        <v>115</v>
+      </c>
       <c r="E6" s="151"/>
       <c r="F6" s="23">
         <v>1607</v>
@@ -34264,7 +34279,9 @@
       <c r="C7" s="151">
         <v>82</v>
       </c>
-      <c r="D7" s="151"/>
+      <c r="D7" s="151">
+        <v>84</v>
+      </c>
       <c r="E7" s="151"/>
       <c r="F7" s="151">
         <v>677</v>
@@ -34316,7 +34333,9 @@
       <c r="C8" s="151">
         <v>69</v>
       </c>
-      <c r="D8" s="151"/>
+      <c r="D8" s="151">
+        <v>80</v>
+      </c>
       <c r="E8" s="151">
         <v>16</v>
       </c>
@@ -34370,7 +34389,9 @@
       <c r="C9" s="151">
         <v>61</v>
       </c>
-      <c r="D9" s="151"/>
+      <c r="D9" s="151">
+        <v>77</v>
+      </c>
       <c r="E9" s="151">
         <v>11</v>
       </c>
@@ -34424,7 +34445,9 @@
       <c r="C10" s="151">
         <v>59</v>
       </c>
-      <c r="D10" s="151"/>
+      <c r="D10" s="151">
+        <v>60</v>
+      </c>
       <c r="E10" s="151"/>
       <c r="F10" s="151">
         <v>344</v>
@@ -34476,7 +34499,9 @@
       <c r="C11" s="151">
         <v>44</v>
       </c>
-      <c r="D11" s="151"/>
+      <c r="D11" s="151">
+        <v>38</v>
+      </c>
       <c r="E11" s="151">
         <v>5</v>
       </c>
@@ -34524,9 +34549,11 @@
       <c r="C12" s="151">
         <v>41</v>
       </c>
-      <c r="D12" s="151"/>
+      <c r="D12" s="151">
+        <v>48</v>
+      </c>
       <c r="E12" s="151">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="151">
         <v>567</v>
@@ -34557,11 +34584,11 @@
       </c>
       <c r="S12" s="59">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T12" s="59">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -34572,7 +34599,9 @@
       <c r="C13" s="151">
         <v>36</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="151">
+        <v>36</v>
+      </c>
       <c r="E13" s="151"/>
       <c r="F13" s="151">
         <v>195</v>
@@ -34618,7 +34647,9 @@
       <c r="C14" s="151">
         <v>31</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="151">
+        <v>32</v>
+      </c>
       <c r="E14" s="151"/>
       <c r="F14" s="151">
         <v>378</v>
@@ -34657,7 +34688,7 @@
       </c>
       <c r="U14">
         <f>SUM(S2:S16)</f>
-        <v>1316</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -34668,7 +34699,9 @@
       <c r="C15" s="151">
         <v>18</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="151">
+        <v>21</v>
+      </c>
       <c r="E15" s="151"/>
       <c r="F15" s="151">
         <v>172</v>
@@ -34707,7 +34740,7 @@
       </c>
       <c r="U15">
         <f>SUM(T2:T18)</f>
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -34718,7 +34751,9 @@
       <c r="C16" s="151">
         <v>13</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="151">
+        <v>18</v>
+      </c>
       <c r="E16" s="151"/>
       <c r="F16" s="151">
         <v>218</v>
@@ -34802,7 +34837,7 @@
         <v>219</v>
       </c>
       <c r="S17" s="59">
-        <f t="shared" ref="S2:S18" si="2">C17</f>
+        <f t="shared" ref="S17:S18" si="2">C17</f>
         <v>85</v>
       </c>
       <c r="T17" s="59"/>
@@ -34851,22 +34886,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="154" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34879,13 +34914,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="159" t="s">
+      <c r="Q22" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="162"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -34946,7 +34981,7 @@
       </c>
       <c r="U25" s="147">
         <f>T25/$T$32</f>
-        <v>8.7740384615384609E-2</v>
+        <v>8.2454819277108432E-2</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -34966,7 +35001,7 @@
       </c>
       <c r="U26" s="147">
         <f t="shared" ref="U26:U30" si="3">T26/$T$32</f>
-        <v>7.5320512820512817E-2</v>
+        <v>7.0783132530120488E-2</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -34999,11 +35034,11 @@
       </c>
       <c r="T28" s="135">
         <f>U14</f>
-        <v>1316</v>
+        <v>1434</v>
       </c>
       <c r="U28" s="147">
         <f t="shared" si="3"/>
-        <v>0.52724358974358976</v>
+        <v>0.53990963855421692</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -35019,11 +35054,11 @@
       </c>
       <c r="T29" s="135">
         <f>U15</f>
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="U29" s="147">
         <f t="shared" si="3"/>
-        <v>7.8926282051282048E-2</v>
+        <v>8.9984939759036139E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -35041,7 +35076,7 @@
       </c>
       <c r="U30" s="147">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
+        <v>0.21686746987951808</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -35060,7 +35095,7 @@
       <c r="S32" s="139"/>
       <c r="T32" s="140">
         <f>SUM(T25:T30)</f>
-        <v>2496</v>
+        <v>2656</v>
       </c>
       <c r="U32" s="148">
         <f>SUM(U25:U31)</f>
@@ -35132,6 +35167,9 @@
     <row r="40" spans="1:14">
       <c r="A40" s="62" t="s">
         <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -35188,7 +35226,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="T4:T16 S17:S18 S4:S16" emptyCellReference="1"/>
+    <ignoredError sqref="T4:T16 S17:S18 S4:S16 U32" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -35721,20 +35759,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -35939,18 +35977,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="153"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36584,20 +36622,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -37201,20 +37239,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -37824,20 +37862,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -38059,13 +38097,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="157"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -38102,9 +38140,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="157"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -38694,20 +38732,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -39488,20 +39526,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17060" windowHeight="16880" tabRatio="559" firstSheet="27" activeTab="30"/>
+    <workbookView xWindow="62400" yWindow="260" windowWidth="31320" windowHeight="20160" tabRatio="559" firstSheet="19" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,12 @@
     <sheet name="10.3" sheetId="42" r:id="rId29"/>
     <sheet name="10.12" sheetId="43" r:id="rId30"/>
     <sheet name="10.18" sheetId="44" r:id="rId31"/>
+    <sheet name="10.28" sheetId="45" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="30">'10.18'!$A$1:$N$19</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="31">'10.28'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
@@ -171,29 +173,32 @@
   <connection id="30" name="Connection35" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="Connection36" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="32" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="34" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="35" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="36" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="37" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="357">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1261,6 +1266,12 @@
   <si>
     <t>B34  Prot E2E Integration test is both ../integration/mock &amp; ../integration/scenarios</t>
   </si>
+  <si>
+    <t xml:space="preserve">26min </t>
+  </si>
+  <si>
+    <t>Oct 28 2016</t>
+  </si>
 </sst>
 </file>
 
@@ -1894,7 +1905,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2202,6 +2213,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2399,7 +2413,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,7 +2457,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2487,7 +2501,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="31" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2838,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1034"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="F24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8576,13 +8594,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8619,9 +8637,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9203,20 +9221,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9679,13 +9697,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9722,9 +9740,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10306,20 +10324,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10514,13 +10532,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="155" t="s">
+      <c r="U25" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="157"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="158"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10533,9 +10551,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10929,13 +10947,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10972,9 +10990,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11564,20 +11582,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12100,13 +12118,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12143,9 +12161,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12746,20 +12764,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13304,13 +13322,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13347,9 +13365,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13960,20 +13978,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14510,13 +14528,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14553,9 +14571,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15166,20 +15184,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15716,13 +15734,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15759,9 +15777,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16372,20 +16390,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16922,13 +16940,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16965,9 +16983,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17578,20 +17596,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18131,13 +18149,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18174,9 +18192,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18790,20 +18808,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19280,13 +19298,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19323,9 +19341,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19939,20 +19957,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21094,13 +21112,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21137,9 +21155,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21753,20 +21771,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22856,20 +22874,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23952,20 +23970,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -25946,21 +25964,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26824,21 +26842,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27719,20 +27737,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29171,20 +29189,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29481,7 +29499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -30218,20 +30236,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30242,13 +30260,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="160" t="s">
+      <c r="O19" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="163"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31338,34 +31356,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="155" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="160" t="s">
+      <c r="Q19" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="163"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -32244,8 +32262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -33215,13 +33233,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="160" t="s">
+      <c r="Q22" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -33916,10 +33934,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T28" sqref="T28:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -33945,7 +33963,7 @@
     <col min="21" max="21" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45">
+    <row r="1" spans="1:22" ht="45">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -34001,7 +34019,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -34050,8 +34068,11 @@
         <f t="shared" ref="T2:T16" si="0">E2</f>
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15">
+      <c r="V2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -34106,8 +34127,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15">
+      <c r="V3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="19"/>
       <c r="B4" s="22" t="s">
         <v>329</v>
@@ -34162,8 +34186,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15">
+      <c r="V4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>128</v>
@@ -34216,8 +34243,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15">
+      <c r="V5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>114</v>
@@ -34270,8 +34300,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15">
+      <c r="V6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="19"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
@@ -34324,8 +34357,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15">
+      <c r="V7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>123</v>
@@ -34380,8 +34416,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15">
+      <c r="V8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
@@ -34437,7 +34476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
         <v>127</v>
@@ -34491,7 +34530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>292</v>
@@ -34541,7 +34580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:22" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>336</v>
@@ -34591,7 +34630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:22" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>126</v>
@@ -34639,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>131</v>
@@ -34691,7 +34730,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:22" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>125</v>
@@ -34743,7 +34782,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:22" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="22" t="s">
         <v>130</v>
@@ -34886,22 +34925,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34914,13 +34953,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="160" t="s">
+      <c r="Q22" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -35236,6 +35275,1356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" s="59" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="T1" s="59" t="str">
+        <f>E1</f>
+        <v>Int</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="154">
+        <v>591</v>
+      </c>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154">
+        <v>127</v>
+      </c>
+      <c r="F2" s="23">
+        <v>6330</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K2" s="154">
+        <v>0</v>
+      </c>
+      <c r="L2" s="154">
+        <v>0</v>
+      </c>
+      <c r="M2" s="154">
+        <v>2</v>
+      </c>
+      <c r="N2" s="154">
+        <v>0</v>
+      </c>
+      <c r="S2" s="59">
+        <f>C2-E2</f>
+        <v>464</v>
+      </c>
+      <c r="T2" s="59">
+        <f t="shared" ref="T2:T16" si="0">E2</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="154">
+        <v>194</v>
+      </c>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154">
+        <v>40</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K3" s="154">
+        <v>0</v>
+      </c>
+      <c r="L3" s="154">
+        <v>0</v>
+      </c>
+      <c r="M3" s="154">
+        <v>2</v>
+      </c>
+      <c r="N3" s="154">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3" s="59">
+        <f t="shared" ref="S3:S18" si="1">C3-E3</f>
+        <v>154</v>
+      </c>
+      <c r="T3" s="59">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="154">
+        <v>172</v>
+      </c>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154">
+        <v>43</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2233</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="24">
+        <v>42667</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K4" s="154">
+        <v>0</v>
+      </c>
+      <c r="L4" s="154">
+        <v>0</v>
+      </c>
+      <c r="M4" s="154">
+        <v>1</v>
+      </c>
+      <c r="N4" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4">
+        <v>153</v>
+      </c>
+      <c r="S4" s="59">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="T4" s="59">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="154">
+        <v>132</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154">
+        <v>871</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K5" s="154">
+        <v>0</v>
+      </c>
+      <c r="L5" s="154">
+        <v>0</v>
+      </c>
+      <c r="M5" s="154">
+        <v>1</v>
+      </c>
+      <c r="N5" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="59">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="154">
+        <v>114</v>
+      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="23">
+        <v>1638</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="24">
+        <v>42667</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="K6" s="154">
+        <v>0</v>
+      </c>
+      <c r="L6" s="154">
+        <v>0</v>
+      </c>
+      <c r="M6" s="154">
+        <v>2</v>
+      </c>
+      <c r="N6" s="154">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="59">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="T6" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="154">
+        <v>82</v>
+      </c>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154">
+        <v>677</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K7" s="154">
+        <v>0</v>
+      </c>
+      <c r="L7" s="154">
+        <v>0</v>
+      </c>
+      <c r="M7" s="154">
+        <v>1</v>
+      </c>
+      <c r="N7" s="154">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" s="59">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="T7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="154">
+        <v>69</v>
+      </c>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154">
+        <v>16</v>
+      </c>
+      <c r="F8" s="154">
+        <v>839</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="K8" s="154">
+        <v>0</v>
+      </c>
+      <c r="L8" s="154">
+        <v>0</v>
+      </c>
+      <c r="M8" s="154">
+        <v>2</v>
+      </c>
+      <c r="N8" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8" s="59">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="T8" s="59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="154">
+        <v>61</v>
+      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154">
+        <v>11</v>
+      </c>
+      <c r="F9" s="154">
+        <v>693</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="24">
+        <v>42661</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K9" s="154">
+        <v>0</v>
+      </c>
+      <c r="L9" s="154">
+        <v>0</v>
+      </c>
+      <c r="M9" s="154">
+        <v>0</v>
+      </c>
+      <c r="N9" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" s="59">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T9" s="59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="154">
+        <v>59</v>
+      </c>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154">
+        <v>344</v>
+      </c>
+      <c r="G10" s="154">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K10" s="154">
+        <v>0</v>
+      </c>
+      <c r="L10" s="154">
+        <v>0</v>
+      </c>
+      <c r="M10" s="154">
+        <v>0</v>
+      </c>
+      <c r="N10" s="154">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="59">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="154">
+        <v>44</v>
+      </c>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154">
+        <v>5</v>
+      </c>
+      <c r="F11" s="154">
+        <v>573</v>
+      </c>
+      <c r="G11" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K11" s="154">
+        <v>0</v>
+      </c>
+      <c r="L11" s="154">
+        <v>0</v>
+      </c>
+      <c r="M11" s="154">
+        <v>1</v>
+      </c>
+      <c r="N11" s="154">
+        <v>0</v>
+      </c>
+      <c r="S11" s="59">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="154">
+        <v>41</v>
+      </c>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154">
+        <v>4</v>
+      </c>
+      <c r="F12" s="154">
+        <v>567</v>
+      </c>
+      <c r="G12" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="24">
+        <v>42657</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="K12" s="154">
+        <v>0</v>
+      </c>
+      <c r="L12" s="154">
+        <v>0</v>
+      </c>
+      <c r="M12" s="154">
+        <v>1</v>
+      </c>
+      <c r="N12" s="154">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="154">
+        <v>36</v>
+      </c>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154">
+        <v>195</v>
+      </c>
+      <c r="G13" s="154">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J13" s="25">
+        <v>1</v>
+      </c>
+      <c r="K13" s="154">
+        <v>0</v>
+      </c>
+      <c r="L13" s="154">
+        <v>0</v>
+      </c>
+      <c r="M13" s="154">
+        <v>0</v>
+      </c>
+      <c r="N13" s="154">
+        <v>0</v>
+      </c>
+      <c r="S13" s="59">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="154">
+        <v>31</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154">
+        <v>378</v>
+      </c>
+      <c r="G14" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K14" s="154">
+        <v>0</v>
+      </c>
+      <c r="L14" s="154">
+        <v>0</v>
+      </c>
+      <c r="M14" s="154">
+        <v>1</v>
+      </c>
+      <c r="N14" s="154">
+        <v>0</v>
+      </c>
+      <c r="S14" s="59">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="T14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>SUM(S2:S16)</f>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="154">
+        <v>18</v>
+      </c>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154">
+        <v>172</v>
+      </c>
+      <c r="G15" s="154">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="154">
+        <v>0</v>
+      </c>
+      <c r="L15" s="154">
+        <v>0</v>
+      </c>
+      <c r="M15" s="154">
+        <v>0</v>
+      </c>
+      <c r="N15" s="154">
+        <v>0</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(T2:T18)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="154">
+        <v>13</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154">
+        <v>218</v>
+      </c>
+      <c r="G16" s="154">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>42660</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K16" s="154">
+        <v>0</v>
+      </c>
+      <c r="L16" s="154">
+        <v>0</v>
+      </c>
+      <c r="M16" s="154">
+        <v>0</v>
+      </c>
+      <c r="N16" s="154">
+        <v>0</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>SUM(S17:S18)</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31">
+        <f>C23</f>
+        <v>113</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23">
+        <v>3041</v>
+      </c>
+      <c r="G17" s="154">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>42578</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K17" s="154">
+        <v>0</v>
+      </c>
+      <c r="L17" s="154">
+        <v>0</v>
+      </c>
+      <c r="M17" s="154">
+        <v>0</v>
+      </c>
+      <c r="N17" s="154">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R3:R10)</f>
+        <v>219</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="1:21" ht="15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31">
+        <f>C25</f>
+        <v>491</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="23">
+        <v>10346</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="24">
+        <v>42663</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K18" s="154">
+        <v>0</v>
+      </c>
+      <c r="L18" s="154">
+        <v>0</v>
+      </c>
+      <c r="M18" s="154">
+        <v>0</v>
+      </c>
+      <c r="N18" s="154">
+        <v>0</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="T18" s="59"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1">
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1">
+      <c r="Q22" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>113</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="145" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="G24" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="146"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>491</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="133"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="135">
+        <f>R17</f>
+        <v>219</v>
+      </c>
+      <c r="U25" s="147">
+        <f>T25/$T$32</f>
+        <v>8.20839580209895E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="G26" s="58"/>
+      <c r="Q26" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="S26" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="135">
+        <f>C34</f>
+        <v>188</v>
+      </c>
+      <c r="U26" s="147">
+        <f t="shared" ref="U26:U30" si="2">T26/$T$32</f>
+        <v>7.0464767616191901E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" s="134"/>
+      <c r="T27" s="135">
+        <v>0</v>
+      </c>
+      <c r="U27" s="147"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" s="135">
+        <f>U14</f>
+        <v>1411</v>
+      </c>
+      <c r="U28" s="147">
+        <f t="shared" si="2"/>
+        <v>0.52886056971514239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="S29" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="135">
+        <f>U15</f>
+        <v>246</v>
+      </c>
+      <c r="U29" s="147">
+        <f t="shared" si="2"/>
+        <v>9.2203898050974509E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="T30" s="135">
+        <f>U16</f>
+        <v>604</v>
+      </c>
+      <c r="U30" s="147">
+        <f t="shared" si="2"/>
+        <v>0.22638680659670166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="147"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1">
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="140">
+        <f>SUM(T25:T30)</f>
+        <v>2668</v>
+      </c>
+      <c r="U32" s="148">
+        <f>SUM(U25:U31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="B33" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34">
+        <v>188</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="62"/>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="62"/>
+      <c r="Q41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="62"/>
+      <c r="Q42">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="Q43">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="Q44">
+        <v>52.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="F45">
+        <f>C5</f>
+        <v>132</v>
+      </c>
+      <c r="Q45">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="F46">
+        <f>C7</f>
+        <v>82</v>
+      </c>
+      <c r="Q46">
+        <f>Q41-SUM(Q42:Q45)</f>
+        <v>9.2099999999999937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="F47">
+        <f>C10</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="F48">
+        <f>C13</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49">
+        <f t="shared" ref="F49:F56" si="3">C14</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="Q22:U22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="F1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="G1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="H1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="I1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="J1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="K1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="L1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="M1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="N1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="svb-service-client"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="T5:T16 S5:S19 U15 U32" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
@@ -35759,20 +37148,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -35977,18 +37366,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="154"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="154"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -36622,20 +38011,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -37239,20 +38628,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -37862,20 +39251,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -38097,13 +39486,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -38140,9 +39529,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -38732,20 +40121,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -39526,20 +40915,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="62400" yWindow="260" windowWidth="31320" windowHeight="20160" tabRatio="559" firstSheet="19" activeTab="31"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="28060" windowHeight="15960" tabRatio="559" firstSheet="23" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="10.12" sheetId="43" r:id="rId30"/>
     <sheet name="10.18" sheetId="44" r:id="rId31"/>
     <sheet name="10.28" sheetId="45" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="46" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
@@ -67,7 +68,9 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="20">'Layout Chg'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="5">'S4'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="6">'S7'!$A$1:$L$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="32">Sheet1!$A$1:$P$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="23">'Unit&amp;Integration'!$A$1:$M$16</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput_1" localSheetId="32">Sheet1!$A$23:$L$43</definedName>
     <definedName name="MarkWebQueryTest" localSheetId="3">'S2'!$A$1:$L$15</definedName>
     <definedName name="MarkWebQueryTest_1" localSheetId="3">'S2'!$A$26:$L$40</definedName>
     <definedName name="MSN_MarkWebQueryTest" localSheetId="4">'S3'!$A$1:$L$16</definedName>
@@ -176,29 +179,35 @@
   <connection id="31" name="Connection36" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="Connection37" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="33" name="Connection38" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="34" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="34" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="35" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="37" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="36" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="38" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="37" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="39" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="359">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1272,6 +1281,12 @@
   <si>
     <t>Oct 28 2016</t>
   </si>
+  <si>
+    <t>21 results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d 1h </t>
+  </si>
 </sst>
 </file>
 
@@ -1905,7 +1920,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2216,6 +2231,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2501,11 +2522,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="35" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="31" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8594,13 +8623,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8637,9 +8666,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9221,20 +9250,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9697,13 +9726,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9740,9 +9769,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10324,20 +10353,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10532,13 +10561,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="156" t="s">
+      <c r="U25" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="157"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="158"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="159"/>
+      <c r="X25" s="159"/>
+      <c r="Y25" s="160"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10551,9 +10580,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10947,13 +10976,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10990,9 +11019,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11582,20 +11611,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12118,13 +12147,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12161,9 +12190,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12764,20 +12793,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13322,13 +13351,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13365,9 +13394,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13978,20 +14007,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14528,13 +14557,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14571,9 +14600,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15184,20 +15213,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15734,13 +15763,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15777,9 +15806,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16390,20 +16419,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16940,13 +16969,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16983,9 +17012,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17596,20 +17625,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18149,13 +18178,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18192,9 +18221,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18808,20 +18837,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19298,13 +19327,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19341,9 +19370,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19957,20 +19986,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21112,13 +21141,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21155,9 +21184,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21771,20 +21800,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22874,20 +22903,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23970,20 +23999,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="157" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -25964,21 +25993,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26842,21 +26871,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27737,20 +27766,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29189,20 +29218,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -29499,7 +29528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
@@ -30236,20 +30265,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30260,13 +30289,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="161" t="s">
+      <c r="O19" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="163"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="165"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31356,34 +31385,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="157" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="161" t="s">
+      <c r="Q19" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="163"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="165"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -32262,7 +32291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -33233,13 +33262,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="161" t="s">
+      <c r="Q22" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="165"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -33937,7 +33966,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28:T29"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -34925,22 +34954,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34953,13 +34982,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="161" t="s">
+      <c r="Q22" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="165"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -35279,8 +35308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -35403,11 +35432,11 @@
         <v>0</v>
       </c>
       <c r="S2" s="59">
-        <f>C2-E2</f>
+        <f t="shared" ref="S2:S18" si="0">C2-E2</f>
         <v>464</v>
       </c>
       <c r="T2" s="59">
-        <f t="shared" ref="T2:T16" si="0">E2</f>
+        <f t="shared" ref="T2:T16" si="1">E2</f>
         <v>127</v>
       </c>
     </row>
@@ -35457,11 +35486,11 @@
         <v>14</v>
       </c>
       <c r="S3" s="59">
-        <f t="shared" ref="S3:S18" si="1">C3-E3</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="T3" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -35511,11 +35540,11 @@
         <v>153</v>
       </c>
       <c r="S4" s="59">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="T4" s="59">
         <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="T4" s="59">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -35563,11 +35592,11 @@
         <v>3</v>
       </c>
       <c r="S5" s="59">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="T5" s="59">
         <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="T5" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35615,11 +35644,11 @@
         <v>4</v>
       </c>
       <c r="S6" s="59">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="T6" s="59">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="T6" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35667,11 +35696,11 @@
         <v>11</v>
       </c>
       <c r="S7" s="59">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="T7" s="59">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="T7" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35721,11 +35750,11 @@
         <v>27</v>
       </c>
       <c r="S8" s="59">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="T8" s="59">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="T8" s="59">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -35775,11 +35804,11 @@
         <v>7</v>
       </c>
       <c r="S9" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T9" s="59">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="T9" s="59">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -35827,11 +35856,11 @@
         <v>0</v>
       </c>
       <c r="S10" s="59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="T10" s="59">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="T10" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -35875,11 +35904,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="59">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="T11" s="59">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="T11" s="59">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -35923,11 +35952,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="59">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T12" s="59">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="T12" s="59">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -35969,11 +35998,11 @@
         <v>0</v>
       </c>
       <c r="S13" s="59">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T13" s="59">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="T13" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -36015,11 +36044,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="59">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T14" s="59">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="T14" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
@@ -36065,11 +36094,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T15" s="59">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="T15" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15">
@@ -36115,11 +36144,11 @@
         <v>0</v>
       </c>
       <c r="S16" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="59">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="T16" s="59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16">
@@ -36170,7 +36199,7 @@
         <v>219</v>
       </c>
       <c r="S17" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="T17" s="59"/>
@@ -36214,28 +36243,28 @@
         <v>0</v>
       </c>
       <c r="S18" s="59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>491</v>
       </c>
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="157" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -36248,13 +36277,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="161" t="s">
+      <c r="Q22" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="165"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -36561,7 +36590,7 @@
     </row>
     <row r="49" spans="6:6">
       <c r="F49">
-        <f t="shared" ref="F49:F56" si="3">C14</f>
+        <f t="shared" ref="F49:F51" si="3">C14</f>
         <v>31</v>
       </c>
     </row>
@@ -36615,8 +36644,1795 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="T5:T16 S5:S19 U15 U32" emptyCellReference="1"/>
+    <ignoredError sqref="T5:T16 S13:S19 U15 U32" emptyCellReference="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="60">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="155">
+        <v>591</v>
+      </c>
+      <c r="D2" s="155">
+        <v>590</v>
+      </c>
+      <c r="E2" s="155">
+        <f>IF(C2&gt;D2,C2-D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="155" t="str">
+        <f>IF(D2&gt;C2,D2-C2,"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="155"/>
+      <c r="H2" s="23">
+        <v>6330</v>
+      </c>
+      <c r="I2" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="24">
+        <v>42671</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="M2" s="155">
+        <v>0</v>
+      </c>
+      <c r="N2" s="155">
+        <v>0</v>
+      </c>
+      <c r="O2" s="155">
+        <v>2</v>
+      </c>
+      <c r="P2" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="155">
+        <v>194</v>
+      </c>
+      <c r="D3" s="155">
+        <v>214</v>
+      </c>
+      <c r="E3" s="155" t="str">
+        <f t="shared" ref="E3:E16" si="0">IF(C3&gt;D3,C3-D3,"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="155">
+        <f t="shared" ref="F3:F16" si="1">IF(D3&gt;C3,D3-C3,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="155"/>
+      <c r="H3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="I3" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="24">
+        <v>42671</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M3" s="155">
+        <v>0</v>
+      </c>
+      <c r="N3" s="155">
+        <v>0</v>
+      </c>
+      <c r="O3" s="155">
+        <v>2</v>
+      </c>
+      <c r="P3" s="155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="155">
+        <v>172</v>
+      </c>
+      <c r="D4" s="155">
+        <v>176</v>
+      </c>
+      <c r="E4" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" s="155">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="155"/>
+      <c r="H4" s="23">
+        <v>2233</v>
+      </c>
+      <c r="I4" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="24">
+        <v>42667</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M4" s="155">
+        <v>0</v>
+      </c>
+      <c r="N4" s="155">
+        <v>0</v>
+      </c>
+      <c r="O4" s="155">
+        <v>1</v>
+      </c>
+      <c r="P4" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="155">
+        <v>132</v>
+      </c>
+      <c r="D5" s="155">
+        <v>134</v>
+      </c>
+      <c r="E5" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" s="155">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155">
+        <v>871</v>
+      </c>
+      <c r="I5" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M5" s="155">
+        <v>0</v>
+      </c>
+      <c r="N5" s="155">
+        <v>0</v>
+      </c>
+      <c r="O5" s="155">
+        <v>1</v>
+      </c>
+      <c r="P5" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="155">
+        <v>114</v>
+      </c>
+      <c r="D6" s="155">
+        <v>114</v>
+      </c>
+      <c r="E6" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6" s="155"/>
+      <c r="H6" s="23">
+        <v>1638</v>
+      </c>
+      <c r="I6" s="155" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="24">
+        <v>42667</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="M6" s="155">
+        <v>0</v>
+      </c>
+      <c r="N6" s="155">
+        <v>0</v>
+      </c>
+      <c r="O6" s="155">
+        <v>2</v>
+      </c>
+      <c r="P6" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="155">
+        <v>82</v>
+      </c>
+      <c r="D7" s="155">
+        <v>84</v>
+      </c>
+      <c r="E7" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="155">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155">
+        <v>677</v>
+      </c>
+      <c r="I7" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="J7" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="M7" s="155">
+        <v>0</v>
+      </c>
+      <c r="N7" s="155">
+        <v>0</v>
+      </c>
+      <c r="O7" s="155">
+        <v>1</v>
+      </c>
+      <c r="P7" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="155">
+        <v>69</v>
+      </c>
+      <c r="D8" s="155">
+        <v>74</v>
+      </c>
+      <c r="E8" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="155">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155">
+        <v>839</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M8" s="155">
+        <v>0</v>
+      </c>
+      <c r="N8" s="155">
+        <v>0</v>
+      </c>
+      <c r="O8" s="155">
+        <v>2</v>
+      </c>
+      <c r="P8" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="155">
+        <v>61</v>
+      </c>
+      <c r="D9" s="155">
+        <v>70</v>
+      </c>
+      <c r="E9" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="155">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155">
+        <v>693</v>
+      </c>
+      <c r="I9" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="M9" s="155">
+        <v>0</v>
+      </c>
+      <c r="N9" s="155">
+        <v>0</v>
+      </c>
+      <c r="O9" s="155">
+        <v>0</v>
+      </c>
+      <c r="P9" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="155">
+        <v>59</v>
+      </c>
+      <c r="D10" s="155">
+        <v>60</v>
+      </c>
+      <c r="E10" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="155">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155">
+        <v>344</v>
+      </c>
+      <c r="I10" s="155">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="M10" s="155">
+        <v>0</v>
+      </c>
+      <c r="N10" s="155">
+        <v>0</v>
+      </c>
+      <c r="O10" s="155">
+        <v>0</v>
+      </c>
+      <c r="P10" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="155">
+        <v>44</v>
+      </c>
+      <c r="D11" s="155">
+        <v>35</v>
+      </c>
+      <c r="E11" s="155">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155">
+        <v>573</v>
+      </c>
+      <c r="I11" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="M11" s="155">
+        <v>0</v>
+      </c>
+      <c r="N11" s="155">
+        <v>0</v>
+      </c>
+      <c r="O11" s="155">
+        <v>1</v>
+      </c>
+      <c r="P11" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="155">
+        <v>41</v>
+      </c>
+      <c r="D12" s="155">
+        <v>45</v>
+      </c>
+      <c r="E12" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="155">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155">
+        <v>567</v>
+      </c>
+      <c r="I12" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="M12" s="155">
+        <v>0</v>
+      </c>
+      <c r="N12" s="155">
+        <v>0</v>
+      </c>
+      <c r="O12" s="155">
+        <v>1</v>
+      </c>
+      <c r="P12" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="155">
+        <v>36</v>
+      </c>
+      <c r="D13" s="155">
+        <v>36</v>
+      </c>
+      <c r="E13" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155">
+        <v>195</v>
+      </c>
+      <c r="I13" s="155">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L13" s="25">
+        <v>1</v>
+      </c>
+      <c r="M13" s="155">
+        <v>0</v>
+      </c>
+      <c r="N13" s="155">
+        <v>0</v>
+      </c>
+      <c r="O13" s="155">
+        <v>0</v>
+      </c>
+      <c r="P13" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="24">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="155">
+        <v>31</v>
+      </c>
+      <c r="D14" s="155">
+        <v>32</v>
+      </c>
+      <c r="E14" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="155">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155">
+        <v>378</v>
+      </c>
+      <c r="I14" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M14" s="155">
+        <v>0</v>
+      </c>
+      <c r="N14" s="155">
+        <v>0</v>
+      </c>
+      <c r="O14" s="155">
+        <v>1</v>
+      </c>
+      <c r="P14" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="155">
+        <v>18</v>
+      </c>
+      <c r="D15" s="155">
+        <v>21</v>
+      </c>
+      <c r="E15" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="155">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155">
+        <v>172</v>
+      </c>
+      <c r="I15" s="155">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="155">
+        <v>0</v>
+      </c>
+      <c r="N15" s="155">
+        <v>0</v>
+      </c>
+      <c r="O15" s="155">
+        <v>0</v>
+      </c>
+      <c r="P15" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="155">
+        <v>13</v>
+      </c>
+      <c r="D16" s="155">
+        <v>18</v>
+      </c>
+      <c r="E16" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="155">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155">
+        <v>218</v>
+      </c>
+      <c r="I16" s="155">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="M16" s="155">
+        <v>0</v>
+      </c>
+      <c r="N16" s="155">
+        <v>0</v>
+      </c>
+      <c r="O16" s="155">
+        <v>0</v>
+      </c>
+      <c r="P16" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="155" t="str">
+        <f t="shared" ref="E17:E18" si="2">IF(C17&gt;D17,C17-D17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="155" t="str">
+        <f t="shared" ref="F17:F18" si="3">IF(D17&gt;C17,D17-C17,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="23">
+        <v>3041</v>
+      </c>
+      <c r="I17" s="155">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>42578</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M17" s="155">
+        <v>0</v>
+      </c>
+      <c r="N17" s="155">
+        <v>0</v>
+      </c>
+      <c r="O17" s="155">
+        <v>0</v>
+      </c>
+      <c r="P17" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F18" s="155" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="23">
+        <v>10346</v>
+      </c>
+      <c r="I18" s="155" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="24">
+        <v>42663</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M18" s="155">
+        <v>0</v>
+      </c>
+      <c r="N18" s="155">
+        <v>0</v>
+      </c>
+      <c r="O18" s="155">
+        <v>0</v>
+      </c>
+      <c r="P18" s="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="157" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+    </row>
+    <row r="23" spans="1:16" ht="60">
+      <c r="A23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="156">
+        <v>591</v>
+      </c>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="23">
+        <v>6330</v>
+      </c>
+      <c r="I24" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="24">
+        <v>42671</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="M24" s="156">
+        <v>0</v>
+      </c>
+      <c r="N24" s="156">
+        <v>0</v>
+      </c>
+      <c r="O24" s="156">
+        <v>2</v>
+      </c>
+      <c r="P24" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="156">
+        <v>418</v>
+      </c>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="23">
+        <v>3872</v>
+      </c>
+      <c r="I25" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L25" s="25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="M25" s="156">
+        <v>0</v>
+      </c>
+      <c r="N25" s="156">
+        <v>0</v>
+      </c>
+      <c r="O25" s="156">
+        <v>2</v>
+      </c>
+      <c r="P25" s="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="24">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="156">
+        <v>194</v>
+      </c>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="23">
+        <v>1760</v>
+      </c>
+      <c r="I26" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="24">
+        <v>42671</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M26" s="156">
+        <v>0</v>
+      </c>
+      <c r="N26" s="156">
+        <v>0</v>
+      </c>
+      <c r="O26" s="156">
+        <v>2</v>
+      </c>
+      <c r="P26" s="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="156">
+        <v>172</v>
+      </c>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="23">
+        <v>2233</v>
+      </c>
+      <c r="I27" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="24">
+        <v>42667</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M27" s="156">
+        <v>0</v>
+      </c>
+      <c r="N27" s="156">
+        <v>0</v>
+      </c>
+      <c r="O27" s="156">
+        <v>1</v>
+      </c>
+      <c r="P27" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="156">
+        <v>132</v>
+      </c>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156">
+        <v>871</v>
+      </c>
+      <c r="I28" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M28" s="156">
+        <v>0</v>
+      </c>
+      <c r="N28" s="156">
+        <v>0</v>
+      </c>
+      <c r="O28" s="156">
+        <v>1</v>
+      </c>
+      <c r="P28" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="156">
+        <v>114</v>
+      </c>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="23">
+        <v>1638</v>
+      </c>
+      <c r="I29" s="156" t="s">
+        <v>355</v>
+      </c>
+      <c r="J29" s="24">
+        <v>42667</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="M29" s="156">
+        <v>0</v>
+      </c>
+      <c r="N29" s="156">
+        <v>0</v>
+      </c>
+      <c r="O29" s="156">
+        <v>2</v>
+      </c>
+      <c r="P29" s="156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="156">
+        <v>82</v>
+      </c>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156">
+        <v>677</v>
+      </c>
+      <c r="I30" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="J30" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L30" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="M30" s="156">
+        <v>0</v>
+      </c>
+      <c r="N30" s="156">
+        <v>0</v>
+      </c>
+      <c r="O30" s="156">
+        <v>1</v>
+      </c>
+      <c r="P30" s="156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="156">
+        <v>69</v>
+      </c>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156">
+        <v>839</v>
+      </c>
+      <c r="I31" s="156" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L31" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="M31" s="156">
+        <v>0</v>
+      </c>
+      <c r="N31" s="156">
+        <v>0</v>
+      </c>
+      <c r="O31" s="156">
+        <v>2</v>
+      </c>
+      <c r="P31" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="156">
+        <v>61</v>
+      </c>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156">
+        <v>693</v>
+      </c>
+      <c r="I32" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="24">
+        <v>42675</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L32" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="M32" s="156">
+        <v>0</v>
+      </c>
+      <c r="N32" s="156">
+        <v>0</v>
+      </c>
+      <c r="O32" s="156">
+        <v>0</v>
+      </c>
+      <c r="P32" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="156">
+        <v>59</v>
+      </c>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156">
+        <v>344</v>
+      </c>
+      <c r="I33" s="156">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K33" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="M33" s="156">
+        <v>0</v>
+      </c>
+      <c r="N33" s="156">
+        <v>0</v>
+      </c>
+      <c r="O33" s="156">
+        <v>0</v>
+      </c>
+      <c r="P33" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="156">
+        <v>45</v>
+      </c>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="23">
+        <v>1216</v>
+      </c>
+      <c r="I34" s="156" t="s">
+        <v>358</v>
+      </c>
+      <c r="J34" s="24">
+        <v>42667</v>
+      </c>
+      <c r="K34" s="25">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L34" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="M34" s="156">
+        <v>0</v>
+      </c>
+      <c r="N34" s="156">
+        <v>0</v>
+      </c>
+      <c r="O34" s="156">
+        <v>29</v>
+      </c>
+      <c r="P34" s="156">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="156">
+        <v>44</v>
+      </c>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156">
+        <v>573</v>
+      </c>
+      <c r="I35" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K35" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L35" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="M35" s="156">
+        <v>0</v>
+      </c>
+      <c r="N35" s="156">
+        <v>0</v>
+      </c>
+      <c r="O35" s="156">
+        <v>1</v>
+      </c>
+      <c r="P35" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="156">
+        <v>41</v>
+      </c>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156">
+        <v>567</v>
+      </c>
+      <c r="I36" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="24">
+        <v>42657</v>
+      </c>
+      <c r="K36" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L36" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="M36" s="156">
+        <v>0</v>
+      </c>
+      <c r="N36" s="156">
+        <v>0</v>
+      </c>
+      <c r="O36" s="156">
+        <v>1</v>
+      </c>
+      <c r="P36" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="156">
+        <v>36</v>
+      </c>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156">
+        <v>195</v>
+      </c>
+      <c r="I37" s="156">
+        <v>0</v>
+      </c>
+      <c r="J37" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K37" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L37" s="25">
+        <v>1</v>
+      </c>
+      <c r="M37" s="156">
+        <v>0</v>
+      </c>
+      <c r="N37" s="156">
+        <v>0</v>
+      </c>
+      <c r="O37" s="156">
+        <v>0</v>
+      </c>
+      <c r="P37" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="24">
+      <c r="A38" s="20"/>
+      <c r="B38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="156">
+        <v>31</v>
+      </c>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156">
+        <v>378</v>
+      </c>
+      <c r="I38" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L38" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M38" s="156">
+        <v>0</v>
+      </c>
+      <c r="N38" s="156">
+        <v>0</v>
+      </c>
+      <c r="O38" s="156">
+        <v>1</v>
+      </c>
+      <c r="P38" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="156">
+        <v>18</v>
+      </c>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156">
+        <v>172</v>
+      </c>
+      <c r="I39" s="156">
+        <v>0</v>
+      </c>
+      <c r="J39" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="L39" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="M39" s="156">
+        <v>0</v>
+      </c>
+      <c r="N39" s="156">
+        <v>0</v>
+      </c>
+      <c r="O39" s="156">
+        <v>0</v>
+      </c>
+      <c r="P39" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="156">
+        <v>13</v>
+      </c>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156">
+        <v>218</v>
+      </c>
+      <c r="I40" s="156">
+        <v>0</v>
+      </c>
+      <c r="J40" s="24">
+        <v>42660</v>
+      </c>
+      <c r="K40" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L40" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="M40" s="156">
+        <v>0</v>
+      </c>
+      <c r="N40" s="156">
+        <v>0</v>
+      </c>
+      <c r="O40" s="156">
+        <v>0</v>
+      </c>
+      <c r="P40" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="23">
+        <v>3041</v>
+      </c>
+      <c r="I41" s="156">
+        <v>0</v>
+      </c>
+      <c r="J41" s="24">
+        <v>42578</v>
+      </c>
+      <c r="K41" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L41" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="M41" s="156">
+        <v>0</v>
+      </c>
+      <c r="N41" s="156">
+        <v>0</v>
+      </c>
+      <c r="O41" s="156">
+        <v>0</v>
+      </c>
+      <c r="P41" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="23">
+        <v>10346</v>
+      </c>
+      <c r="I42" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" s="24">
+        <v>42663</v>
+      </c>
+      <c r="K42" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="L42" s="25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M42" s="156">
+        <v>0</v>
+      </c>
+      <c r="N42" s="156">
+        <v>0</v>
+      </c>
+      <c r="O42" s="156">
+        <v>0</v>
+      </c>
+      <c r="P42" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="157" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A43:L43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="H1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="I1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="J1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="K1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="L1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="M1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="N1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="O1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="P1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="svb-service-client"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment"/>
+    <hyperlink ref="A23" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B23" tooltip="Name" display="Name"/>
+    <hyperlink ref="C23" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="H23" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="I23" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="J23" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="K23" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="L23" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="M23" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="N23" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="O23" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="P23" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B24" r:id="rId18" tooltip="svb-service-payments"/>
+    <hyperlink ref="B25" r:id="rId19" tooltip="svb-services-billpay"/>
+    <hyperlink ref="B26" r:id="rId20" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B27" r:id="rId21" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B28" r:id="rId22" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B29" r:id="rId23" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B30" r:id="rId24" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B31" r:id="rId25" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B32" r:id="rId26" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B33" r:id="rId27" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B34" r:id="rId28" tooltip="svb-services-clientonboard"/>
+    <hyperlink ref="B35" r:id="rId29" tooltip="svb-service-client"/>
+    <hyperlink ref="B36" r:id="rId30" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B37" r:id="rId31" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B38" r:id="rId32" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B39" r:id="rId33" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B40" r:id="rId34" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B41" r:id="rId35" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B42" r:id="rId36" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37148,20 +38964,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -37366,18 +39182,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="155"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38011,20 +39827,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -38628,20 +40444,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -39251,20 +41067,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -39486,13 +41302,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="156" t="s">
+      <c r="U4" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="160"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -39529,9 +41345,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -40121,20 +41937,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -40915,20 +42731,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="28060" windowHeight="15960" tabRatio="559" firstSheet="23" activeTab="32"/>
+    <workbookView xWindow="31000" yWindow="1420" windowWidth="23980" windowHeight="13160" tabRatio="559" firstSheet="23" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,14 @@
     <sheet name="10.18" sheetId="44" r:id="rId31"/>
     <sheet name="10.28" sheetId="45" r:id="rId32"/>
     <sheet name="Sheet1" sheetId="46" r:id="rId33"/>
+    <sheet name="11.14" sheetId="47" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="30">'10.18'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="31">'10.28'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="33">'11.14'!$A$1:$L$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">'3.25'!$A$1:$L$16</definedName>
@@ -185,29 +187,32 @@
   <connection id="33" name="Connection38" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="34" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="Connection39" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="35" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="35" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="36" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="37" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="37" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="38" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="38" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="39" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="39" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="40" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="360">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1287,6 +1292,9 @@
   <si>
     <t xml:space="preserve">2d 1h </t>
   </si>
+  <si>
+    <t xml:space="preserve">1h 15min </t>
+  </si>
 </sst>
 </file>
 
@@ -1920,7 +1928,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2237,6 +2245,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2434,7 +2445,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2478,7 +2489,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,7 +2533,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="35" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="36" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2530,11 +2541,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="34" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8623,13 +8638,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8666,9 +8681,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9250,20 +9265,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9726,13 +9741,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9769,9 +9784,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10353,20 +10368,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10561,13 +10576,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="158" t="s">
+      <c r="U25" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="160"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="161"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10580,9 +10595,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10976,13 +10991,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11019,9 +11034,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11611,20 +11626,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12147,13 +12162,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12190,9 +12205,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12793,20 +12808,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13351,13 +13366,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13394,9 +13409,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14007,20 +14022,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14557,13 +14572,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14600,9 +14615,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15213,20 +15228,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15763,13 +15778,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15806,9 +15821,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16419,20 +16434,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16969,13 +16984,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17012,9 +17027,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17625,20 +17640,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18178,13 +18193,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18221,9 +18236,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18837,20 +18852,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19327,13 +19342,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19370,9 +19385,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19986,20 +20001,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21141,13 +21156,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21184,9 +21199,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21800,20 +21815,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22903,20 +22918,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -23999,20 +24014,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -25993,21 +26008,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26871,21 +26886,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27766,20 +27781,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29218,20 +29233,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -30265,20 +30280,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="158" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30289,13 +30304,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="163" t="s">
+      <c r="O19" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="166"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31385,34 +31400,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="163" t="s">
+      <c r="Q19" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="165"/>
+      <c r="R19" s="165"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="166"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -33262,13 +33277,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="163" t="s">
+      <c r="Q22" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -34954,22 +34969,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="158" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34982,13 +34997,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="163" t="s">
+      <c r="Q22" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -36249,22 +36264,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -36277,13 +36292,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="163" t="s">
+      <c r="Q22" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -36658,7 +36673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -37532,24 +37547,24 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="158" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
     </row>
     <row r="23" spans="1:16" ht="60">
       <c r="A23" s="18" t="s">
@@ -38350,20 +38365,20 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="158" t="s">
         <v>357</v>
       </c>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38441,6 +38456,733 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="157">
+        <v>491</v>
+      </c>
+      <c r="D2" s="23">
+        <v>5271</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.92</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I2" s="157">
+        <v>0</v>
+      </c>
+      <c r="J2" s="157">
+        <v>0</v>
+      </c>
+      <c r="K2" s="157">
+        <v>2</v>
+      </c>
+      <c r="L2" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="157">
+        <v>210</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1879</v>
+      </c>
+      <c r="E3" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42682</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I3" s="157">
+        <v>0</v>
+      </c>
+      <c r="J3" s="157">
+        <v>0</v>
+      </c>
+      <c r="K3" s="157">
+        <v>2</v>
+      </c>
+      <c r="L3" s="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="157">
+        <v>181</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2270</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I4" s="157">
+        <v>0</v>
+      </c>
+      <c r="J4" s="157">
+        <v>0</v>
+      </c>
+      <c r="K4" s="157">
+        <v>1</v>
+      </c>
+      <c r="L4" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="157">
+        <v>133</v>
+      </c>
+      <c r="D5" s="157">
+        <v>892</v>
+      </c>
+      <c r="E5" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="I5" s="157">
+        <v>0</v>
+      </c>
+      <c r="J5" s="157">
+        <v>0</v>
+      </c>
+      <c r="K5" s="157">
+        <v>1</v>
+      </c>
+      <c r="L5" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="157">
+        <v>114</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1638</v>
+      </c>
+      <c r="E6" s="157" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42676</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I6" s="157">
+        <v>0</v>
+      </c>
+      <c r="J6" s="157">
+        <v>0</v>
+      </c>
+      <c r="K6" s="157">
+        <v>2</v>
+      </c>
+      <c r="L6" s="157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="157">
+        <v>83</v>
+      </c>
+      <c r="D7" s="157">
+        <v>677</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I7" s="157">
+        <v>0</v>
+      </c>
+      <c r="J7" s="157">
+        <v>0</v>
+      </c>
+      <c r="K7" s="157">
+        <v>1</v>
+      </c>
+      <c r="L7" s="157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="157">
+        <v>69</v>
+      </c>
+      <c r="D8" s="157">
+        <v>839</v>
+      </c>
+      <c r="E8" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42657</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I8" s="157">
+        <v>0</v>
+      </c>
+      <c r="J8" s="157">
+        <v>0</v>
+      </c>
+      <c r="K8" s="157">
+        <v>2</v>
+      </c>
+      <c r="L8" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="157">
+        <v>61</v>
+      </c>
+      <c r="D9" s="157">
+        <v>693</v>
+      </c>
+      <c r="E9" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I9" s="157">
+        <v>0</v>
+      </c>
+      <c r="J9" s="157">
+        <v>0</v>
+      </c>
+      <c r="K9" s="157">
+        <v>0</v>
+      </c>
+      <c r="L9" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="157">
+        <v>59</v>
+      </c>
+      <c r="D10" s="157">
+        <v>344</v>
+      </c>
+      <c r="E10" s="157">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I10" s="157">
+        <v>0</v>
+      </c>
+      <c r="J10" s="157">
+        <v>0</v>
+      </c>
+      <c r="K10" s="157">
+        <v>0</v>
+      </c>
+      <c r="L10" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="157">
+        <v>44</v>
+      </c>
+      <c r="D11" s="157">
+        <v>573</v>
+      </c>
+      <c r="E11" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42676</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I11" s="157">
+        <v>0</v>
+      </c>
+      <c r="J11" s="157">
+        <v>0</v>
+      </c>
+      <c r="K11" s="157">
+        <v>1</v>
+      </c>
+      <c r="L11" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="157">
+        <v>41</v>
+      </c>
+      <c r="D12" s="157">
+        <v>567</v>
+      </c>
+      <c r="E12" s="157" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42676</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="157">
+        <v>0</v>
+      </c>
+      <c r="J12" s="157">
+        <v>0</v>
+      </c>
+      <c r="K12" s="157">
+        <v>1</v>
+      </c>
+      <c r="L12" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="157">
+        <v>36</v>
+      </c>
+      <c r="D13" s="157">
+        <v>195</v>
+      </c>
+      <c r="E13" s="157">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1</v>
+      </c>
+      <c r="I13" s="157">
+        <v>0</v>
+      </c>
+      <c r="J13" s="157">
+        <v>0</v>
+      </c>
+      <c r="K13" s="157">
+        <v>0</v>
+      </c>
+      <c r="L13" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="157">
+        <v>31</v>
+      </c>
+      <c r="D14" s="157">
+        <v>378</v>
+      </c>
+      <c r="E14" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I14" s="157">
+        <v>0</v>
+      </c>
+      <c r="J14" s="157">
+        <v>0</v>
+      </c>
+      <c r="K14" s="157">
+        <v>1</v>
+      </c>
+      <c r="L14" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="157">
+        <v>20</v>
+      </c>
+      <c r="D15" s="157">
+        <v>179</v>
+      </c>
+      <c r="E15" s="157">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I15" s="157">
+        <v>0</v>
+      </c>
+      <c r="J15" s="157">
+        <v>0</v>
+      </c>
+      <c r="K15" s="157">
+        <v>0</v>
+      </c>
+      <c r="L15" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="157">
+        <v>13</v>
+      </c>
+      <c r="D16" s="157">
+        <v>218</v>
+      </c>
+      <c r="E16" s="157">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I16" s="157">
+        <v>0</v>
+      </c>
+      <c r="J16" s="157">
+        <v>0</v>
+      </c>
+      <c r="K16" s="157">
+        <v>0</v>
+      </c>
+      <c r="L16" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E17" s="157">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I17" s="157">
+        <v>0</v>
+      </c>
+      <c r="J17" s="157">
+        <v>0</v>
+      </c>
+      <c r="K17" s="157">
+        <v>0</v>
+      </c>
+      <c r="L17" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="23">
+        <v>10687</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="24">
+        <v>42684</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="157">
+        <v>0</v>
+      </c>
+      <c r="J18" s="157">
+        <v>0</v>
+      </c>
+      <c r="K18" s="157">
+        <v>2</v>
+      </c>
+      <c r="L18" s="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:L19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="svb-service-client"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="svb-service-bankinfo"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
@@ -38964,20 +39706,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -39182,18 +39924,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -39827,20 +40569,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -40444,20 +41186,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -41067,20 +41809,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -41302,13 +42044,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="158" t="s">
+      <c r="U4" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -41345,9 +42087,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -41937,20 +42679,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -42731,20 +43473,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="1420" windowWidth="23980" windowHeight="13160" tabRatio="559" firstSheet="23" activeTab="33"/>
+    <workbookView xWindow="-580" yWindow="120" windowWidth="27380" windowHeight="16440" tabRatio="498" firstSheet="24" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="30">'10.18'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="31">'10.28'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
-    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="33">'11.14'!$A$1:$L$19</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="33">'11.14'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">'3.25'!$A$1:$L$16</definedName>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="367">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1295,6 +1295,27 @@
   <si>
     <t xml:space="preserve">1h 15min </t>
   </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Auto E2E</t>
+  </si>
+  <si>
+    <t>Service AIP</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>2016-20</t>
+  </si>
+  <si>
+    <t>2016-21</t>
+  </si>
+  <si>
+    <t>2016-22</t>
+  </si>
 </sst>
 </file>
 
@@ -1850,7 +1871,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1927,8 +1948,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2248,6 +2271,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2268,8 +2294,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="78">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2344,12 +2374,717 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.28'!$Q$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10.28'!$R$52:$V$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.28'!$R$56:$V$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1216.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1231.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1714.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.28'!$Q$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service AIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10.28'!$R$52:$V$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.28'!$R$55:$V$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.28'!$Q$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto E2E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10.28'!$R$52:$V$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.28'!$R$54:$V$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10.28'!$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10.28'!$R$52:$V$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10.28'!$R$53:$V$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2144292520"/>
+        <c:axId val="2144087144"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="2144292520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144087144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2144087144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144292520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0891374023452548"/>
+          <c:y val="0.0277777777777778"/>
+          <c:w val="0.729413840393238"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$52:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1216.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1231.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1714.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Service AIP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$51:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto E2E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$50:$W$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16-Mar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16-Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$49:$W$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2146090136"/>
+        <c:axId val="2146333752"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="2146090136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146333752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2146333752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146090136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.855586605469453"/>
+          <c:y val="0.314047098279382"/>
+          <c:w val="0.125214262600737"/>
+          <c:h val="0.371905803441236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2444,8 +3179,78 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2489,7 +3294,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2541,11 +3346,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8638,13 +9443,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -8681,9 +9486,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -9265,20 +10070,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -9741,13 +10546,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -9784,9 +10589,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10368,20 +11173,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10576,13 +11381,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="159" t="s">
+      <c r="U25" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="162"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -10595,9 +11400,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -10991,13 +11796,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11034,9 +11839,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11626,20 +12431,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12162,13 +12967,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -12205,9 +13010,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12808,20 +13613,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -13366,13 +14171,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -13409,9 +14214,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14022,20 +14827,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14572,13 +15377,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -14615,9 +15420,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -15228,20 +16033,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15778,13 +16583,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15821,9 +16626,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16434,20 +17239,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16984,13 +17789,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17027,9 +17832,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17640,20 +18445,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18193,13 +18998,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -18236,9 +19041,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18852,20 +19657,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -19342,13 +20147,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19385,9 +20190,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -20001,20 +20806,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21156,13 +21961,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -21199,9 +22004,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -21815,20 +22620,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -22918,20 +23723,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -24014,20 +24819,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -26008,21 +26813,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26886,21 +27691,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -27781,20 +28586,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -29233,20 +30038,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -30280,20 +31085,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="159" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -30304,13 +31109,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="164" t="s">
+      <c r="O19" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="165"/>
-      <c r="S19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="167"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -31400,34 +32205,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="159" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="164" t="s">
+      <c r="Q19" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="165"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="166"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="167"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -32306,7 +33111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -33277,13 +34082,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="164" t="s">
+      <c r="Q22" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -33980,7 +34785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -34969,22 +35774,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="159" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34997,13 +35802,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="164" t="s">
+      <c r="Q22" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -35321,10 +36126,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="N43" workbookViewId="0">
+      <selection activeCell="Y64" sqref="Y64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -36264,22 +37069,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="159" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -36292,13 +37097,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="164" t="s">
+      <c r="Q22" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -36603,22 +37408,120 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:23">
       <c r="F49">
         <f t="shared" ref="F49:F51" si="3">C14</f>
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:23">
       <c r="F50">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:23">
       <c r="F51">
         <f t="shared" si="3"/>
         <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="6:23">
+      <c r="R52" s="169">
+        <v>42445</v>
+      </c>
+      <c r="S52" s="169">
+        <v>42476</v>
+      </c>
+      <c r="T52" s="169">
+        <v>42629</v>
+      </c>
+      <c r="U52" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="V52" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="W52" s="62"/>
+    </row>
+    <row r="53" spans="6:23">
+      <c r="Q53" t="s">
+        <v>360</v>
+      </c>
+      <c r="R53">
+        <v>163</v>
+      </c>
+      <c r="S53">
+        <v>163</v>
+      </c>
+      <c r="T53">
+        <v>218</v>
+      </c>
+      <c r="U53">
+        <v>219</v>
+      </c>
+      <c r="V53">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="6:23">
+      <c r="Q54" t="s">
+        <v>361</v>
+      </c>
+      <c r="R54">
+        <v>117</v>
+      </c>
+      <c r="S54">
+        <v>139</v>
+      </c>
+      <c r="T54">
+        <v>134</v>
+      </c>
+      <c r="U54">
+        <v>176</v>
+      </c>
+      <c r="V54">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="6:23">
+      <c r="Q55" t="s">
+        <v>362</v>
+      </c>
+      <c r="R55">
+        <v>218</v>
+      </c>
+      <c r="S55">
+        <v>223</v>
+      </c>
+      <c r="T55">
+        <v>232</v>
+      </c>
+      <c r="U55">
+        <v>239</v>
+      </c>
+      <c r="V55">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="6:23">
+      <c r="Q56" t="s">
+        <v>363</v>
+      </c>
+      <c r="R56">
+        <v>1216</v>
+      </c>
+      <c r="S56">
+        <v>1231</v>
+      </c>
+      <c r="T56">
+        <v>1714</v>
+      </c>
+      <c r="U56">
+        <v>2010</v>
+      </c>
+      <c r="V56">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -36658,9 +37561,11 @@
     <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="T5:T16 S13:S19 U15 U32" emptyCellReference="1"/>
   </ignoredErrors>
+  <drawing r:id="rId18"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37547,24 +38452,24 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="159" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
     </row>
     <row r="23" spans="1:16" ht="60">
       <c r="A23" s="18" t="s">
@@ -38365,20 +39270,20 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="159" t="s">
         <v>357</v>
       </c>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -38458,28 +39363,37 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="168"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45">
+    <row r="1" spans="1:21" ht="45">
       <c r="A1" s="18" t="s">
         <v>103</v>
       </c>
@@ -38489,35 +39403,51 @@
       <c r="C1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15">
+      <c r="Q1" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" s="152" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" s="59" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">UTs </v>
+      </c>
+      <c r="T1" s="59">
+        <f>E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="22" t="s">
         <v>119</v>
@@ -38525,35 +39455,47 @@
       <c r="C2" s="157">
         <v>491</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="158"/>
+      <c r="E2" s="158">
+        <v>81</v>
+      </c>
+      <c r="F2" s="23">
         <v>5271</v>
       </c>
-      <c r="E2" s="157" t="s">
+      <c r="G2" s="157" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="24">
+      <c r="H2" s="24">
         <v>42684</v>
       </c>
-      <c r="G2" s="25">
+      <c r="I2" s="25">
         <v>0.92</v>
       </c>
-      <c r="H2" s="25">
+      <c r="J2" s="25">
         <v>0.91300000000000003</v>
       </c>
-      <c r="I2" s="157">
-        <v>0</v>
-      </c>
-      <c r="J2" s="157">
-        <v>0</v>
-      </c>
       <c r="K2" s="157">
+        <v>0</v>
+      </c>
+      <c r="L2" s="157">
+        <v>0</v>
+      </c>
+      <c r="M2" s="157">
         <v>2</v>
       </c>
-      <c r="L2" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+      <c r="N2" s="157">
+        <v>0</v>
+      </c>
+      <c r="S2" s="59">
+        <f t="shared" ref="S2:S18" si="0">C2-E2</f>
+        <v>410</v>
+      </c>
+      <c r="T2" s="59">
+        <f t="shared" ref="T2:T16" si="1">E2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -38561,35 +39503,53 @@
       <c r="C3" s="157">
         <v>210</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="158"/>
+      <c r="E3" s="158">
+        <v>40</v>
+      </c>
+      <c r="F3" s="23">
         <v>1879</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="G3" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="24">
+      <c r="H3" s="24">
         <v>42682</v>
       </c>
-      <c r="G3" s="25">
+      <c r="I3" s="25">
         <v>0.93700000000000006</v>
       </c>
-      <c r="H3" s="25">
+      <c r="J3" s="25">
         <v>0.92600000000000005</v>
       </c>
-      <c r="I3" s="157">
-        <v>0</v>
-      </c>
-      <c r="J3" s="157">
-        <v>0</v>
-      </c>
       <c r="K3" s="157">
+        <v>0</v>
+      </c>
+      <c r="L3" s="157">
+        <v>0</v>
+      </c>
+      <c r="M3" s="157">
         <v>2</v>
       </c>
-      <c r="L3" s="157">
+      <c r="N3" s="157">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15">
+      <c r="Q3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3" s="59">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="T3" s="59">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="19"/>
       <c r="B4" s="22" t="s">
         <v>329</v>
@@ -38597,35 +39557,53 @@
       <c r="C4" s="157">
         <v>181</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158">
+        <v>43</v>
+      </c>
+      <c r="F4" s="23">
         <v>2270</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="G4" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="24">
+      <c r="H4" s="24">
         <v>42684</v>
       </c>
-      <c r="G4" s="25">
+      <c r="I4" s="25">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H4" s="25">
+      <c r="J4" s="25">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I4" s="157">
-        <v>0</v>
-      </c>
-      <c r="J4" s="157">
-        <v>0</v>
-      </c>
       <c r="K4" s="157">
+        <v>0</v>
+      </c>
+      <c r="L4" s="157">
+        <v>0</v>
+      </c>
+      <c r="M4" s="157">
         <v>1</v>
       </c>
-      <c r="L4" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
+      <c r="N4" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4">
+        <v>153</v>
+      </c>
+      <c r="S4" s="59">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="T4" s="59">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="22" t="s">
         <v>128</v>
@@ -38633,35 +39611,51 @@
       <c r="C5" s="157">
         <v>133</v>
       </c>
-      <c r="D5" s="157">
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="157">
         <v>892</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="G5" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="24">
+      <c r="H5" s="24">
         <v>42684</v>
       </c>
-      <c r="G5" s="25">
+      <c r="I5" s="25">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H5" s="25">
+      <c r="J5" s="25">
         <v>0.91</v>
       </c>
-      <c r="I5" s="157">
-        <v>0</v>
-      </c>
-      <c r="J5" s="157">
-        <v>0</v>
-      </c>
       <c r="K5" s="157">
+        <v>0</v>
+      </c>
+      <c r="L5" s="157">
+        <v>0</v>
+      </c>
+      <c r="M5" s="157">
         <v>1</v>
       </c>
-      <c r="L5" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="N5" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="59">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="T5" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
         <v>114</v>
@@ -38669,35 +39663,51 @@
       <c r="C6" s="157">
         <v>114</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="23">
         <v>1638</v>
       </c>
-      <c r="E6" s="157" t="s">
+      <c r="G6" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="24">
+      <c r="H6" s="24">
         <v>42676</v>
       </c>
-      <c r="G6" s="25">
+      <c r="I6" s="25">
         <v>0.95699999999999996</v>
       </c>
-      <c r="H6" s="25">
+      <c r="J6" s="25">
         <v>0.94199999999999995</v>
       </c>
-      <c r="I6" s="157">
-        <v>0</v>
-      </c>
-      <c r="J6" s="157">
-        <v>0</v>
-      </c>
       <c r="K6" s="157">
+        <v>0</v>
+      </c>
+      <c r="L6" s="157">
+        <v>0</v>
+      </c>
+      <c r="M6" s="157">
         <v>2</v>
       </c>
-      <c r="L6" s="157">
+      <c r="N6" s="157">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="Q6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="59">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="T6" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="19"/>
       <c r="B7" s="22" t="s">
         <v>133</v>
@@ -38705,35 +39715,51 @@
       <c r="C7" s="157">
         <v>83</v>
       </c>
-      <c r="D7" s="157">
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="157">
         <v>677</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="G7" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="24">
+      <c r="H7" s="24">
         <v>42684</v>
       </c>
-      <c r="G7" s="25">
+      <c r="I7" s="25">
         <v>0.96699999999999997</v>
       </c>
-      <c r="H7" s="25">
+      <c r="J7" s="25">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I7" s="157">
-        <v>0</v>
-      </c>
-      <c r="J7" s="157">
-        <v>0</v>
-      </c>
       <c r="K7" s="157">
+        <v>0</v>
+      </c>
+      <c r="L7" s="157">
+        <v>0</v>
+      </c>
+      <c r="M7" s="157">
         <v>1</v>
       </c>
-      <c r="L7" s="157">
+      <c r="N7" s="157">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="Q7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7" s="59">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="T7" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
         <v>123</v>
@@ -38741,35 +39767,53 @@
       <c r="C8" s="157">
         <v>69</v>
       </c>
-      <c r="D8" s="157">
+      <c r="D8" s="158"/>
+      <c r="E8" s="158">
+        <v>16</v>
+      </c>
+      <c r="F8" s="157">
         <v>839</v>
       </c>
-      <c r="E8" s="157" t="s">
+      <c r="G8" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="24">
+      <c r="H8" s="24">
         <v>42657</v>
       </c>
-      <c r="G8" s="25">
+      <c r="I8" s="25">
         <v>0.90300000000000002</v>
       </c>
-      <c r="H8" s="25">
+      <c r="J8" s="25">
         <v>0.82399999999999995</v>
       </c>
-      <c r="I8" s="157">
-        <v>0</v>
-      </c>
-      <c r="J8" s="157">
-        <v>0</v>
-      </c>
       <c r="K8" s="157">
+        <v>0</v>
+      </c>
+      <c r="L8" s="157">
+        <v>0</v>
+      </c>
+      <c r="M8" s="157">
         <v>2</v>
       </c>
-      <c r="L8" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="N8" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8" s="59">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="T8" s="59">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="22" t="s">
         <v>139</v>
@@ -38777,35 +39821,53 @@
       <c r="C9" s="157">
         <v>61</v>
       </c>
-      <c r="D9" s="157">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158">
+        <v>11</v>
+      </c>
+      <c r="F9" s="157">
         <v>693</v>
       </c>
-      <c r="E9" s="157" t="s">
+      <c r="G9" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="24">
+      <c r="H9" s="24">
         <v>42684</v>
       </c>
-      <c r="G9" s="25">
+      <c r="I9" s="25">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H9" s="25">
+      <c r="J9" s="25">
         <v>0.94399999999999995</v>
       </c>
-      <c r="I9" s="157">
-        <v>0</v>
-      </c>
-      <c r="J9" s="157">
-        <v>0</v>
-      </c>
       <c r="K9" s="157">
         <v>0</v>
       </c>
       <c r="L9" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="M9" s="157">
+        <v>0</v>
+      </c>
+      <c r="N9" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="T9" s="59">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="22" t="s">
         <v>127</v>
@@ -38813,35 +39875,51 @@
       <c r="C10" s="157">
         <v>59</v>
       </c>
-      <c r="D10" s="157">
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="157">
         <v>344</v>
       </c>
-      <c r="E10" s="157">
-        <v>0</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="G10" s="157">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
         <v>42684</v>
       </c>
-      <c r="G10" s="25">
+      <c r="I10" s="25">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H10" s="25">
+      <c r="J10" s="25">
         <v>0.97699999999999998</v>
       </c>
-      <c r="I10" s="157">
-        <v>0</v>
-      </c>
-      <c r="J10" s="157">
-        <v>0</v>
-      </c>
       <c r="K10" s="157">
         <v>0</v>
       </c>
       <c r="L10" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="M10" s="157">
+        <v>0</v>
+      </c>
+      <c r="N10" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="20"/>
       <c r="B11" s="22" t="s">
         <v>292</v>
@@ -38849,35 +39927,47 @@
       <c r="C11" s="157">
         <v>44</v>
       </c>
-      <c r="D11" s="157">
+      <c r="D11" s="158"/>
+      <c r="E11" s="158">
+        <v>5</v>
+      </c>
+      <c r="F11" s="157">
         <v>573</v>
       </c>
-      <c r="E11" s="157" t="s">
+      <c r="G11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="24">
+      <c r="H11" s="24">
         <v>42676</v>
       </c>
-      <c r="G11" s="25">
+      <c r="I11" s="25">
         <v>0.86099999999999999</v>
       </c>
-      <c r="H11" s="25">
+      <c r="J11" s="25">
         <v>0.86399999999999999</v>
       </c>
-      <c r="I11" s="157">
-        <v>0</v>
-      </c>
-      <c r="J11" s="157">
-        <v>0</v>
-      </c>
       <c r="K11" s="157">
+        <v>0</v>
+      </c>
+      <c r="L11" s="157">
+        <v>0</v>
+      </c>
+      <c r="M11" s="157">
         <v>1</v>
       </c>
-      <c r="L11" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="N11" s="157">
+        <v>0</v>
+      </c>
+      <c r="S11" s="59">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="22" t="s">
         <v>336</v>
@@ -38885,35 +39975,47 @@
       <c r="C12" s="157">
         <v>41</v>
       </c>
-      <c r="D12" s="157">
+      <c r="D12" s="158"/>
+      <c r="E12" s="158">
+        <v>4</v>
+      </c>
+      <c r="F12" s="157">
         <v>567</v>
       </c>
-      <c r="E12" s="157" t="s">
+      <c r="G12" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="24">
+      <c r="H12" s="24">
         <v>42676</v>
       </c>
-      <c r="G12" s="25">
+      <c r="I12" s="25">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H12" s="25">
+      <c r="J12" s="25">
         <v>0.85</v>
       </c>
-      <c r="I12" s="157">
-        <v>0</v>
-      </c>
-      <c r="J12" s="157">
-        <v>0</v>
-      </c>
       <c r="K12" s="157">
+        <v>0</v>
+      </c>
+      <c r="L12" s="157">
+        <v>0</v>
+      </c>
+      <c r="M12" s="157">
         <v>1</v>
       </c>
-      <c r="L12" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="N12" s="157">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="22" t="s">
         <v>126</v>
@@ -38921,35 +40023,45 @@
       <c r="C13" s="157">
         <v>36</v>
       </c>
-      <c r="D13" s="157">
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="157">
         <v>195</v>
       </c>
-      <c r="E13" s="157">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="G13" s="157">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
         <v>42684</v>
       </c>
-      <c r="G13" s="25">
+      <c r="I13" s="25">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H13" s="25">
+      <c r="J13" s="25">
         <v>1</v>
       </c>
-      <c r="I13" s="157">
-        <v>0</v>
-      </c>
-      <c r="J13" s="157">
-        <v>0</v>
-      </c>
       <c r="K13" s="157">
         <v>0</v>
       </c>
       <c r="L13" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="M13" s="157">
+        <v>0</v>
+      </c>
+      <c r="N13" s="157">
+        <v>0</v>
+      </c>
+      <c r="S13" s="59">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="22" t="s">
         <v>131</v>
@@ -38957,35 +40069,49 @@
       <c r="C14" s="157">
         <v>31</v>
       </c>
-      <c r="D14" s="157">
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="157">
         <v>378</v>
       </c>
-      <c r="E14" s="157" t="s">
+      <c r="G14" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="24">
+      <c r="H14" s="24">
         <v>42684</v>
       </c>
-      <c r="G14" s="25">
+      <c r="I14" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H14" s="25">
+      <c r="J14" s="25">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I14" s="157">
-        <v>0</v>
-      </c>
-      <c r="J14" s="157">
-        <v>0</v>
-      </c>
       <c r="K14" s="157">
+        <v>0</v>
+      </c>
+      <c r="L14" s="157">
+        <v>0</v>
+      </c>
+      <c r="M14" s="157">
         <v>1</v>
       </c>
-      <c r="L14" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
+      <c r="N14" s="157">
+        <v>0</v>
+      </c>
+      <c r="S14" s="59">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T14" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>SUM(S2:S16)</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="22" t="s">
         <v>125</v>
@@ -38993,35 +40119,49 @@
       <c r="C15" s="157">
         <v>20</v>
       </c>
-      <c r="D15" s="157">
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="157">
         <v>179</v>
       </c>
-      <c r="E15" s="157">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="G15" s="157">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
         <v>42684</v>
       </c>
-      <c r="G15" s="25">
+      <c r="I15" s="25">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H15" s="25">
+      <c r="J15" s="25">
         <v>0.91700000000000004</v>
       </c>
-      <c r="I15" s="157">
-        <v>0</v>
-      </c>
-      <c r="J15" s="157">
-        <v>0</v>
-      </c>
       <c r="K15" s="157">
         <v>0</v>
       </c>
       <c r="L15" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
+      <c r="M15" s="157">
+        <v>0</v>
+      </c>
+      <c r="N15" s="157">
+        <v>0</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(T2:T18)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="22" t="s">
         <v>130</v>
@@ -39029,133 +40169,598 @@
       <c r="C16" s="157">
         <v>13</v>
       </c>
-      <c r="D16" s="157">
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="157">
         <v>218</v>
       </c>
-      <c r="E16" s="157">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="G16" s="157">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
         <v>42684</v>
       </c>
-      <c r="G16" s="25">
+      <c r="I16" s="25">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H16" s="25">
+      <c r="J16" s="25">
         <v>0.92900000000000005</v>
       </c>
-      <c r="I16" s="157">
-        <v>0</v>
-      </c>
-      <c r="J16" s="157">
-        <v>0</v>
-      </c>
       <c r="K16" s="157">
         <v>0</v>
       </c>
       <c r="L16" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
+      <c r="M16" s="157">
+        <v>0</v>
+      </c>
+      <c r="N16" s="157">
+        <v>0</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>SUM(S17:S18)</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="23">
+      <c r="C17" s="31">
+        <v>231</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23">
         <v>3041</v>
       </c>
-      <c r="E17" s="157">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="G17" s="157">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>42578</v>
       </c>
-      <c r="G17" s="25">
+      <c r="I17" s="25">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H17" s="25">
+      <c r="J17" s="25">
         <v>0.81599999999999995</v>
       </c>
-      <c r="I17" s="157">
-        <v>0</v>
-      </c>
-      <c r="J17" s="157">
-        <v>0</v>
-      </c>
       <c r="K17" s="157">
         <v>0</v>
       </c>
       <c r="L17" s="157">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
+      <c r="M17" s="157">
+        <v>0</v>
+      </c>
+      <c r="N17" s="157">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>SUM(R3:R10)</f>
+        <v>223</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="1:24" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="23">
+      <c r="C18" s="31">
+        <v>514</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="23">
         <v>10687</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="G18" s="157" t="s">
         <v>359</v>
       </c>
-      <c r="F18" s="24">
+      <c r="H18" s="24">
         <v>42684</v>
       </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="157">
-        <v>0</v>
-      </c>
-      <c r="J18" s="157">
-        <v>0</v>
-      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31"/>
       <c r="K18" s="157">
+        <v>0</v>
+      </c>
+      <c r="L18" s="157">
+        <v>0</v>
+      </c>
+      <c r="M18" s="157">
         <v>2</v>
       </c>
-      <c r="L18" s="157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="158" t="s">
+      <c r="N18" s="157">
+        <v>0</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="T18" s="59"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="159" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1">
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1">
+      <c r="Q22" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="167"/>
+      <c r="W22">
+        <v>223</v>
+      </c>
+      <c r="X22" s="168">
+        <f>W22/W$26</f>
+        <v>8.0885019949220163E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23">
+        <v>113</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="145" t="s">
+        <v>356</v>
+      </c>
+      <c r="W23">
+        <v>203</v>
+      </c>
+      <c r="X23" s="168">
+        <f t="shared" ref="X23:X26" si="2">W23/W$26</f>
+        <v>7.3630758070366342E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="I24" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="146"/>
+      <c r="W24">
+        <v>200</v>
+      </c>
+      <c r="X24" s="168">
+        <f t="shared" si="2"/>
+        <v>7.2542618788538266E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>491</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="133"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="135">
+        <f>R17</f>
+        <v>223</v>
+      </c>
+      <c r="U25" s="147">
+        <f>T25/$T$32</f>
+        <v>8.0885019949220163E-2</v>
+      </c>
+      <c r="W25">
+        <v>2131</v>
+      </c>
+      <c r="X25" s="168">
+        <f t="shared" si="2"/>
+        <v>0.77294160319187522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="I26" s="58"/>
+      <c r="Q26" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="S26" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="T26" s="135">
+        <f>C34</f>
+        <v>203</v>
+      </c>
+      <c r="U26" s="147">
+        <f t="shared" ref="U26:U30" si="3">T26/$T$32</f>
+        <v>7.3630758070366342E-2</v>
+      </c>
+      <c r="W26">
+        <f>SUM(W22:W25)</f>
+        <v>2757</v>
+      </c>
+      <c r="X26" s="168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" s="134"/>
+      <c r="T27" s="135">
+        <f>U15</f>
+        <v>200</v>
+      </c>
+      <c r="U27" s="147">
+        <f t="shared" si="3"/>
+        <v>7.2542618788538266E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" s="135">
+        <f>U14</f>
+        <v>1386</v>
+      </c>
+      <c r="U28" s="147">
+        <f t="shared" si="3"/>
+        <v>0.50272034820457023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133" t="s">
+        <v>331</v>
+      </c>
+      <c r="S29" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="135">
+        <v>0</v>
+      </c>
+      <c r="U29" s="147">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="T30" s="135">
+        <f>U16</f>
+        <v>745</v>
+      </c>
+      <c r="U30" s="147">
+        <f t="shared" si="3"/>
+        <v>0.27022125498730504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="147"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1">
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="140">
+        <f>SUM(T25:T30)</f>
+        <v>2757</v>
+      </c>
+      <c r="U32" s="148">
+        <f>SUM(U25:U31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="B33" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34">
+        <v>203</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="62"/>
+      <c r="B38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="62"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="R48" s="169">
+        <v>42445</v>
+      </c>
+      <c r="S48" s="169">
+        <v>42476</v>
+      </c>
+      <c r="T48" s="169">
+        <v>42629</v>
+      </c>
+      <c r="U48" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="V48" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="W48" s="62" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="17:23">
+      <c r="Q49" t="s">
+        <v>360</v>
+      </c>
+      <c r="R49">
+        <v>163</v>
+      </c>
+      <c r="S49">
+        <v>163</v>
+      </c>
+      <c r="T49">
+        <v>218</v>
+      </c>
+      <c r="U49">
+        <v>219</v>
+      </c>
+      <c r="V49">
+        <v>220</v>
+      </c>
+      <c r="W49">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="17:23">
+      <c r="Q50" t="s">
+        <v>361</v>
+      </c>
+      <c r="R50">
+        <v>117</v>
+      </c>
+      <c r="S50">
+        <v>139</v>
+      </c>
+      <c r="T50">
+        <v>134</v>
+      </c>
+      <c r="U50">
+        <v>176</v>
+      </c>
+      <c r="V50">
+        <v>188</v>
+      </c>
+      <c r="W50">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="17:23">
+      <c r="Q51" t="s">
+        <v>362</v>
+      </c>
+      <c r="R51">
+        <v>218</v>
+      </c>
+      <c r="S51">
+        <v>223</v>
+      </c>
+      <c r="T51">
+        <v>232</v>
+      </c>
+      <c r="U51">
+        <v>239</v>
+      </c>
+      <c r="V51">
+        <v>246</v>
+      </c>
+      <c r="W51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="17:23">
+      <c r="Q52" t="s">
+        <v>363</v>
+      </c>
+      <c r="R52">
+        <v>1216</v>
+      </c>
+      <c r="S52">
+        <v>1231</v>
+      </c>
+      <c r="T52">
+        <v>1714</v>
+      </c>
+      <c r="U52">
+        <v>2010</v>
+      </c>
+      <c r="V52">
+        <v>2015</v>
+      </c>
+      <c r="W52">
+        <v>2131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:L19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="Q22:U22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
     <hyperlink ref="B1" tooltip="Name" display="Name"/>
     <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
-    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
-    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
-    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
-    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
-    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
-    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
-    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
-    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
-    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="F1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="G1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="H1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="I1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="J1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="K1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="L1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="M1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="N1" tooltip="Minor issues" display="Minor issues"/>
     <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
     <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
     <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
@@ -39175,6 +40780,11 @@
     <hyperlink ref="B18" r:id="rId17" tooltip="svb-web-payment"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="S5:U16 S18:U18 S17:T17" emptyCellReference="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId18"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -39706,20 +41316,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -39924,18 +41534,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="158"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -40569,20 +42179,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -41186,20 +42796,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -41809,20 +43419,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -42044,13 +43654,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -42087,9 +43697,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="162"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -42679,20 +44289,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -43473,20 +45083,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-580" yWindow="120" windowWidth="27380" windowHeight="16440" tabRatio="498" firstSheet="24" activeTab="33"/>
+    <workbookView xWindow="31140" yWindow="-660" windowWidth="28800" windowHeight="15060" tabRatio="498" firstSheet="26" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="10.28" sheetId="45" r:id="rId32"/>
     <sheet name="Sheet1" sheetId="46" r:id="rId33"/>
     <sheet name="11.14" sheetId="47" r:id="rId34"/>
+    <sheet name="11.28" sheetId="48" r:id="rId35"/>
   </sheets>
   <definedNames>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="29">'10.12'!$A$1:$N$18</definedName>
@@ -48,6 +49,7 @@
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="31">'10.28'!$A$1:$N$19</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="28">'10.3'!$A$1:$N$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="33">'11.14'!$A$1:$N$19</definedName>
+    <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="34">'11.28'!$A$1:$L$18</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="7">'3.18'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="8">'3.18 ++'!$A$1:$L$16</definedName>
     <definedName name="MarkSonarQubeMuranoTestOutput" localSheetId="9">'3.25'!$A$1:$L$16</definedName>
@@ -193,26 +195,29 @@
   <connection id="35" name="Connection4" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/index/12800?metric=tests/profiles/changelog?key=xml-murano-services-xml-profile-81269&amp;since=2015-09-02T19%3A11%3A38%2B0000&amp;to=2016-01-14T22%3A14%3A37%2B0000" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="36" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="Connection40" type="4" refreshedVersion="0" background="1" saveData="1">
+    <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=8" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="37" name="Connection5" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="37" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="38" name="Connection6" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="38" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="39" name="Connection7" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="39" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="40" name="Connection8" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-msonaq1.dev.svbank.com:9000/dashboard/?did=5" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="40" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
+  <connection id="41" name="Connection9" type="4" refreshedVersion="0" background="1" saveData="1">
     <webPr url="http://sal-dvs-mjenk01.dev.svbank.com:8080/job/T2%20web-payment-test-master/lastBuild/consoleText" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="370">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1316,6 +1321,15 @@
   <si>
     <t>2016-22</t>
   </si>
+  <si>
+    <t xml:space="preserve">45min </t>
+  </si>
+  <si>
+    <t>2016 - 23</t>
+  </si>
+  <si>
+    <t>2016 - 24</t>
+  </si>
 </sst>
 </file>
 
@@ -1871,7 +1885,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1950,8 +1964,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2274,6 +2289,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2294,12 +2321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2376,6 +2399,7 @@
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2660,11 +2684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2144292520"/>
-        <c:axId val="2144087144"/>
+        <c:axId val="2120112232"/>
+        <c:axId val="2120115352"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2144292520"/>
+        <c:axId val="2120112232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144087144"/>
+        <c:crossAx val="2120115352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2681,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144087144"/>
+        <c:axId val="2120115352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,14 +2716,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144292520"/>
+        <c:crossAx val="2120112232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2760,9 +2783,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:f>'11.14'!$R$48:$Y$48</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16-Mar</c:v>
                 </c:pt>
@@ -2781,15 +2804,21 @@
                 <c:pt idx="5">
                   <c:v>2016-22</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11.14'!$R$52:$W$52</c:f>
+              <c:f>'11.14'!$R$52:$Y$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1216.0</c:v>
                 </c:pt>
@@ -2807,6 +2836,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2131.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2152.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,9 +2863,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:f>'11.14'!$R$48:$Y$48</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16-Mar</c:v>
                 </c:pt>
@@ -2849,15 +2884,21 @@
                 <c:pt idx="5">
                   <c:v>2016-22</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11.14'!$R$51:$W$51</c:f>
+              <c:f>'11.14'!$R$51:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>218.0</c:v>
                 </c:pt>
@@ -2875,6 +2916,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2896,9 +2943,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:f>'11.14'!$R$48:$Y$48</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16-Mar</c:v>
                 </c:pt>
@@ -2917,15 +2964,21 @@
                 <c:pt idx="5">
                   <c:v>2016-22</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11.14'!$R$50:$W$50</c:f>
+              <c:f>'11.14'!$R$50:$Y$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>117.0</c:v>
                 </c:pt>
@@ -2943,6 +2996,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,9 +3023,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'11.14'!$R$48:$W$48</c:f>
+              <c:f>'11.14'!$R$48:$Y$48</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16-Mar</c:v>
                 </c:pt>
@@ -2985,15 +3044,21 @@
                 <c:pt idx="5">
                   <c:v>2016-22</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 - 23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 - 24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'11.14'!$R$49:$W$49</c:f>
+              <c:f>'11.14'!$R$49:$Y$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>163.0</c:v>
                 </c:pt>
@@ -3012,6 +3077,12 @@
                 <c:pt idx="5">
                   <c:v>223.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3024,11 +3095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146090136"/>
-        <c:axId val="2146333752"/>
+        <c:axId val="2121287096"/>
+        <c:axId val="2121290216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2146090136"/>
+        <c:axId val="2121287096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146333752"/>
+        <c:crossAx val="2121290216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3045,7 +3116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146333752"/>
+        <c:axId val="2121290216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146090136"/>
+        <c:crossAx val="2121287096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3219,15 +3290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3250,7 +3321,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3294,7 +3365,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3338,7 +3409,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="36" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MSN_MarkWebQueryTest" headers="0" connectionId="37" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3346,15 +3417,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="34" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="36" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9443,13 +9518,13 @@
       <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -9486,9 +9561,9 @@
       <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -10070,20 +10145,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -10546,13 +10621,13 @@
       <c r="L4" s="36">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -10589,9 +10664,9 @@
       <c r="L5" s="36">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -11173,20 +11248,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>12</v>
       </c>
@@ -11381,13 +11456,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="U25" s="160" t="s">
+      <c r="U25" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V25" s="161"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="161"/>
-      <c r="Y25" s="162"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="167"/>
+      <c r="Y25" s="168"/>
     </row>
     <row r="26" spans="2:25">
       <c r="N26" s="14">
@@ -11400,9 +11475,9 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
+      <c r="U26" s="169"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
       <c r="X26" s="37" t="s">
         <v>165</v>
       </c>
@@ -11796,13 +11871,13 @@
       <c r="L4" s="63">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -11839,9 +11914,9 @@
       <c r="L5" s="63">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -12431,20 +12506,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -12967,13 +13042,13 @@
       <c r="L4" s="65">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -13010,9 +13085,9 @@
       <c r="L5" s="65">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -13613,20 +13688,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -14171,13 +14246,13 @@
       <c r="L4" s="66">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1">
       <c r="A5" s="20"/>
@@ -14214,9 +14289,9 @@
       <c r="L5" s="66">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -14827,20 +14902,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -15377,13 +15452,13 @@
       <c r="L4" s="68">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -15420,9 +15495,9 @@
       <c r="L5" s="68">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -16033,20 +16108,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -16583,13 +16658,13 @@
       <c r="L4" s="67">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -16626,9 +16701,9 @@
       <c r="L5" s="67">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -17239,20 +17314,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -17789,13 +17864,13 @@
       <c r="L4" s="69">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -17832,9 +17907,9 @@
       <c r="L5" s="69">
         <v>1</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -18445,20 +18520,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>14</v>
       </c>
@@ -18998,13 +19073,13 @@
       <c r="L4" s="70">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -19041,9 +19116,9 @@
       <c r="L5" s="70">
         <v>1</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -19657,20 +19732,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -20147,13 +20222,13 @@
       <c r="L4" s="71">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -20190,9 +20265,9 @@
       <c r="L5" s="71">
         <v>1</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -20806,20 +20881,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -21961,13 +22036,13 @@
       <c r="L4" s="73">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="17" customHeight="1">
       <c r="A5" s="20"/>
@@ -22004,9 +22079,9 @@
       <c r="L5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -22620,20 +22695,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14" t="s">
         <v>263</v>
       </c>
@@ -23723,20 +23798,20 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -24819,20 +24894,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="165" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
       <c r="N15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -26813,21 +26888,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27691,21 +27766,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -28586,20 +28661,20 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="19"/>
@@ -30038,20 +30113,20 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="O16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -31085,20 +31160,20 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="165" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="B18" t="s">
@@ -31109,13 +31184,13 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="O19" s="165" t="s">
+      <c r="O19" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="167"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="173"/>
     </row>
     <row r="20" spans="1:19" ht="17" customHeight="1">
       <c r="O20" s="124"/>
@@ -32205,34 +32280,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="165" t="s">
+      <c r="Q19" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="167"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="173"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -34082,13 +34157,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="167"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="173"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -35774,22 +35849,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -35802,13 +35877,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="167"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="173"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -37069,22 +37144,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
     </row>
     <row r="20" spans="1:21">
       <c r="B20" t="s">
@@ -37097,13 +37172,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1">
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="167"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="173"/>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
@@ -37427,13 +37502,13 @@
       </c>
     </row>
     <row r="52" spans="6:23">
-      <c r="R52" s="169">
+      <c r="R52" s="161">
         <v>42445</v>
       </c>
-      <c r="S52" s="169">
+      <c r="S52" s="161">
         <v>42476</v>
       </c>
-      <c r="T52" s="169">
+      <c r="T52" s="161">
         <v>42629</v>
       </c>
       <c r="U52" s="62" t="s">
@@ -38452,24 +38527,24 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
     </row>
     <row r="23" spans="1:16" ht="60">
       <c r="A23" s="18" t="s">
@@ -39270,20 +39345,20 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="159" t="s">
+      <c r="A43" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="159"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -39363,10 +39438,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -39390,7 +39465,8 @@
     <col min="19" max="19" width="22.33203125" customWidth="1"/>
     <col min="20" max="20" width="19.1640625" customWidth="1"/>
     <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="168"/>
+    <col min="24" max="24" width="10.83203125" style="160"/>
+    <col min="25" max="25" width="10.83203125" style="163"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45">
@@ -40300,22 +40376,22 @@
       <c r="T18" s="59"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
     </row>
     <row r="20" spans="1:24">
       <c r="B20" t="s">
@@ -40328,19 +40404,19 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1">
-      <c r="Q22" s="165" t="s">
+      <c r="Q22" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="167"/>
-      <c r="W22">
-        <v>223</v>
-      </c>
-      <c r="X22" s="168">
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="173"/>
+      <c r="W22" s="163">
+        <v>224</v>
+      </c>
+      <c r="X22" s="160">
         <f>W22/W$26</f>
-        <v>8.0885019949220163E-2</v>
+        <v>8.1247733043162865E-2</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -40365,12 +40441,12 @@
       <c r="U23" s="145" t="s">
         <v>356</v>
       </c>
-      <c r="W23">
-        <v>203</v>
-      </c>
-      <c r="X23" s="168">
+      <c r="W23" s="163">
+        <v>201</v>
+      </c>
+      <c r="X23" s="160">
         <f t="shared" ref="X23:X26" si="2">W23/W$26</f>
-        <v>7.3630758070366342E-2</v>
+        <v>7.2905331882480953E-2</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -40384,12 +40460,12 @@
         <v>2</v>
       </c>
       <c r="U24" s="146"/>
-      <c r="W24">
-        <v>200</v>
-      </c>
-      <c r="X24" s="168">
+      <c r="W24" s="163">
+        <v>193</v>
+      </c>
+      <c r="X24" s="160">
         <f t="shared" si="2"/>
-        <v>7.2542618788538266E-2</v>
+        <v>7.0003627130939425E-2</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -40418,12 +40494,12 @@
         <f>T25/$T$32</f>
         <v>8.0885019949220163E-2</v>
       </c>
-      <c r="W25">
-        <v>2131</v>
-      </c>
-      <c r="X25" s="168">
+      <c r="W25" s="163">
+        <v>2139</v>
+      </c>
+      <c r="X25" s="160">
         <f t="shared" si="2"/>
-        <v>0.77294160319187522</v>
+        <v>0.77584330794341672</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -40449,7 +40525,7 @@
         <f>SUM(W22:W25)</f>
         <v>2757</v>
       </c>
-      <c r="X26" s="168">
+      <c r="X26" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -40555,7 +40631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:25">
       <c r="B33" s="122" t="s">
         <v>276</v>
       </c>
@@ -40576,7 +40652,7 @@
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:25">
       <c r="B34" t="s">
         <v>339</v>
       </c>
@@ -40590,12 +40666,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:25">
       <c r="A36" s="62" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:25">
       <c r="A37" s="62" t="s">
         <v>343</v>
       </c>
@@ -40603,13 +40679,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:25">
       <c r="A38" s="62"/>
       <c r="B38" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:25">
       <c r="A39" s="62" t="s">
         <v>344</v>
       </c>
@@ -40617,7 +40693,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:25">
       <c r="A40" s="62" t="s">
         <v>346</v>
       </c>
@@ -40625,20 +40701,20 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:25">
       <c r="A41" s="62"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:25">
       <c r="A42" s="62"/>
     </row>
-    <row r="48" spans="1:23">
-      <c r="R48" s="169">
+    <row r="48" spans="1:25">
+      <c r="R48" s="161">
         <v>42445</v>
       </c>
-      <c r="S48" s="169">
+      <c r="S48" s="161">
         <v>42476</v>
       </c>
-      <c r="T48" s="169">
+      <c r="T48" s="161">
         <v>42629</v>
       </c>
       <c r="U48" s="62" t="s">
@@ -40650,8 +40726,14 @@
       <c r="W48" s="62" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="49" spans="17:23">
+      <c r="X48" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y48" s="164" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="17:25">
       <c r="Q49" t="s">
         <v>360</v>
       </c>
@@ -40673,8 +40755,14 @@
       <c r="W49">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="17:23">
+      <c r="X49">
+        <v>223</v>
+      </c>
+      <c r="Y49" s="163">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="17:25">
       <c r="Q50" t="s">
         <v>361</v>
       </c>
@@ -40696,8 +40784,14 @@
       <c r="W50">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" spans="17:23">
+      <c r="X50">
+        <v>203</v>
+      </c>
+      <c r="Y50" s="163">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="17:25">
       <c r="Q51" t="s">
         <v>362</v>
       </c>
@@ -40719,8 +40813,14 @@
       <c r="W51">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="17:23">
+      <c r="X51">
+        <v>196</v>
+      </c>
+      <c r="Y51" s="163">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="17:25">
       <c r="Q52" t="s">
         <v>363</v>
       </c>
@@ -40742,6 +40842,15 @@
       <c r="W52">
         <v>2131</v>
       </c>
+      <c r="X52">
+        <v>2152</v>
+      </c>
+      <c r="Y52" s="163">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="56" spans="17:25">
+      <c r="X56" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -40793,6 +40902,707 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="159">
+        <v>491</v>
+      </c>
+      <c r="D2" s="23">
+        <v>5271</v>
+      </c>
+      <c r="E2" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0.92</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I2" s="159">
+        <v>0</v>
+      </c>
+      <c r="J2" s="159">
+        <v>0</v>
+      </c>
+      <c r="K2" s="159">
+        <v>2</v>
+      </c>
+      <c r="L2" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="159">
+        <v>194</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1760</v>
+      </c>
+      <c r="E3" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42695</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I3" s="159">
+        <v>0</v>
+      </c>
+      <c r="J3" s="159">
+        <v>0</v>
+      </c>
+      <c r="K3" s="159">
+        <v>2</v>
+      </c>
+      <c r="L3" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="159">
+        <v>181</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2270</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="24">
+        <v>42699</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I4" s="159">
+        <v>0</v>
+      </c>
+      <c r="J4" s="159">
+        <v>0</v>
+      </c>
+      <c r="K4" s="159">
+        <v>2</v>
+      </c>
+      <c r="L4" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="159">
+        <v>135</v>
+      </c>
+      <c r="D5" s="159">
+        <v>904</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I5" s="159">
+        <v>0</v>
+      </c>
+      <c r="J5" s="159">
+        <v>0</v>
+      </c>
+      <c r="K5" s="159">
+        <v>1</v>
+      </c>
+      <c r="L5" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="159">
+        <v>114</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1638</v>
+      </c>
+      <c r="E6" s="159" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42676</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I6" s="159">
+        <v>0</v>
+      </c>
+      <c r="J6" s="159">
+        <v>0</v>
+      </c>
+      <c r="K6" s="159">
+        <v>2</v>
+      </c>
+      <c r="L6" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="159">
+        <v>83</v>
+      </c>
+      <c r="D7" s="159">
+        <v>680</v>
+      </c>
+      <c r="E7" s="159" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I7" s="159">
+        <v>0</v>
+      </c>
+      <c r="J7" s="159">
+        <v>0</v>
+      </c>
+      <c r="K7" s="159">
+        <v>1</v>
+      </c>
+      <c r="L7" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="159">
+        <v>69</v>
+      </c>
+      <c r="D8" s="159">
+        <v>839</v>
+      </c>
+      <c r="E8" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="24">
+        <v>42657</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I8" s="159">
+        <v>0</v>
+      </c>
+      <c r="J8" s="159">
+        <v>0</v>
+      </c>
+      <c r="K8" s="159">
+        <v>2</v>
+      </c>
+      <c r="L8" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="159">
+        <v>61</v>
+      </c>
+      <c r="D9" s="159">
+        <v>693</v>
+      </c>
+      <c r="E9" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I9" s="159">
+        <v>0</v>
+      </c>
+      <c r="J9" s="159">
+        <v>0</v>
+      </c>
+      <c r="K9" s="159">
+        <v>0</v>
+      </c>
+      <c r="L9" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="159">
+        <v>59</v>
+      </c>
+      <c r="D10" s="159">
+        <v>344</v>
+      </c>
+      <c r="E10" s="159">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="I10" s="159">
+        <v>0</v>
+      </c>
+      <c r="J10" s="159">
+        <v>0</v>
+      </c>
+      <c r="K10" s="159">
+        <v>0</v>
+      </c>
+      <c r="L10" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="159">
+        <v>36</v>
+      </c>
+      <c r="D11" s="159">
+        <v>195</v>
+      </c>
+      <c r="E11" s="159">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="159">
+        <v>0</v>
+      </c>
+      <c r="J11" s="159">
+        <v>0</v>
+      </c>
+      <c r="K11" s="159">
+        <v>0</v>
+      </c>
+      <c r="L11" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="159">
+        <v>31</v>
+      </c>
+      <c r="D12" s="159">
+        <v>378</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="I12" s="159">
+        <v>0</v>
+      </c>
+      <c r="J12" s="159">
+        <v>0</v>
+      </c>
+      <c r="K12" s="159">
+        <v>1</v>
+      </c>
+      <c r="L12" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="159">
+        <v>31</v>
+      </c>
+      <c r="D13" s="159">
+        <v>402</v>
+      </c>
+      <c r="E13" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42695</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="159">
+        <v>0</v>
+      </c>
+      <c r="J13" s="159">
+        <v>0</v>
+      </c>
+      <c r="K13" s="159">
+        <v>1</v>
+      </c>
+      <c r="L13" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="159">
+        <v>20</v>
+      </c>
+      <c r="D14" s="159">
+        <v>179</v>
+      </c>
+      <c r="E14" s="159">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I14" s="159">
+        <v>0</v>
+      </c>
+      <c r="J14" s="159">
+        <v>0</v>
+      </c>
+      <c r="K14" s="159">
+        <v>0</v>
+      </c>
+      <c r="L14" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="159">
+        <v>17</v>
+      </c>
+      <c r="D15" s="159">
+        <v>261</v>
+      </c>
+      <c r="E15" s="159">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42692</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I15" s="159">
+        <v>0</v>
+      </c>
+      <c r="J15" s="159">
+        <v>0</v>
+      </c>
+      <c r="K15" s="159">
+        <v>0</v>
+      </c>
+      <c r="L15" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="23">
+        <v>3041</v>
+      </c>
+      <c r="E16" s="159">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>42578</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I16" s="159">
+        <v>0</v>
+      </c>
+      <c r="J16" s="159">
+        <v>0</v>
+      </c>
+      <c r="K16" s="159">
+        <v>0</v>
+      </c>
+      <c r="L16" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="23">
+        <v>10687</v>
+      </c>
+      <c r="E17" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="24">
+        <v>42689</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="159">
+        <v>0</v>
+      </c>
+      <c r="J17" s="159">
+        <v>0</v>
+      </c>
+      <c r="K17" s="159">
+        <v>2</v>
+      </c>
+      <c r="L17" s="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="165" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="L27">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="L28">
+        <v>768</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:L18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="The project status with regard to its quality gate." display="QG"/>
+    <hyperlink ref="B1" tooltip="Name" display="Name"/>
+    <hyperlink ref="C1" tooltip="Number of unit tests" display="UTs "/>
+    <hyperlink ref="D1" tooltip="Non Commenting Lines of Code" display="LOC"/>
+    <hyperlink ref="E1" tooltip="Total effort (in days) to fix all the issues on the component and therefore to comply to all the requirements." display="Technical Debt"/>
+    <hyperlink ref="F1" tooltip="Last Analysis" display="Last Analysis"/>
+    <hyperlink ref="G1" tooltip="Coverage by unit tests" display="Coverage"/>
+    <hyperlink ref="H1" tooltip="Condition coverage" display="Condition coverage"/>
+    <hyperlink ref="I1" tooltip="Blocker issues" display="Blocker issues"/>
+    <hyperlink ref="J1" tooltip="Critical issues" display="Critical issues"/>
+    <hyperlink ref="K1" tooltip="Major issues" display="Major issues"/>
+    <hyperlink ref="L1" tooltip="Minor issues" display="Minor issues"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="svb-service-payments"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="svb-service-entitlement"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="svb-service-ooba"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="mur-java-lib-httpclient"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="svb-scheduler-payments"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="mur-java-lib-auth"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="svb-service-accounts"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="svb-service-csrf"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="mur-java-lib-dbconnector"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="mur-java-lib-logger"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="mur-java-lib-monitoring"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="svb-service-client"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="mur-java-lib-exception"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="mur-java-lib-mappers"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="svb-web-core-ui"/>
+    <hyperlink ref="B17" r:id="rId16" tooltip="svb-web-payment"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
@@ -41316,20 +42126,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="29">
@@ -41534,18 +42344,18 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="159"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="159"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -42179,20 +42989,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="34" spans="2:2">
@@ -42796,20 +43606,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -43419,20 +44229,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
@@ -43654,13 +44464,13 @@
       <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="160" t="s">
+      <c r="U4" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1">
       <c r="A5" s="20"/>
@@ -43697,9 +44507,9 @@
       <c r="L5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="163"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
       <c r="X5" s="37" t="s">
         <v>165</v>
       </c>
@@ -44289,20 +45099,20 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
       <c r="N16" s="14">
         <v>9</v>
       </c>
@@ -45083,20 +45893,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
+++ b/DesktopShortcuts/Murano Web Payment Automation Test Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="-660" windowWidth="28800" windowHeight="15060" tabRatio="498" firstSheet="26" activeTab="33"/>
+    <workbookView xWindow="32300" yWindow="-2120" windowWidth="26080" windowHeight="15520" tabRatio="458" firstSheet="26" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="How To" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="380">
   <si>
     <t xml:space="preserve">Murano Test Automation </t>
   </si>
@@ -1330,6 +1330,36 @@
   <si>
     <t>2016 - 24</t>
   </si>
+  <si>
+    <t>Dashboar</t>
+  </si>
+  <si>
+    <t>Automate E2E</t>
+  </si>
+  <si>
+    <t>Auto Api Serv/Comp</t>
+  </si>
+  <si>
+    <t>Auto UI Comp</t>
+  </si>
+  <si>
+    <t>Sprint 2016-20</t>
+  </si>
+  <si>
+    <t>Sprint 2016-21</t>
+  </si>
+  <si>
+    <t>Sprint 2016-22</t>
+  </si>
+  <si>
+    <t>Sprint 2016-23</t>
+  </si>
+  <si>
+    <t>Sprint 2016-24</t>
+  </si>
+  <si>
+    <t>UK Payments</t>
+  </si>
 </sst>
 </file>
 
@@ -1885,7 +1915,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1965,8 +1995,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2321,8 +2358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="86">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2400,11 +2438,26 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF717E"/>
+      <color rgb="FFF7A400"/>
+      <color rgb="FF8DB7F6"/>
+      <color rgb="FFDF5D5A"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2684,11 +2737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120112232"/>
-        <c:axId val="2120115352"/>
+        <c:axId val="2118129880"/>
+        <c:axId val="2107449976"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2120112232"/>
+        <c:axId val="2118129880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120115352"/>
+        <c:crossAx val="2107449976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120115352"/>
+        <c:axId val="2107449976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120112232"/>
+        <c:crossAx val="2118129880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2781,6 +2834,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
           <c:cat>
             <c:strRef>
               <c:f>'11.14'!$R$48:$Y$48</c:f>
@@ -3095,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121287096"/>
-        <c:axId val="2121290216"/>
+        <c:axId val="2038789928"/>
+        <c:axId val="2038793048"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2121287096"/>
+        <c:axId val="2038789928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +3170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121290216"/>
+        <c:crossAx val="2038793048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3116,7 +3178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121290216"/>
+        <c:axId val="2038793048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121287096"/>
+        <c:crossAx val="2038789928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3142,6 +3204,498 @@
           <c:y val="0.314047098279382"/>
           <c:w val="0.125214262600737"/>
           <c:h val="0.371905803441236"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$81:$W$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>688.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>541.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto UI Comp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF717E"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$82:$W$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto Api Serv/Comp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F7A400"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$83:$W$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Automate E2E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$84:$W$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$85:$W$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11.14'!$Q$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.14'!$R$80:$W$80</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2016-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2016-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2016-22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2016-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2016-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.14'!$R$86:$W$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2117373352"/>
+        <c:axId val="2108752024"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="-2117373352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108752024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108752024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117373352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79972627865137"/>
+          <c:y val="0.310289051530702"/>
+          <c:w val="0.153129880249921"/>
+          <c:h val="0.296499751456964"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3317,11 +3871,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127002</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3365,7 +3949,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest_1" headers="0" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkWebQueryTest" headers="0" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3417,11 +4001,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput_1" headers="0" connectionId="33" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MarkSonarQubeMuranoTestOutput" headers="0" connectionId="32" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1"/>
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39438,10 +40022,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="F87" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="U125" sqref="U125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -39462,11 +40046,13 @@
     <col min="16" max="16" width="5.5" customWidth="1"/>
     <col min="17" max="17" width="20.1640625" customWidth="1"/>
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="13.83203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="160"/>
-    <col min="25" max="25" width="10.83203125" style="163"/>
+    <col min="22" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="160" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="163" customWidth="1"/>
+    <col min="26" max="28" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45">
@@ -40707,6 +41293,11 @@
     <row r="42" spans="1:25">
       <c r="A42" s="62"/>
     </row>
+    <row r="45" spans="1:25">
+      <c r="Q45" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="48" spans="1:25">
       <c r="R48" s="161">
         <v>42445</v>
@@ -40851,6 +41442,165 @@
     </row>
     <row r="56" spans="17:25">
       <c r="X56" s="162"/>
+    </row>
+    <row r="76" spans="17:25">
+      <c r="Q76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="17:25">
+      <c r="Q80" s="163"/>
+      <c r="R80" s="174">
+        <v>42614</v>
+      </c>
+      <c r="S80" s="163" t="s">
+        <v>374</v>
+      </c>
+      <c r="T80" s="163" t="s">
+        <v>375</v>
+      </c>
+      <c r="U80" s="163" t="s">
+        <v>376</v>
+      </c>
+      <c r="V80" s="163" t="s">
+        <v>377</v>
+      </c>
+      <c r="W80" s="163" t="s">
+        <v>378</v>
+      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+    </row>
+    <row r="81" spans="17:25">
+      <c r="Q81" t="s">
+        <v>363</v>
+      </c>
+      <c r="R81" s="163">
+        <v>274</v>
+      </c>
+      <c r="S81" s="163">
+        <v>688</v>
+      </c>
+      <c r="T81" s="163">
+        <v>569</v>
+      </c>
+      <c r="U81" s="163">
+        <v>540</v>
+      </c>
+      <c r="V81" s="163">
+        <v>536</v>
+      </c>
+      <c r="W81" s="163">
+        <v>541</v>
+      </c>
+      <c r="X81"/>
+      <c r="Y81"/>
+    </row>
+    <row r="82" spans="17:25">
+      <c r="Q82" t="s">
+        <v>373</v>
+      </c>
+      <c r="R82" s="163">
+        <v>0</v>
+      </c>
+      <c r="S82" s="163">
+        <v>0</v>
+      </c>
+      <c r="T82" s="163">
+        <v>53</v>
+      </c>
+      <c r="U82" s="163">
+        <v>53</v>
+      </c>
+      <c r="V82" s="163">
+        <v>53</v>
+      </c>
+      <c r="W82" s="163">
+        <v>53</v>
+      </c>
+      <c r="X82"/>
+      <c r="Y82"/>
+    </row>
+    <row r="83" spans="17:25">
+      <c r="Q83" t="s">
+        <v>372</v>
+      </c>
+      <c r="R83" s="163">
+        <v>0</v>
+      </c>
+      <c r="S83" s="163">
+        <v>0</v>
+      </c>
+      <c r="T83" s="163">
+        <v>16</v>
+      </c>
+      <c r="U83" s="163">
+        <v>16</v>
+      </c>
+      <c r="V83" s="163">
+        <v>16</v>
+      </c>
+      <c r="W83" s="163">
+        <v>16</v>
+      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+    </row>
+    <row r="84" spans="17:25">
+      <c r="Q84" t="s">
+        <v>371</v>
+      </c>
+      <c r="R84" s="163">
+        <v>124</v>
+      </c>
+      <c r="S84" s="163">
+        <v>131</v>
+      </c>
+      <c r="T84" s="163">
+        <v>132</v>
+      </c>
+      <c r="U84" s="163">
+        <v>132</v>
+      </c>
+      <c r="V84" s="163">
+        <v>132</v>
+      </c>
+      <c r="W84" s="163">
+        <v>163</v>
+      </c>
+      <c r="X84"/>
+      <c r="Y84"/>
+    </row>
+    <row r="85" spans="17:25">
+      <c r="Q85" t="s">
+        <v>360</v>
+      </c>
+      <c r="R85" s="163">
+        <v>173</v>
+      </c>
+      <c r="S85" s="163">
+        <v>212</v>
+      </c>
+      <c r="T85" s="163">
+        <v>212</v>
+      </c>
+      <c r="U85" s="163">
+        <v>212</v>
+      </c>
+      <c r="V85" s="163">
+        <v>212</v>
+      </c>
+      <c r="W85" s="163">
+        <v>212</v>
+      </c>
+      <c r="X85"/>
+      <c r="Y85"/>
+    </row>
+    <row r="86" spans="17:25">
+      <c r="U86" s="160"/>
+      <c r="V86" s="163"/>
+      <c r="X86"/>
+      <c r="Y86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -40906,7 +41656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
